--- a/SourceDataTables/FigS7d.xlsx
+++ b/SourceDataTables/FigS7d.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7049" uniqueCount="1007">
   <si>
     <t>BootstrapID</t>
   </si>
@@ -3054,7 +3054,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3064,14 +3064,38 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3093,27 +3117,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1002</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>1004</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>1005</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -3133,7 +3157,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3153,7 +3177,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3173,7 +3197,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3193,7 +3217,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3213,7 +3237,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3233,7 +3257,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3253,7 +3277,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3273,7 +3297,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3293,7 +3317,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -3313,7 +3337,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -3333,7 +3357,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -3353,7 +3377,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -3373,7 +3397,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -3393,7 +3417,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -3413,7 +3437,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -3433,7 +3457,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3453,7 +3477,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -3473,7 +3497,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3493,7 +3517,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3513,7 +3537,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3533,7 +3557,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3553,7 +3577,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3573,7 +3597,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3593,7 +3617,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3613,7 +3637,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -3633,7 +3657,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -3653,7 +3677,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -3673,7 +3697,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -3693,7 +3717,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -3713,7 +3737,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -3733,7 +3757,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -3753,7 +3777,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -3773,7 +3797,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -3793,7 +3817,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -3813,7 +3837,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -3833,7 +3857,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -3853,7 +3877,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -3873,7 +3897,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -3893,7 +3917,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -3913,7 +3937,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -3933,7 +3957,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -3953,7 +3977,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -3973,7 +3997,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -3993,7 +4017,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -4013,7 +4037,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -4033,7 +4057,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -4053,7 +4077,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -4073,7 +4097,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -4093,7 +4117,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -4113,7 +4137,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -4133,7 +4157,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -4153,7 +4177,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -4173,7 +4197,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -4193,7 +4217,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -4213,7 +4237,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -4233,7 +4257,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -4253,7 +4277,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -4273,7 +4297,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -4293,7 +4317,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -4313,7 +4337,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -4333,7 +4357,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -4353,7 +4377,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -4373,7 +4397,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -4393,7 +4417,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -4413,7 +4437,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -4433,7 +4457,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -4453,7 +4477,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -4473,7 +4497,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -4493,7 +4517,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -4513,7 +4537,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -4533,7 +4557,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -4553,7 +4577,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -4573,7 +4597,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -4593,7 +4617,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -4613,7 +4637,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -4633,7 +4657,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -4653,7 +4677,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -4673,7 +4697,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -4693,7 +4717,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -4713,7 +4737,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -4733,7 +4757,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -4753,7 +4777,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -4773,7 +4797,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -4793,7 +4817,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -4813,7 +4837,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -4833,7 +4857,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -4853,7 +4877,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -4873,7 +4897,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -4893,7 +4917,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -4913,7 +4937,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -4933,7 +4957,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -4953,7 +4977,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -4973,7 +4997,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -4993,7 +5017,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -5013,7 +5037,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -5033,7 +5057,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -5053,7 +5077,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -5073,7 +5097,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -5093,7 +5117,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -5113,7 +5137,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -5133,7 +5157,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -5153,7 +5177,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -5173,7 +5197,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -5193,7 +5217,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -5213,7 +5237,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -5233,7 +5257,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -5253,7 +5277,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -5273,7 +5297,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -5293,7 +5317,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -5313,7 +5337,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -5333,7 +5357,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -5353,7 +5377,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -5373,7 +5397,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -5393,7 +5417,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -5413,7 +5437,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -5433,7 +5457,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -5453,7 +5477,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -5473,7 +5497,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -5493,7 +5517,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -5513,7 +5537,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -5533,7 +5557,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -5553,7 +5577,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -5573,7 +5597,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -5593,7 +5617,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -5613,7 +5637,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -5633,7 +5657,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -5653,7 +5677,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -5673,7 +5697,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -5693,7 +5717,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -5713,7 +5737,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -5733,7 +5757,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -5753,7 +5777,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -5773,7 +5797,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -5793,7 +5817,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -5813,7 +5837,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -5833,7 +5857,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -5853,7 +5877,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -5873,7 +5897,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -5893,7 +5917,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -5913,7 +5937,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -5933,7 +5957,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -5953,7 +5977,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -5973,7 +5997,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -5993,7 +6017,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -6013,7 +6037,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -6033,7 +6057,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="13" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -6053,7 +6077,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -6073,7 +6097,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="13" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -6093,7 +6117,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -6113,7 +6137,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -6133,7 +6157,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -6153,7 +6177,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -6173,7 +6197,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="13" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -6193,7 +6217,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="13" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -6213,7 +6237,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="13" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -6233,7 +6257,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -6253,7 +6277,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="13" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -6273,7 +6297,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="13" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -6293,7 +6317,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -6313,7 +6337,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -6333,7 +6357,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="13" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -6353,7 +6377,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -6373,7 +6397,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -6393,7 +6417,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -6413,7 +6437,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -6433,7 +6457,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -6453,7 +6477,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="13" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -6473,7 +6497,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="13" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -6493,7 +6517,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="13" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -6513,7 +6537,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="13" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -6533,7 +6557,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -6553,7 +6577,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="13" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -6573,7 +6597,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="13" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -6593,7 +6617,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="13" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -6613,7 +6637,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -6633,7 +6657,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -6653,7 +6677,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="13" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -6673,7 +6697,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="13" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -6693,7 +6717,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="13" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -6713,7 +6737,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="13" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -6733,7 +6757,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="13" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -6753,7 +6777,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="13" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -6773,7 +6797,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="13" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -6793,7 +6817,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -6813,7 +6837,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="13" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -6833,7 +6857,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="13" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -6853,7 +6877,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="13" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -6873,7 +6897,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="13" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -6893,7 +6917,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="13" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -6913,7 +6937,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="13" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -6933,7 +6957,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="13" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -6953,7 +6977,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="13" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -6973,7 +6997,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="13" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -6993,7 +7017,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="13" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -7013,7 +7037,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="13" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -7033,7 +7057,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -7053,7 +7077,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -7073,7 +7097,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="13" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -7093,7 +7117,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="13" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -7113,7 +7137,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="13" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -7133,7 +7157,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="13" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -7153,7 +7177,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="13" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -7173,7 +7197,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="13" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -7193,7 +7217,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="13" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -7213,7 +7237,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="13" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -7233,7 +7257,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="13" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -7253,7 +7277,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="13" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -7273,7 +7297,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -7293,7 +7317,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="13" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -7313,7 +7337,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="13" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -7333,7 +7357,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="13" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -7353,7 +7377,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="13" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -7373,7 +7397,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="13" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -7393,7 +7417,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="13" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -7413,7 +7437,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -7433,7 +7457,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="13" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -7453,7 +7477,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="13" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -7473,7 +7497,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="13" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -7493,7 +7517,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="13" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -7513,7 +7537,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="13" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -7533,7 +7557,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="13" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -7553,7 +7577,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="13" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -7573,7 +7597,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="13" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -7593,7 +7617,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -7613,7 +7637,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="13" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -7633,7 +7657,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -7653,7 +7677,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="13" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -7673,7 +7697,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="13" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -7693,7 +7717,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="13" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -7713,7 +7737,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="13" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -7733,7 +7757,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="13" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -7753,7 +7777,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="13" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -7773,7 +7797,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="13" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -7793,7 +7817,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -7813,7 +7837,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="13" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -7833,7 +7857,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="13" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -7853,7 +7877,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="13" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -7873,7 +7897,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="13" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -7893,7 +7917,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -7913,7 +7937,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="13" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -7933,7 +7957,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="13" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -7953,7 +7977,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -7973,7 +7997,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -7993,7 +8017,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="13" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -8013,7 +8037,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="13" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -8033,7 +8057,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="13" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -8053,7 +8077,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="13" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -8073,7 +8097,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="13" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -8093,7 +8117,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="13" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -8113,7 +8137,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="13" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -8133,7 +8157,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="13" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -8153,7 +8177,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="13" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -8173,7 +8197,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="13" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -8193,7 +8217,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="13" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -8213,7 +8237,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="13" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -8233,7 +8257,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="13" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -8253,7 +8277,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="13" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -8273,7 +8297,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="13" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -8293,7 +8317,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="13" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -8313,7 +8337,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="13" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -8333,7 +8357,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="13" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -8353,7 +8377,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="13" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -8373,7 +8397,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="13" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -8393,7 +8417,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="13" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -8413,7 +8437,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="13" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -8433,7 +8457,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="13" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -8453,7 +8477,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="13" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -8473,7 +8497,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="13" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -8493,7 +8517,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="13" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -8513,7 +8537,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="13" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -8533,7 +8557,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="13" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -8553,7 +8577,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="13" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -8573,7 +8597,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="13" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -8593,7 +8617,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="13" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -8613,7 +8637,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="13" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -8633,7 +8657,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="13" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -8653,7 +8677,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="13" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -8673,7 +8697,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="13" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -8693,7 +8717,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -8713,7 +8737,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="13" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -8733,7 +8757,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="13" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -8753,7 +8777,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="13" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -8773,7 +8797,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="13" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -8793,7 +8817,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="13" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -8813,7 +8837,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="13" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -8833,7 +8857,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="13" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -8853,7 +8877,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -8873,7 +8897,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="13" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -8893,7 +8917,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="13" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -8913,7 +8937,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="13" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -8933,7 +8957,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="13" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -8953,7 +8977,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="13" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -8973,7 +8997,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="13" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -8993,7 +9017,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="13" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -9013,7 +9037,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="13" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -9033,7 +9057,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="13" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -9053,7 +9077,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="13" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -9073,7 +9097,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="13" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -9093,7 +9117,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="13" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -9113,7 +9137,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="13" t="s">
         <v>301</v>
       </c>
       <c r="B302">
@@ -9133,7 +9157,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="13" t="s">
         <v>302</v>
       </c>
       <c r="B303">
@@ -9153,7 +9177,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="13" t="s">
         <v>303</v>
       </c>
       <c r="B304">
@@ -9173,7 +9197,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="13" t="s">
         <v>304</v>
       </c>
       <c r="B305">
@@ -9193,7 +9217,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="13" t="s">
         <v>305</v>
       </c>
       <c r="B306">
@@ -9213,7 +9237,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="13" t="s">
         <v>306</v>
       </c>
       <c r="B307">
@@ -9233,7 +9257,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="13" t="s">
         <v>307</v>
       </c>
       <c r="B308">
@@ -9253,7 +9277,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="13" t="s">
         <v>308</v>
       </c>
       <c r="B309">
@@ -9273,7 +9297,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="13" t="s">
         <v>309</v>
       </c>
       <c r="B310">
@@ -9293,7 +9317,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="13" t="s">
         <v>310</v>
       </c>
       <c r="B311">
@@ -9313,7 +9337,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="13" t="s">
         <v>311</v>
       </c>
       <c r="B312">
@@ -9333,7 +9357,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="13" t="s">
         <v>312</v>
       </c>
       <c r="B313">
@@ -9353,7 +9377,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="13" t="s">
         <v>313</v>
       </c>
       <c r="B314">
@@ -9373,7 +9397,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="13" t="s">
         <v>314</v>
       </c>
       <c r="B315">
@@ -9393,7 +9417,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="13" t="s">
         <v>315</v>
       </c>
       <c r="B316">
@@ -9413,7 +9437,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="13" t="s">
         <v>316</v>
       </c>
       <c r="B317">
@@ -9433,7 +9457,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="13" t="s">
         <v>317</v>
       </c>
       <c r="B318">
@@ -9453,7 +9477,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="13" t="s">
         <v>318</v>
       </c>
       <c r="B319">
@@ -9473,7 +9497,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="13" t="s">
         <v>319</v>
       </c>
       <c r="B320">
@@ -9493,7 +9517,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="13" t="s">
         <v>320</v>
       </c>
       <c r="B321">
@@ -9513,7 +9537,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="13" t="s">
         <v>321</v>
       </c>
       <c r="B322">
@@ -9533,7 +9557,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="13" t="s">
         <v>322</v>
       </c>
       <c r="B323">
@@ -9553,7 +9577,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="13" t="s">
         <v>323</v>
       </c>
       <c r="B324">
@@ -9573,7 +9597,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="13" t="s">
         <v>324</v>
       </c>
       <c r="B325">
@@ -9593,7 +9617,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="13" t="s">
         <v>325</v>
       </c>
       <c r="B326">
@@ -9613,7 +9637,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="13" t="s">
         <v>326</v>
       </c>
       <c r="B327">
@@ -9633,7 +9657,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="13" t="s">
         <v>327</v>
       </c>
       <c r="B328">
@@ -9653,7 +9677,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="13" t="s">
         <v>328</v>
       </c>
       <c r="B329">
@@ -9673,7 +9697,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="13" t="s">
         <v>329</v>
       </c>
       <c r="B330">
@@ -9693,7 +9717,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="13" t="s">
         <v>330</v>
       </c>
       <c r="B331">
@@ -9713,7 +9737,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="13" t="s">
         <v>331</v>
       </c>
       <c r="B332">
@@ -9733,7 +9757,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="13" t="s">
         <v>332</v>
       </c>
       <c r="B333">
@@ -9753,7 +9777,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="13" t="s">
         <v>333</v>
       </c>
       <c r="B334">
@@ -9773,7 +9797,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="13" t="s">
         <v>334</v>
       </c>
       <c r="B335">
@@ -9793,7 +9817,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="13" t="s">
         <v>335</v>
       </c>
       <c r="B336">
@@ -9813,7 +9837,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="13" t="s">
         <v>336</v>
       </c>
       <c r="B337">
@@ -9833,7 +9857,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="13" t="s">
         <v>337</v>
       </c>
       <c r="B338">
@@ -9853,7 +9877,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="13" t="s">
         <v>338</v>
       </c>
       <c r="B339">
@@ -9873,7 +9897,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="13" t="s">
         <v>339</v>
       </c>
       <c r="B340">
@@ -9893,7 +9917,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="13" t="s">
         <v>340</v>
       </c>
       <c r="B341">
@@ -9913,7 +9937,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="13" t="s">
         <v>341</v>
       </c>
       <c r="B342">
@@ -9933,7 +9957,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="13" t="s">
         <v>342</v>
       </c>
       <c r="B343">
@@ -9953,7 +9977,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="13" t="s">
         <v>343</v>
       </c>
       <c r="B344">
@@ -9973,7 +9997,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="13" t="s">
         <v>344</v>
       </c>
       <c r="B345">
@@ -9993,7 +10017,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="13" t="s">
         <v>345</v>
       </c>
       <c r="B346">
@@ -10013,7 +10037,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="13" t="s">
         <v>346</v>
       </c>
       <c r="B347">
@@ -10033,7 +10057,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="13" t="s">
         <v>347</v>
       </c>
       <c r="B348">
@@ -10053,7 +10077,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="13" t="s">
         <v>348</v>
       </c>
       <c r="B349">
@@ -10073,7 +10097,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="13" t="s">
         <v>349</v>
       </c>
       <c r="B350">
@@ -10093,7 +10117,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="13" t="s">
         <v>350</v>
       </c>
       <c r="B351">
@@ -10113,7 +10137,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="13" t="s">
         <v>351</v>
       </c>
       <c r="B352">
@@ -10133,7 +10157,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="13" t="s">
         <v>352</v>
       </c>
       <c r="B353">
@@ -10153,7 +10177,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="13" t="s">
         <v>353</v>
       </c>
       <c r="B354">
@@ -10173,7 +10197,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="13" t="s">
         <v>354</v>
       </c>
       <c r="B355">
@@ -10193,7 +10217,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="13" t="s">
         <v>355</v>
       </c>
       <c r="B356">
@@ -10213,7 +10237,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="13" t="s">
         <v>356</v>
       </c>
       <c r="B357">
@@ -10233,7 +10257,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="13" t="s">
         <v>357</v>
       </c>
       <c r="B358">
@@ -10253,7 +10277,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="13" t="s">
         <v>358</v>
       </c>
       <c r="B359">
@@ -10273,7 +10297,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="13" t="s">
         <v>359</v>
       </c>
       <c r="B360">
@@ -10293,7 +10317,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="13" t="s">
         <v>360</v>
       </c>
       <c r="B361">
@@ -10313,7 +10337,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="13" t="s">
         <v>361</v>
       </c>
       <c r="B362">
@@ -10333,7 +10357,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="13" t="s">
         <v>362</v>
       </c>
       <c r="B363">
@@ -10353,7 +10377,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="13" t="s">
         <v>363</v>
       </c>
       <c r="B364">
@@ -10373,7 +10397,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="13" t="s">
         <v>364</v>
       </c>
       <c r="B365">
@@ -10393,7 +10417,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="13" t="s">
         <v>365</v>
       </c>
       <c r="B366">
@@ -10413,7 +10437,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="13" t="s">
         <v>366</v>
       </c>
       <c r="B367">
@@ -10433,7 +10457,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="13" t="s">
         <v>367</v>
       </c>
       <c r="B368">
@@ -10453,7 +10477,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="13" t="s">
         <v>368</v>
       </c>
       <c r="B369">
@@ -10473,7 +10497,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="13" t="s">
         <v>369</v>
       </c>
       <c r="B370">
@@ -10493,7 +10517,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="13" t="s">
         <v>370</v>
       </c>
       <c r="B371">
@@ -10513,7 +10537,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="13" t="s">
         <v>371</v>
       </c>
       <c r="B372">
@@ -10533,7 +10557,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="13" t="s">
         <v>372</v>
       </c>
       <c r="B373">
@@ -10553,7 +10577,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="13" t="s">
         <v>373</v>
       </c>
       <c r="B374">
@@ -10573,7 +10597,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="13" t="s">
         <v>374</v>
       </c>
       <c r="B375">
@@ -10593,7 +10617,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="13" t="s">
         <v>375</v>
       </c>
       <c r="B376">
@@ -10613,7 +10637,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="13" t="s">
         <v>376</v>
       </c>
       <c r="B377">
@@ -10633,7 +10657,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="13" t="s">
         <v>377</v>
       </c>
       <c r="B378">
@@ -10653,7 +10677,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="13" t="s">
         <v>378</v>
       </c>
       <c r="B379">
@@ -10673,7 +10697,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="13" t="s">
         <v>379</v>
       </c>
       <c r="B380">
@@ -10693,7 +10717,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="13" t="s">
         <v>380</v>
       </c>
       <c r="B381">
@@ -10713,7 +10737,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="13" t="s">
         <v>381</v>
       </c>
       <c r="B382">
@@ -10733,7 +10757,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="13" t="s">
         <v>382</v>
       </c>
       <c r="B383">
@@ -10753,7 +10777,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="13" t="s">
         <v>383</v>
       </c>
       <c r="B384">
@@ -10773,7 +10797,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="13" t="s">
         <v>384</v>
       </c>
       <c r="B385">
@@ -10793,7 +10817,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="13" t="s">
         <v>385</v>
       </c>
       <c r="B386">
@@ -10813,7 +10837,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="13" t="s">
         <v>386</v>
       </c>
       <c r="B387">
@@ -10833,7 +10857,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="13" t="s">
         <v>387</v>
       </c>
       <c r="B388">
@@ -10853,7 +10877,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="13" t="s">
         <v>388</v>
       </c>
       <c r="B389">
@@ -10873,7 +10897,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="13" t="s">
         <v>389</v>
       </c>
       <c r="B390">
@@ -10893,7 +10917,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="13" t="s">
         <v>390</v>
       </c>
       <c r="B391">
@@ -10913,7 +10937,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="13" t="s">
         <v>391</v>
       </c>
       <c r="B392">
@@ -10933,7 +10957,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="13" t="s">
         <v>392</v>
       </c>
       <c r="B393">
@@ -10953,7 +10977,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="13" t="s">
         <v>393</v>
       </c>
       <c r="B394">
@@ -10973,7 +10997,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="13" t="s">
         <v>394</v>
       </c>
       <c r="B395">
@@ -10993,7 +11017,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="13" t="s">
         <v>395</v>
       </c>
       <c r="B396">
@@ -11013,7 +11037,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B397">
@@ -11033,7 +11057,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="13" t="s">
         <v>397</v>
       </c>
       <c r="B398">
@@ -11053,7 +11077,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="13" t="s">
         <v>398</v>
       </c>
       <c r="B399">
@@ -11073,7 +11097,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="13" t="s">
         <v>399</v>
       </c>
       <c r="B400">
@@ -11093,7 +11117,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="13" t="s">
         <v>400</v>
       </c>
       <c r="B401">
@@ -11113,7 +11137,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="13" t="s">
         <v>401</v>
       </c>
       <c r="B402">
@@ -11133,7 +11157,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="13" t="s">
         <v>402</v>
       </c>
       <c r="B403">
@@ -11153,7 +11177,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="13" t="s">
         <v>403</v>
       </c>
       <c r="B404">
@@ -11173,7 +11197,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="13" t="s">
         <v>404</v>
       </c>
       <c r="B405">
@@ -11193,7 +11217,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="13" t="s">
         <v>405</v>
       </c>
       <c r="B406">
@@ -11213,7 +11237,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="13" t="s">
         <v>406</v>
       </c>
       <c r="B407">
@@ -11233,7 +11257,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="13" t="s">
         <v>407</v>
       </c>
       <c r="B408">
@@ -11253,7 +11277,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="13" t="s">
         <v>408</v>
       </c>
       <c r="B409">
@@ -11273,7 +11297,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="13" t="s">
         <v>409</v>
       </c>
       <c r="B410">
@@ -11293,7 +11317,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="13" t="s">
         <v>410</v>
       </c>
       <c r="B411">
@@ -11313,7 +11337,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B412">
@@ -11333,7 +11357,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="13" t="s">
         <v>412</v>
       </c>
       <c r="B413">
@@ -11353,7 +11377,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="13" t="s">
         <v>413</v>
       </c>
       <c r="B414">
@@ -11373,7 +11397,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="13" t="s">
         <v>414</v>
       </c>
       <c r="B415">
@@ -11393,7 +11417,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="13" t="s">
         <v>415</v>
       </c>
       <c r="B416">
@@ -11413,7 +11437,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="13" t="s">
         <v>416</v>
       </c>
       <c r="B417">
@@ -11433,7 +11457,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="13" t="s">
         <v>417</v>
       </c>
       <c r="B418">
@@ -11453,7 +11477,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="13" t="s">
         <v>418</v>
       </c>
       <c r="B419">
@@ -11473,7 +11497,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="13" t="s">
         <v>419</v>
       </c>
       <c r="B420">
@@ -11493,7 +11517,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="13" t="s">
         <v>420</v>
       </c>
       <c r="B421">
@@ -11513,7 +11537,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="13" t="s">
         <v>421</v>
       </c>
       <c r="B422">
@@ -11533,7 +11557,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="13" t="s">
         <v>422</v>
       </c>
       <c r="B423">
@@ -11553,7 +11577,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="13" t="s">
         <v>423</v>
       </c>
       <c r="B424">
@@ -11573,7 +11597,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="13" t="s">
         <v>424</v>
       </c>
       <c r="B425">
@@ -11593,7 +11617,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="13" t="s">
         <v>425</v>
       </c>
       <c r="B426">
@@ -11613,7 +11637,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="13" t="s">
         <v>426</v>
       </c>
       <c r="B427">
@@ -11633,7 +11657,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="13" t="s">
         <v>427</v>
       </c>
       <c r="B428">
@@ -11653,7 +11677,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="13" t="s">
         <v>428</v>
       </c>
       <c r="B429">
@@ -11673,7 +11697,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="13" t="s">
         <v>429</v>
       </c>
       <c r="B430">
@@ -11693,7 +11717,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="13" t="s">
         <v>430</v>
       </c>
       <c r="B431">
@@ -11713,7 +11737,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="13" t="s">
         <v>431</v>
       </c>
       <c r="B432">
@@ -11733,7 +11757,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B433">
@@ -11753,7 +11777,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="13" t="s">
         <v>433</v>
       </c>
       <c r="B434">
@@ -11773,7 +11797,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="13" t="s">
         <v>434</v>
       </c>
       <c r="B435">
@@ -11793,7 +11817,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="13" t="s">
         <v>435</v>
       </c>
       <c r="B436">
@@ -11813,7 +11837,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="13" t="s">
         <v>436</v>
       </c>
       <c r="B437">
@@ -11833,7 +11857,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="13" t="s">
         <v>437</v>
       </c>
       <c r="B438">
@@ -11853,7 +11877,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="13" t="s">
         <v>438</v>
       </c>
       <c r="B439">
@@ -11873,7 +11897,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="13" t="s">
         <v>439</v>
       </c>
       <c r="B440">
@@ -11893,7 +11917,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="13" t="s">
         <v>440</v>
       </c>
       <c r="B441">
@@ -11913,7 +11937,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="13" t="s">
         <v>441</v>
       </c>
       <c r="B442">
@@ -11933,7 +11957,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="13" t="s">
         <v>442</v>
       </c>
       <c r="B443">
@@ -11953,7 +11977,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="13" t="s">
         <v>443</v>
       </c>
       <c r="B444">
@@ -11973,7 +11997,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="13" t="s">
         <v>444</v>
       </c>
       <c r="B445">
@@ -11993,7 +12017,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="13" t="s">
         <v>445</v>
       </c>
       <c r="B446">
@@ -12013,7 +12037,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="13" t="s">
         <v>446</v>
       </c>
       <c r="B447">
@@ -12033,7 +12057,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="13" t="s">
         <v>447</v>
       </c>
       <c r="B448">
@@ -12053,7 +12077,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="13" t="s">
         <v>448</v>
       </c>
       <c r="B449">
@@ -12073,7 +12097,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="1" t="s">
+      <c r="A450" s="13" t="s">
         <v>449</v>
       </c>
       <c r="B450">
@@ -12093,7 +12117,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="1" t="s">
+      <c r="A451" s="13" t="s">
         <v>450</v>
       </c>
       <c r="B451">
@@ -12113,7 +12137,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="13" t="s">
         <v>451</v>
       </c>
       <c r="B452">
@@ -12133,7 +12157,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="13" t="s">
         <v>452</v>
       </c>
       <c r="B453">
@@ -12153,7 +12177,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B454">
@@ -12173,7 +12197,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="13" t="s">
         <v>454</v>
       </c>
       <c r="B455">
@@ -12193,7 +12217,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="13" t="s">
         <v>455</v>
       </c>
       <c r="B456">
@@ -12213,7 +12237,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="13" t="s">
         <v>456</v>
       </c>
       <c r="B457">
@@ -12233,7 +12257,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="13" t="s">
         <v>457</v>
       </c>
       <c r="B458">
@@ -12253,7 +12277,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="13" t="s">
         <v>458</v>
       </c>
       <c r="B459">
@@ -12273,7 +12297,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="13" t="s">
         <v>459</v>
       </c>
       <c r="B460">
@@ -12293,7 +12317,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="13" t="s">
         <v>460</v>
       </c>
       <c r="B461">
@@ -12313,7 +12337,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="13" t="s">
         <v>461</v>
       </c>
       <c r="B462">
@@ -12333,7 +12357,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="13" t="s">
         <v>462</v>
       </c>
       <c r="B463">
@@ -12353,7 +12377,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="13" t="s">
         <v>463</v>
       </c>
       <c r="B464">
@@ -12373,7 +12397,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="13" t="s">
         <v>464</v>
       </c>
       <c r="B465">
@@ -12393,7 +12417,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="13" t="s">
         <v>465</v>
       </c>
       <c r="B466">
@@ -12413,7 +12437,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="13" t="s">
         <v>466</v>
       </c>
       <c r="B467">
@@ -12433,7 +12457,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="13" t="s">
         <v>467</v>
       </c>
       <c r="B468">
@@ -12453,7 +12477,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="13" t="s">
         <v>468</v>
       </c>
       <c r="B469">
@@ -12473,7 +12497,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="13" t="s">
         <v>469</v>
       </c>
       <c r="B470">
@@ -12493,7 +12517,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="13" t="s">
         <v>470</v>
       </c>
       <c r="B471">
@@ -12513,7 +12537,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="13" t="s">
         <v>471</v>
       </c>
       <c r="B472">
@@ -12533,7 +12557,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="13" t="s">
         <v>472</v>
       </c>
       <c r="B473">
@@ -12553,7 +12577,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="13" t="s">
         <v>473</v>
       </c>
       <c r="B474">
@@ -12573,7 +12597,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="13" t="s">
         <v>474</v>
       </c>
       <c r="B475">
@@ -12593,7 +12617,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="13" t="s">
         <v>475</v>
       </c>
       <c r="B476">
@@ -12613,7 +12637,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="13" t="s">
         <v>476</v>
       </c>
       <c r="B477">
@@ -12633,7 +12657,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="13" t="s">
         <v>477</v>
       </c>
       <c r="B478">
@@ -12653,7 +12677,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="13" t="s">
         <v>478</v>
       </c>
       <c r="B479">
@@ -12673,7 +12697,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="13" t="s">
         <v>479</v>
       </c>
       <c r="B480">
@@ -12693,7 +12717,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="13" t="s">
         <v>480</v>
       </c>
       <c r="B481">
@@ -12713,7 +12737,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="13" t="s">
         <v>481</v>
       </c>
       <c r="B482">
@@ -12733,7 +12757,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="13" t="s">
         <v>482</v>
       </c>
       <c r="B483">
@@ -12753,7 +12777,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="13" t="s">
         <v>483</v>
       </c>
       <c r="B484">
@@ -12773,7 +12797,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="13" t="s">
         <v>484</v>
       </c>
       <c r="B485">
@@ -12793,7 +12817,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="13" t="s">
         <v>485</v>
       </c>
       <c r="B486">
@@ -12813,7 +12837,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="13" t="s">
         <v>486</v>
       </c>
       <c r="B487">
@@ -12833,7 +12857,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="13" t="s">
         <v>487</v>
       </c>
       <c r="B488">
@@ -12853,7 +12877,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="13" t="s">
         <v>488</v>
       </c>
       <c r="B489">
@@ -12873,7 +12897,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="13" t="s">
         <v>489</v>
       </c>
       <c r="B490">
@@ -12893,7 +12917,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="13" t="s">
         <v>490</v>
       </c>
       <c r="B491">
@@ -12913,7 +12937,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="13" t="s">
         <v>491</v>
       </c>
       <c r="B492">
@@ -12933,7 +12957,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="13" t="s">
         <v>492</v>
       </c>
       <c r="B493">
@@ -12953,7 +12977,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B494">
@@ -12973,7 +12997,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="13" t="s">
         <v>494</v>
       </c>
       <c r="B495">
@@ -12993,7 +13017,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="13" t="s">
         <v>495</v>
       </c>
       <c r="B496">
@@ -13013,7 +13037,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="13" t="s">
         <v>496</v>
       </c>
       <c r="B497">
@@ -13033,7 +13057,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="13" t="s">
         <v>497</v>
       </c>
       <c r="B498">
@@ -13053,7 +13077,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="13" t="s">
         <v>498</v>
       </c>
       <c r="B499">
@@ -13073,7 +13097,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="13" t="s">
         <v>499</v>
       </c>
       <c r="B500">
@@ -13093,7 +13117,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="13" t="s">
         <v>500</v>
       </c>
       <c r="B501">
@@ -13113,7 +13137,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="13" t="s">
         <v>501</v>
       </c>
       <c r="B502">
@@ -13133,7 +13157,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="13" t="s">
         <v>502</v>
       </c>
       <c r="B503">
@@ -13153,7 +13177,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="13" t="s">
         <v>503</v>
       </c>
       <c r="B504">
@@ -13173,7 +13197,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="13" t="s">
         <v>504</v>
       </c>
       <c r="B505">
@@ -13193,7 +13217,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="13" t="s">
         <v>505</v>
       </c>
       <c r="B506">
@@ -13213,7 +13237,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="13" t="s">
         <v>506</v>
       </c>
       <c r="B507">
@@ -13233,7 +13257,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="13" t="s">
         <v>507</v>
       </c>
       <c r="B508">
@@ -13253,7 +13277,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="13" t="s">
         <v>508</v>
       </c>
       <c r="B509">
@@ -13273,7 +13297,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="13" t="s">
         <v>509</v>
       </c>
       <c r="B510">
@@ -13293,7 +13317,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="13" t="s">
         <v>510</v>
       </c>
       <c r="B511">
@@ -13313,7 +13337,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="13" t="s">
         <v>511</v>
       </c>
       <c r="B512">
@@ -13333,7 +13357,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="13" t="s">
         <v>512</v>
       </c>
       <c r="B513">
@@ -13353,7 +13377,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="13" t="s">
         <v>513</v>
       </c>
       <c r="B514">
@@ -13373,7 +13397,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="13" t="s">
         <v>514</v>
       </c>
       <c r="B515">
@@ -13393,7 +13417,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="13" t="s">
         <v>515</v>
       </c>
       <c r="B516">
@@ -13413,7 +13437,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="13" t="s">
         <v>516</v>
       </c>
       <c r="B517">
@@ -13433,7 +13457,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="13" t="s">
         <v>517</v>
       </c>
       <c r="B518">
@@ -13453,7 +13477,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="13" t="s">
         <v>518</v>
       </c>
       <c r="B519">
@@ -13473,7 +13497,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="13" t="s">
         <v>519</v>
       </c>
       <c r="B520">
@@ -13493,7 +13517,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="13" t="s">
         <v>520</v>
       </c>
       <c r="B521">
@@ -13513,7 +13537,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="13" t="s">
         <v>521</v>
       </c>
       <c r="B522">
@@ -13533,7 +13557,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="13" t="s">
         <v>522</v>
       </c>
       <c r="B523">
@@ -13553,7 +13577,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="13" t="s">
         <v>523</v>
       </c>
       <c r="B524">
@@ -13573,7 +13597,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="13" t="s">
         <v>524</v>
       </c>
       <c r="B525">
@@ -13593,7 +13617,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="13" t="s">
         <v>525</v>
       </c>
       <c r="B526">
@@ -13613,7 +13637,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="13" t="s">
         <v>526</v>
       </c>
       <c r="B527">
@@ -13633,7 +13657,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="13" t="s">
         <v>527</v>
       </c>
       <c r="B528">
@@ -13653,7 +13677,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="1" t="s">
+      <c r="A529" s="13" t="s">
         <v>528</v>
       </c>
       <c r="B529">
@@ -13673,7 +13697,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="1" t="s">
+      <c r="A530" s="13" t="s">
         <v>529</v>
       </c>
       <c r="B530">
@@ -13693,7 +13717,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="1" t="s">
+      <c r="A531" s="13" t="s">
         <v>530</v>
       </c>
       <c r="B531">
@@ -13713,7 +13737,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="1" t="s">
+      <c r="A532" s="13" t="s">
         <v>531</v>
       </c>
       <c r="B532">
@@ -13733,7 +13757,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="13" t="s">
         <v>532</v>
       </c>
       <c r="B533">
@@ -13753,7 +13777,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="13" t="s">
         <v>533</v>
       </c>
       <c r="B534">
@@ -13773,7 +13797,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="13" t="s">
         <v>534</v>
       </c>
       <c r="B535">
@@ -13793,7 +13817,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="13" t="s">
         <v>535</v>
       </c>
       <c r="B536">
@@ -13813,7 +13837,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="1" t="s">
+      <c r="A537" s="13" t="s">
         <v>536</v>
       </c>
       <c r="B537">
@@ -13833,7 +13857,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="13" t="s">
         <v>537</v>
       </c>
       <c r="B538">
@@ -13853,7 +13877,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="1" t="s">
+      <c r="A539" s="13" t="s">
         <v>538</v>
       </c>
       <c r="B539">
@@ -13873,7 +13897,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="1" t="s">
+      <c r="A540" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B540">
@@ -13893,7 +13917,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="13" t="s">
         <v>540</v>
       </c>
       <c r="B541">
@@ -13913,7 +13937,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="13" t="s">
         <v>541</v>
       </c>
       <c r="B542">
@@ -13933,7 +13957,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="13" t="s">
         <v>542</v>
       </c>
       <c r="B543">
@@ -13953,7 +13977,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="1" t="s">
+      <c r="A544" s="13" t="s">
         <v>543</v>
       </c>
       <c r="B544">
@@ -13973,7 +13997,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="13" t="s">
         <v>544</v>
       </c>
       <c r="B545">
@@ -13993,7 +14017,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="1" t="s">
+      <c r="A546" s="13" t="s">
         <v>545</v>
       </c>
       <c r="B546">
@@ -14013,7 +14037,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="1" t="s">
+      <c r="A547" s="13" t="s">
         <v>546</v>
       </c>
       <c r="B547">
@@ -14033,7 +14057,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="13" t="s">
         <v>547</v>
       </c>
       <c r="B548">
@@ -14053,7 +14077,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="1" t="s">
+      <c r="A549" s="13" t="s">
         <v>548</v>
       </c>
       <c r="B549">
@@ -14073,7 +14097,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="1" t="s">
+      <c r="A550" s="13" t="s">
         <v>549</v>
       </c>
       <c r="B550">
@@ -14093,7 +14117,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="1" t="s">
+      <c r="A551" s="13" t="s">
         <v>550</v>
       </c>
       <c r="B551">
@@ -14113,7 +14137,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="13" t="s">
         <v>551</v>
       </c>
       <c r="B552">
@@ -14133,7 +14157,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="13" t="s">
         <v>552</v>
       </c>
       <c r="B553">
@@ -14153,7 +14177,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="13" t="s">
         <v>553</v>
       </c>
       <c r="B554">
@@ -14173,7 +14197,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="13" t="s">
         <v>554</v>
       </c>
       <c r="B555">
@@ -14193,7 +14217,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="13" t="s">
         <v>555</v>
       </c>
       <c r="B556">
@@ -14213,7 +14237,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="13" t="s">
         <v>556</v>
       </c>
       <c r="B557">
@@ -14233,7 +14257,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="13" t="s">
         <v>557</v>
       </c>
       <c r="B558">
@@ -14253,7 +14277,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="13" t="s">
         <v>558</v>
       </c>
       <c r="B559">
@@ -14273,7 +14297,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="13" t="s">
         <v>559</v>
       </c>
       <c r="B560">
@@ -14293,7 +14317,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="13" t="s">
         <v>560</v>
       </c>
       <c r="B561">
@@ -14313,7 +14337,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="1" t="s">
+      <c r="A562" s="13" t="s">
         <v>561</v>
       </c>
       <c r="B562">
@@ -14333,7 +14357,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="1" t="s">
+      <c r="A563" s="13" t="s">
         <v>562</v>
       </c>
       <c r="B563">
@@ -14353,7 +14377,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="13" t="s">
         <v>563</v>
       </c>
       <c r="B564">
@@ -14373,7 +14397,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="1" t="s">
+      <c r="A565" s="13" t="s">
         <v>564</v>
       </c>
       <c r="B565">
@@ -14393,7 +14417,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="13" t="s">
         <v>565</v>
       </c>
       <c r="B566">
@@ -14413,7 +14437,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="13" t="s">
         <v>566</v>
       </c>
       <c r="B567">
@@ -14433,7 +14457,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="1" t="s">
+      <c r="A568" s="13" t="s">
         <v>567</v>
       </c>
       <c r="B568">
@@ -14453,7 +14477,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="1" t="s">
+      <c r="A569" s="13" t="s">
         <v>568</v>
       </c>
       <c r="B569">
@@ -14473,7 +14497,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="1" t="s">
+      <c r="A570" s="13" t="s">
         <v>569</v>
       </c>
       <c r="B570">
@@ -14493,7 +14517,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="13" t="s">
         <v>570</v>
       </c>
       <c r="B571">
@@ -14513,7 +14537,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="1" t="s">
+      <c r="A572" s="13" t="s">
         <v>571</v>
       </c>
       <c r="B572">
@@ -14533,7 +14557,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="1" t="s">
+      <c r="A573" s="13" t="s">
         <v>572</v>
       </c>
       <c r="B573">
@@ -14553,7 +14577,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="1" t="s">
+      <c r="A574" s="13" t="s">
         <v>573</v>
       </c>
       <c r="B574">
@@ -14573,7 +14597,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="1" t="s">
+      <c r="A575" s="13" t="s">
         <v>574</v>
       </c>
       <c r="B575">
@@ -14593,7 +14617,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="1" t="s">
+      <c r="A576" s="13" t="s">
         <v>575</v>
       </c>
       <c r="B576">
@@ -14613,7 +14637,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="1" t="s">
+      <c r="A577" s="13" t="s">
         <v>576</v>
       </c>
       <c r="B577">
@@ -14633,7 +14657,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="1" t="s">
+      <c r="A578" s="13" t="s">
         <v>577</v>
       </c>
       <c r="B578">
@@ -14653,7 +14677,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="1" t="s">
+      <c r="A579" s="13" t="s">
         <v>578</v>
       </c>
       <c r="B579">
@@ -14673,7 +14697,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="1" t="s">
+      <c r="A580" s="13" t="s">
         <v>579</v>
       </c>
       <c r="B580">
@@ -14693,7 +14717,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="1" t="s">
+      <c r="A581" s="13" t="s">
         <v>580</v>
       </c>
       <c r="B581">
@@ -14713,7 +14737,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="13" t="s">
         <v>581</v>
       </c>
       <c r="B582">
@@ -14733,7 +14757,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="1" t="s">
+      <c r="A583" s="13" t="s">
         <v>582</v>
       </c>
       <c r="B583">
@@ -14753,7 +14777,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="1" t="s">
+      <c r="A584" s="13" t="s">
         <v>583</v>
       </c>
       <c r="B584">
@@ -14773,7 +14797,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="13" t="s">
         <v>584</v>
       </c>
       <c r="B585">
@@ -14793,7 +14817,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="1" t="s">
+      <c r="A586" s="13" t="s">
         <v>585</v>
       </c>
       <c r="B586">
@@ -14813,7 +14837,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="1" t="s">
+      <c r="A587" s="13" t="s">
         <v>586</v>
       </c>
       <c r="B587">
@@ -14833,7 +14857,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="1" t="s">
+      <c r="A588" s="13" t="s">
         <v>587</v>
       </c>
       <c r="B588">
@@ -14853,7 +14877,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="13" t="s">
         <v>588</v>
       </c>
       <c r="B589">
@@ -14873,7 +14897,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="1" t="s">
+      <c r="A590" s="13" t="s">
         <v>589</v>
       </c>
       <c r="B590">
@@ -14893,7 +14917,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="1" t="s">
+      <c r="A591" s="13" t="s">
         <v>590</v>
       </c>
       <c r="B591">
@@ -14913,7 +14937,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="1" t="s">
+      <c r="A592" s="13" t="s">
         <v>591</v>
       </c>
       <c r="B592">
@@ -14933,7 +14957,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="1" t="s">
+      <c r="A593" s="13" t="s">
         <v>592</v>
       </c>
       <c r="B593">
@@ -14953,7 +14977,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="1" t="s">
+      <c r="A594" s="13" t="s">
         <v>593</v>
       </c>
       <c r="B594">
@@ -14973,7 +14997,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="13" t="s">
         <v>594</v>
       </c>
       <c r="B595">
@@ -14993,7 +15017,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="1" t="s">
+      <c r="A596" s="13" t="s">
         <v>595</v>
       </c>
       <c r="B596">
@@ -15013,7 +15037,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="1" t="s">
+      <c r="A597" s="13" t="s">
         <v>596</v>
       </c>
       <c r="B597">
@@ -15033,7 +15057,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="1" t="s">
+      <c r="A598" s="13" t="s">
         <v>597</v>
       </c>
       <c r="B598">
@@ -15053,7 +15077,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="1" t="s">
+      <c r="A599" s="13" t="s">
         <v>598</v>
       </c>
       <c r="B599">
@@ -15073,7 +15097,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="1" t="s">
+      <c r="A600" s="13" t="s">
         <v>599</v>
       </c>
       <c r="B600">
@@ -15093,7 +15117,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="1" t="s">
+      <c r="A601" s="13" t="s">
         <v>600</v>
       </c>
       <c r="B601">
@@ -15113,7 +15137,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="1" t="s">
+      <c r="A602" s="13" t="s">
         <v>601</v>
       </c>
       <c r="B602">
@@ -15133,7 +15157,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="1" t="s">
+      <c r="A603" s="13" t="s">
         <v>602</v>
       </c>
       <c r="B603">
@@ -15153,7 +15177,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="1" t="s">
+      <c r="A604" s="13" t="s">
         <v>603</v>
       </c>
       <c r="B604">
@@ -15173,7 +15197,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="1" t="s">
+      <c r="A605" s="13" t="s">
         <v>604</v>
       </c>
       <c r="B605">
@@ -15193,7 +15217,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="1" t="s">
+      <c r="A606" s="13" t="s">
         <v>605</v>
       </c>
       <c r="B606">
@@ -15213,7 +15237,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="1" t="s">
+      <c r="A607" s="13" t="s">
         <v>606</v>
       </c>
       <c r="B607">
@@ -15233,7 +15257,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="1" t="s">
+      <c r="A608" s="13" t="s">
         <v>607</v>
       </c>
       <c r="B608">
@@ -15253,7 +15277,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="1" t="s">
+      <c r="A609" s="13" t="s">
         <v>608</v>
       </c>
       <c r="B609">
@@ -15273,7 +15297,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="1" t="s">
+      <c r="A610" s="13" t="s">
         <v>609</v>
       </c>
       <c r="B610">
@@ -15293,7 +15317,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="1" t="s">
+      <c r="A611" s="13" t="s">
         <v>610</v>
       </c>
       <c r="B611">
@@ -15313,7 +15337,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="1" t="s">
+      <c r="A612" s="13" t="s">
         <v>611</v>
       </c>
       <c r="B612">
@@ -15333,7 +15357,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="1" t="s">
+      <c r="A613" s="13" t="s">
         <v>612</v>
       </c>
       <c r="B613">
@@ -15353,7 +15377,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="1" t="s">
+      <c r="A614" s="13" t="s">
         <v>613</v>
       </c>
       <c r="B614">
@@ -15373,7 +15397,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="1" t="s">
+      <c r="A615" s="13" t="s">
         <v>614</v>
       </c>
       <c r="B615">
@@ -15393,7 +15417,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="1" t="s">
+      <c r="A616" s="13" t="s">
         <v>615</v>
       </c>
       <c r="B616">
@@ -15413,7 +15437,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="1" t="s">
+      <c r="A617" s="13" t="s">
         <v>616</v>
       </c>
       <c r="B617">
@@ -15433,7 +15457,7 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="1" t="s">
+      <c r="A618" s="13" t="s">
         <v>617</v>
       </c>
       <c r="B618">
@@ -15453,7 +15477,7 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="1" t="s">
+      <c r="A619" s="13" t="s">
         <v>618</v>
       </c>
       <c r="B619">
@@ -15473,7 +15497,7 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="1" t="s">
+      <c r="A620" s="13" t="s">
         <v>619</v>
       </c>
       <c r="B620">
@@ -15493,7 +15517,7 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="1" t="s">
+      <c r="A621" s="13" t="s">
         <v>620</v>
       </c>
       <c r="B621">
@@ -15513,7 +15537,7 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="1" t="s">
+      <c r="A622" s="13" t="s">
         <v>621</v>
       </c>
       <c r="B622">
@@ -15533,7 +15557,7 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="1" t="s">
+      <c r="A623" s="13" t="s">
         <v>622</v>
       </c>
       <c r="B623">
@@ -15553,7 +15577,7 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="1" t="s">
+      <c r="A624" s="13" t="s">
         <v>623</v>
       </c>
       <c r="B624">
@@ -15573,7 +15597,7 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="1" t="s">
+      <c r="A625" s="13" t="s">
         <v>624</v>
       </c>
       <c r="B625">
@@ -15593,7 +15617,7 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="1" t="s">
+      <c r="A626" s="13" t="s">
         <v>625</v>
       </c>
       <c r="B626">
@@ -15613,7 +15637,7 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="1" t="s">
+      <c r="A627" s="13" t="s">
         <v>626</v>
       </c>
       <c r="B627">
@@ -15633,7 +15657,7 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="1" t="s">
+      <c r="A628" s="13" t="s">
         <v>627</v>
       </c>
       <c r="B628">
@@ -15653,7 +15677,7 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="1" t="s">
+      <c r="A629" s="13" t="s">
         <v>628</v>
       </c>
       <c r="B629">
@@ -15673,7 +15697,7 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="1" t="s">
+      <c r="A630" s="13" t="s">
         <v>629</v>
       </c>
       <c r="B630">
@@ -15693,7 +15717,7 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="1" t="s">
+      <c r="A631" s="13" t="s">
         <v>630</v>
       </c>
       <c r="B631">
@@ -15713,7 +15737,7 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="1" t="s">
+      <c r="A632" s="13" t="s">
         <v>631</v>
       </c>
       <c r="B632">
@@ -15733,7 +15757,7 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="1" t="s">
+      <c r="A633" s="13" t="s">
         <v>632</v>
       </c>
       <c r="B633">
@@ -15753,7 +15777,7 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="1" t="s">
+      <c r="A634" s="13" t="s">
         <v>633</v>
       </c>
       <c r="B634">
@@ -15773,7 +15797,7 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="1" t="s">
+      <c r="A635" s="13" t="s">
         <v>634</v>
       </c>
       <c r="B635">
@@ -15793,7 +15817,7 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="1" t="s">
+      <c r="A636" s="13" t="s">
         <v>635</v>
       </c>
       <c r="B636">
@@ -15813,7 +15837,7 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="1" t="s">
+      <c r="A637" s="13" t="s">
         <v>636</v>
       </c>
       <c r="B637">
@@ -15833,7 +15857,7 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="1" t="s">
+      <c r="A638" s="13" t="s">
         <v>637</v>
       </c>
       <c r="B638">
@@ -15853,7 +15877,7 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="1" t="s">
+      <c r="A639" s="13" t="s">
         <v>638</v>
       </c>
       <c r="B639">
@@ -15873,7 +15897,7 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="1" t="s">
+      <c r="A640" s="13" t="s">
         <v>639</v>
       </c>
       <c r="B640">
@@ -15893,7 +15917,7 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="1" t="s">
+      <c r="A641" s="13" t="s">
         <v>640</v>
       </c>
       <c r="B641">
@@ -15913,7 +15937,7 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="1" t="s">
+      <c r="A642" s="13" t="s">
         <v>641</v>
       </c>
       <c r="B642">
@@ -15933,7 +15957,7 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="1" t="s">
+      <c r="A643" s="13" t="s">
         <v>642</v>
       </c>
       <c r="B643">
@@ -15953,7 +15977,7 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="1" t="s">
+      <c r="A644" s="13" t="s">
         <v>643</v>
       </c>
       <c r="B644">
@@ -15973,7 +15997,7 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="1" t="s">
+      <c r="A645" s="13" t="s">
         <v>644</v>
       </c>
       <c r="B645">
@@ -15993,7 +16017,7 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="1" t="s">
+      <c r="A646" s="13" t="s">
         <v>645</v>
       </c>
       <c r="B646">
@@ -16013,7 +16037,7 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="1" t="s">
+      <c r="A647" s="13" t="s">
         <v>646</v>
       </c>
       <c r="B647">
@@ -16033,7 +16057,7 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="1" t="s">
+      <c r="A648" s="13" t="s">
         <v>647</v>
       </c>
       <c r="B648">
@@ -16053,7 +16077,7 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="1" t="s">
+      <c r="A649" s="13" t="s">
         <v>648</v>
       </c>
       <c r="B649">
@@ -16073,7 +16097,7 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="1" t="s">
+      <c r="A650" s="13" t="s">
         <v>649</v>
       </c>
       <c r="B650">
@@ -16093,7 +16117,7 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="1" t="s">
+      <c r="A651" s="13" t="s">
         <v>650</v>
       </c>
       <c r="B651">
@@ -16113,7 +16137,7 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="1" t="s">
+      <c r="A652" s="13" t="s">
         <v>651</v>
       </c>
       <c r="B652">
@@ -16133,7 +16157,7 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="1" t="s">
+      <c r="A653" s="13" t="s">
         <v>652</v>
       </c>
       <c r="B653">
@@ -16153,7 +16177,7 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="1" t="s">
+      <c r="A654" s="13" t="s">
         <v>653</v>
       </c>
       <c r="B654">
@@ -16173,7 +16197,7 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="1" t="s">
+      <c r="A655" s="13" t="s">
         <v>654</v>
       </c>
       <c r="B655">
@@ -16193,7 +16217,7 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="1" t="s">
+      <c r="A656" s="13" t="s">
         <v>655</v>
       </c>
       <c r="B656">
@@ -16213,7 +16237,7 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="1" t="s">
+      <c r="A657" s="13" t="s">
         <v>656</v>
       </c>
       <c r="B657">
@@ -16233,7 +16257,7 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="1" t="s">
+      <c r="A658" s="13" t="s">
         <v>657</v>
       </c>
       <c r="B658">
@@ -16253,7 +16277,7 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="1" t="s">
+      <c r="A659" s="13" t="s">
         <v>658</v>
       </c>
       <c r="B659">
@@ -16273,7 +16297,7 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="1" t="s">
+      <c r="A660" s="13" t="s">
         <v>659</v>
       </c>
       <c r="B660">
@@ -16293,7 +16317,7 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="1" t="s">
+      <c r="A661" s="13" t="s">
         <v>660</v>
       </c>
       <c r="B661">
@@ -16313,7 +16337,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="1" t="s">
+      <c r="A662" s="13" t="s">
         <v>661</v>
       </c>
       <c r="B662">
@@ -16333,7 +16357,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="1" t="s">
+      <c r="A663" s="13" t="s">
         <v>662</v>
       </c>
       <c r="B663">
@@ -16353,7 +16377,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="1" t="s">
+      <c r="A664" s="13" t="s">
         <v>663</v>
       </c>
       <c r="B664">
@@ -16373,7 +16397,7 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="1" t="s">
+      <c r="A665" s="13" t="s">
         <v>664</v>
       </c>
       <c r="B665">
@@ -16393,7 +16417,7 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="1" t="s">
+      <c r="A666" s="13" t="s">
         <v>665</v>
       </c>
       <c r="B666">
@@ -16413,7 +16437,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="1" t="s">
+      <c r="A667" s="13" t="s">
         <v>666</v>
       </c>
       <c r="B667">
@@ -16433,7 +16457,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="1" t="s">
+      <c r="A668" s="13" t="s">
         <v>667</v>
       </c>
       <c r="B668">
@@ -16453,7 +16477,7 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="1" t="s">
+      <c r="A669" s="13" t="s">
         <v>668</v>
       </c>
       <c r="B669">
@@ -16473,7 +16497,7 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="1" t="s">
+      <c r="A670" s="13" t="s">
         <v>669</v>
       </c>
       <c r="B670">
@@ -16493,7 +16517,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="1" t="s">
+      <c r="A671" s="13" t="s">
         <v>670</v>
       </c>
       <c r="B671">
@@ -16513,7 +16537,7 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="1" t="s">
+      <c r="A672" s="13" t="s">
         <v>671</v>
       </c>
       <c r="B672">
@@ -16533,7 +16557,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="1" t="s">
+      <c r="A673" s="13" t="s">
         <v>672</v>
       </c>
       <c r="B673">
@@ -16553,7 +16577,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="1" t="s">
+      <c r="A674" s="13" t="s">
         <v>673</v>
       </c>
       <c r="B674">
@@ -16573,7 +16597,7 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="1" t="s">
+      <c r="A675" s="13" t="s">
         <v>674</v>
       </c>
       <c r="B675">
@@ -16593,7 +16617,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="1" t="s">
+      <c r="A676" s="13" t="s">
         <v>675</v>
       </c>
       <c r="B676">
@@ -16613,7 +16637,7 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="1" t="s">
+      <c r="A677" s="13" t="s">
         <v>676</v>
       </c>
       <c r="B677">
@@ -16633,7 +16657,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="1" t="s">
+      <c r="A678" s="13" t="s">
         <v>677</v>
       </c>
       <c r="B678">
@@ -16653,7 +16677,7 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="1" t="s">
+      <c r="A679" s="13" t="s">
         <v>678</v>
       </c>
       <c r="B679">
@@ -16673,7 +16697,7 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="1" t="s">
+      <c r="A680" s="13" t="s">
         <v>679</v>
       </c>
       <c r="B680">
@@ -16693,7 +16717,7 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="1" t="s">
+      <c r="A681" s="13" t="s">
         <v>680</v>
       </c>
       <c r="B681">
@@ -16713,7 +16737,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="1" t="s">
+      <c r="A682" s="13" t="s">
         <v>681</v>
       </c>
       <c r="B682">
@@ -16733,7 +16757,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="1" t="s">
+      <c r="A683" s="13" t="s">
         <v>682</v>
       </c>
       <c r="B683">
@@ -16753,7 +16777,7 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="1" t="s">
+      <c r="A684" s="13" t="s">
         <v>683</v>
       </c>
       <c r="B684">
@@ -16773,7 +16797,7 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="1" t="s">
+      <c r="A685" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B685">
@@ -16793,7 +16817,7 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="1" t="s">
+      <c r="A686" s="13" t="s">
         <v>685</v>
       </c>
       <c r="B686">
@@ -16813,7 +16837,7 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="1" t="s">
+      <c r="A687" s="13" t="s">
         <v>686</v>
       </c>
       <c r="B687">
@@ -16833,7 +16857,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="1" t="s">
+      <c r="A688" s="13" t="s">
         <v>687</v>
       </c>
       <c r="B688">
@@ -16853,7 +16877,7 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="1" t="s">
+      <c r="A689" s="13" t="s">
         <v>688</v>
       </c>
       <c r="B689">
@@ -16873,7 +16897,7 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="1" t="s">
+      <c r="A690" s="13" t="s">
         <v>689</v>
       </c>
       <c r="B690">
@@ -16893,7 +16917,7 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="1" t="s">
+      <c r="A691" s="13" t="s">
         <v>690</v>
       </c>
       <c r="B691">
@@ -16913,7 +16937,7 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="1" t="s">
+      <c r="A692" s="13" t="s">
         <v>691</v>
       </c>
       <c r="B692">
@@ -16933,7 +16957,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="1" t="s">
+      <c r="A693" s="13" t="s">
         <v>692</v>
       </c>
       <c r="B693">
@@ -16953,7 +16977,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="1" t="s">
+      <c r="A694" s="13" t="s">
         <v>693</v>
       </c>
       <c r="B694">
@@ -16973,7 +16997,7 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="1" t="s">
+      <c r="A695" s="13" t="s">
         <v>694</v>
       </c>
       <c r="B695">
@@ -16993,7 +17017,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="1" t="s">
+      <c r="A696" s="13" t="s">
         <v>695</v>
       </c>
       <c r="B696">
@@ -17013,7 +17037,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="1" t="s">
+      <c r="A697" s="13" t="s">
         <v>696</v>
       </c>
       <c r="B697">
@@ -17033,7 +17057,7 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="1" t="s">
+      <c r="A698" s="13" t="s">
         <v>697</v>
       </c>
       <c r="B698">
@@ -17053,7 +17077,7 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="1" t="s">
+      <c r="A699" s="13" t="s">
         <v>698</v>
       </c>
       <c r="B699">
@@ -17073,7 +17097,7 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="1" t="s">
+      <c r="A700" s="13" t="s">
         <v>699</v>
       </c>
       <c r="B700">
@@ -17093,7 +17117,7 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="1" t="s">
+      <c r="A701" s="13" t="s">
         <v>700</v>
       </c>
       <c r="B701">
@@ -17113,7 +17137,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="1" t="s">
+      <c r="A702" s="13" t="s">
         <v>701</v>
       </c>
       <c r="B702">
@@ -17133,7 +17157,7 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="1" t="s">
+      <c r="A703" s="13" t="s">
         <v>702</v>
       </c>
       <c r="B703">
@@ -17153,7 +17177,7 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="1" t="s">
+      <c r="A704" s="13" t="s">
         <v>703</v>
       </c>
       <c r="B704">
@@ -17173,7 +17197,7 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="1" t="s">
+      <c r="A705" s="13" t="s">
         <v>704</v>
       </c>
       <c r="B705">
@@ -17193,7 +17217,7 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="1" t="s">
+      <c r="A706" s="13" t="s">
         <v>705</v>
       </c>
       <c r="B706">
@@ -17213,7 +17237,7 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="1" t="s">
+      <c r="A707" s="13" t="s">
         <v>706</v>
       </c>
       <c r="B707">
@@ -17233,7 +17257,7 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="1" t="s">
+      <c r="A708" s="13" t="s">
         <v>707</v>
       </c>
       <c r="B708">
@@ -17253,7 +17277,7 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="1" t="s">
+      <c r="A709" s="13" t="s">
         <v>708</v>
       </c>
       <c r="B709">
@@ -17273,7 +17297,7 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="1" t="s">
+      <c r="A710" s="13" t="s">
         <v>709</v>
       </c>
       <c r="B710">
@@ -17293,7 +17317,7 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="1" t="s">
+      <c r="A711" s="13" t="s">
         <v>710</v>
       </c>
       <c r="B711">
@@ -17313,7 +17337,7 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="1" t="s">
+      <c r="A712" s="13" t="s">
         <v>711</v>
       </c>
       <c r="B712">
@@ -17333,7 +17357,7 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="1" t="s">
+      <c r="A713" s="13" t="s">
         <v>712</v>
       </c>
       <c r="B713">
@@ -17353,7 +17377,7 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="1" t="s">
+      <c r="A714" s="13" t="s">
         <v>713</v>
       </c>
       <c r="B714">
@@ -17373,7 +17397,7 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="1" t="s">
+      <c r="A715" s="13" t="s">
         <v>714</v>
       </c>
       <c r="B715">
@@ -17393,7 +17417,7 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="1" t="s">
+      <c r="A716" s="13" t="s">
         <v>715</v>
       </c>
       <c r="B716">
@@ -17413,7 +17437,7 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="1" t="s">
+      <c r="A717" s="13" t="s">
         <v>716</v>
       </c>
       <c r="B717">
@@ -17433,7 +17457,7 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="1" t="s">
+      <c r="A718" s="13" t="s">
         <v>717</v>
       </c>
       <c r="B718">
@@ -17453,7 +17477,7 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" s="1" t="s">
+      <c r="A719" s="13" t="s">
         <v>718</v>
       </c>
       <c r="B719">
@@ -17473,7 +17497,7 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="1" t="s">
+      <c r="A720" s="13" t="s">
         <v>719</v>
       </c>
       <c r="B720">
@@ -17493,7 +17517,7 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="1" t="s">
+      <c r="A721" s="13" t="s">
         <v>720</v>
       </c>
       <c r="B721">
@@ -17513,7 +17537,7 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="1" t="s">
+      <c r="A722" s="13" t="s">
         <v>721</v>
       </c>
       <c r="B722">
@@ -17533,7 +17557,7 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="1" t="s">
+      <c r="A723" s="13" t="s">
         <v>722</v>
       </c>
       <c r="B723">
@@ -17553,7 +17577,7 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="1" t="s">
+      <c r="A724" s="13" t="s">
         <v>723</v>
       </c>
       <c r="B724">
@@ -17573,7 +17597,7 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="1" t="s">
+      <c r="A725" s="13" t="s">
         <v>724</v>
       </c>
       <c r="B725">
@@ -17593,7 +17617,7 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="1" t="s">
+      <c r="A726" s="13" t="s">
         <v>725</v>
       </c>
       <c r="B726">
@@ -17613,7 +17637,7 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="1" t="s">
+      <c r="A727" s="13" t="s">
         <v>726</v>
       </c>
       <c r="B727">
@@ -17633,7 +17657,7 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" s="1" t="s">
+      <c r="A728" s="13" t="s">
         <v>727</v>
       </c>
       <c r="B728">
@@ -17653,7 +17677,7 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="1" t="s">
+      <c r="A729" s="13" t="s">
         <v>728</v>
       </c>
       <c r="B729">
@@ -17673,7 +17697,7 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="1" t="s">
+      <c r="A730" s="13" t="s">
         <v>729</v>
       </c>
       <c r="B730">
@@ -17693,7 +17717,7 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="1" t="s">
+      <c r="A731" s="13" t="s">
         <v>730</v>
       </c>
       <c r="B731">
@@ -17713,7 +17737,7 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="1" t="s">
+      <c r="A732" s="13" t="s">
         <v>731</v>
       </c>
       <c r="B732">
@@ -17733,7 +17757,7 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="1" t="s">
+      <c r="A733" s="13" t="s">
         <v>732</v>
       </c>
       <c r="B733">
@@ -17753,7 +17777,7 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="1" t="s">
+      <c r="A734" s="13" t="s">
         <v>733</v>
       </c>
       <c r="B734">
@@ -17773,7 +17797,7 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="1" t="s">
+      <c r="A735" s="13" t="s">
         <v>734</v>
       </c>
       <c r="B735">
@@ -17793,7 +17817,7 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="1" t="s">
+      <c r="A736" s="13" t="s">
         <v>735</v>
       </c>
       <c r="B736">
@@ -17813,7 +17837,7 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="1" t="s">
+      <c r="A737" s="13" t="s">
         <v>736</v>
       </c>
       <c r="B737">
@@ -17833,7 +17857,7 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="1" t="s">
+      <c r="A738" s="13" t="s">
         <v>737</v>
       </c>
       <c r="B738">
@@ -17853,7 +17877,7 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="1" t="s">
+      <c r="A739" s="13" t="s">
         <v>738</v>
       </c>
       <c r="B739">
@@ -17873,7 +17897,7 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="1" t="s">
+      <c r="A740" s="13" t="s">
         <v>739</v>
       </c>
       <c r="B740">
@@ -17893,7 +17917,7 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="1" t="s">
+      <c r="A741" s="13" t="s">
         <v>740</v>
       </c>
       <c r="B741">
@@ -17913,7 +17937,7 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="1" t="s">
+      <c r="A742" s="13" t="s">
         <v>741</v>
       </c>
       <c r="B742">
@@ -17933,7 +17957,7 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="1" t="s">
+      <c r="A743" s="13" t="s">
         <v>742</v>
       </c>
       <c r="B743">
@@ -17953,7 +17977,7 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="1" t="s">
+      <c r="A744" s="13" t="s">
         <v>743</v>
       </c>
       <c r="B744">
@@ -17973,7 +17997,7 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="1" t="s">
+      <c r="A745" s="13" t="s">
         <v>744</v>
       </c>
       <c r="B745">
@@ -17993,7 +18017,7 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="1" t="s">
+      <c r="A746" s="13" t="s">
         <v>745</v>
       </c>
       <c r="B746">
@@ -18013,7 +18037,7 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="1" t="s">
+      <c r="A747" s="13" t="s">
         <v>746</v>
       </c>
       <c r="B747">
@@ -18033,7 +18057,7 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="1" t="s">
+      <c r="A748" s="13" t="s">
         <v>747</v>
       </c>
       <c r="B748">
@@ -18053,7 +18077,7 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="1" t="s">
+      <c r="A749" s="13" t="s">
         <v>748</v>
       </c>
       <c r="B749">
@@ -18073,7 +18097,7 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="1" t="s">
+      <c r="A750" s="13" t="s">
         <v>749</v>
       </c>
       <c r="B750">
@@ -18093,7 +18117,7 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="1" t="s">
+      <c r="A751" s="13" t="s">
         <v>750</v>
       </c>
       <c r="B751">
@@ -18113,7 +18137,7 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="1" t="s">
+      <c r="A752" s="13" t="s">
         <v>751</v>
       </c>
       <c r="B752">
@@ -18133,7 +18157,7 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="1" t="s">
+      <c r="A753" s="13" t="s">
         <v>752</v>
       </c>
       <c r="B753">
@@ -18153,7 +18177,7 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="1" t="s">
+      <c r="A754" s="13" t="s">
         <v>753</v>
       </c>
       <c r="B754">
@@ -18173,7 +18197,7 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="1" t="s">
+      <c r="A755" s="13" t="s">
         <v>754</v>
       </c>
       <c r="B755">
@@ -18193,7 +18217,7 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="1" t="s">
+      <c r="A756" s="13" t="s">
         <v>755</v>
       </c>
       <c r="B756">
@@ -18213,7 +18237,7 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="1" t="s">
+      <c r="A757" s="13" t="s">
         <v>756</v>
       </c>
       <c r="B757">
@@ -18233,7 +18257,7 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="1" t="s">
+      <c r="A758" s="13" t="s">
         <v>757</v>
       </c>
       <c r="B758">
@@ -18253,7 +18277,7 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="1" t="s">
+      <c r="A759" s="13" t="s">
         <v>758</v>
       </c>
       <c r="B759">
@@ -18273,7 +18297,7 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="1" t="s">
+      <c r="A760" s="13" t="s">
         <v>759</v>
       </c>
       <c r="B760">
@@ -18293,7 +18317,7 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="1" t="s">
+      <c r="A761" s="13" t="s">
         <v>760</v>
       </c>
       <c r="B761">
@@ -18313,7 +18337,7 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" s="1" t="s">
+      <c r="A762" s="13" t="s">
         <v>761</v>
       </c>
       <c r="B762">
@@ -18333,7 +18357,7 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="1" t="s">
+      <c r="A763" s="13" t="s">
         <v>762</v>
       </c>
       <c r="B763">
@@ -18353,7 +18377,7 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="1" t="s">
+      <c r="A764" s="13" t="s">
         <v>763</v>
       </c>
       <c r="B764">
@@ -18373,7 +18397,7 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="1" t="s">
+      <c r="A765" s="13" t="s">
         <v>764</v>
       </c>
       <c r="B765">
@@ -18393,7 +18417,7 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="1" t="s">
+      <c r="A766" s="13" t="s">
         <v>765</v>
       </c>
       <c r="B766">
@@ -18413,7 +18437,7 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="1" t="s">
+      <c r="A767" s="13" t="s">
         <v>766</v>
       </c>
       <c r="B767">
@@ -18433,7 +18457,7 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="1" t="s">
+      <c r="A768" s="13" t="s">
         <v>767</v>
       </c>
       <c r="B768">
@@ -18453,7 +18477,7 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="1" t="s">
+      <c r="A769" s="13" t="s">
         <v>768</v>
       </c>
       <c r="B769">
@@ -18473,7 +18497,7 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="1" t="s">
+      <c r="A770" s="13" t="s">
         <v>769</v>
       </c>
       <c r="B770">
@@ -18493,7 +18517,7 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="1" t="s">
+      <c r="A771" s="13" t="s">
         <v>770</v>
       </c>
       <c r="B771">
@@ -18513,7 +18537,7 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="1" t="s">
+      <c r="A772" s="13" t="s">
         <v>771</v>
       </c>
       <c r="B772">
@@ -18533,7 +18557,7 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="1" t="s">
+      <c r="A773" s="13" t="s">
         <v>772</v>
       </c>
       <c r="B773">
@@ -18553,7 +18577,7 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="1" t="s">
+      <c r="A774" s="13" t="s">
         <v>773</v>
       </c>
       <c r="B774">
@@ -18573,7 +18597,7 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="1" t="s">
+      <c r="A775" s="13" t="s">
         <v>774</v>
       </c>
       <c r="B775">
@@ -18593,7 +18617,7 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="1" t="s">
+      <c r="A776" s="13" t="s">
         <v>775</v>
       </c>
       <c r="B776">
@@ -18613,7 +18637,7 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" s="1" t="s">
+      <c r="A777" s="13" t="s">
         <v>776</v>
       </c>
       <c r="B777">
@@ -18633,7 +18657,7 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="1" t="s">
+      <c r="A778" s="13" t="s">
         <v>777</v>
       </c>
       <c r="B778">
@@ -18653,7 +18677,7 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="1" t="s">
+      <c r="A779" s="13" t="s">
         <v>778</v>
       </c>
       <c r="B779">
@@ -18673,7 +18697,7 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="1" t="s">
+      <c r="A780" s="13" t="s">
         <v>779</v>
       </c>
       <c r="B780">
@@ -18693,7 +18717,7 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="1" t="s">
+      <c r="A781" s="13" t="s">
         <v>780</v>
       </c>
       <c r="B781">
@@ -18713,7 +18737,7 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" s="1" t="s">
+      <c r="A782" s="13" t="s">
         <v>781</v>
       </c>
       <c r="B782">
@@ -18733,7 +18757,7 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" s="1" t="s">
+      <c r="A783" s="13" t="s">
         <v>782</v>
       </c>
       <c r="B783">
@@ -18753,7 +18777,7 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" s="1" t="s">
+      <c r="A784" s="13" t="s">
         <v>783</v>
       </c>
       <c r="B784">
@@ -18773,7 +18797,7 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="1" t="s">
+      <c r="A785" s="13" t="s">
         <v>784</v>
       </c>
       <c r="B785">
@@ -18793,7 +18817,7 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="1" t="s">
+      <c r="A786" s="13" t="s">
         <v>785</v>
       </c>
       <c r="B786">
@@ -18813,7 +18837,7 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="1" t="s">
+      <c r="A787" s="13" t="s">
         <v>786</v>
       </c>
       <c r="B787">
@@ -18833,7 +18857,7 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" s="1" t="s">
+      <c r="A788" s="13" t="s">
         <v>787</v>
       </c>
       <c r="B788">
@@ -18853,7 +18877,7 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="1" t="s">
+      <c r="A789" s="13" t="s">
         <v>788</v>
       </c>
       <c r="B789">
@@ -18873,7 +18897,7 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="1" t="s">
+      <c r="A790" s="13" t="s">
         <v>789</v>
       </c>
       <c r="B790">
@@ -18893,7 +18917,7 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="1" t="s">
+      <c r="A791" s="13" t="s">
         <v>790</v>
       </c>
       <c r="B791">
@@ -18913,7 +18937,7 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="1" t="s">
+      <c r="A792" s="13" t="s">
         <v>791</v>
       </c>
       <c r="B792">
@@ -18933,7 +18957,7 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="1" t="s">
+      <c r="A793" s="13" t="s">
         <v>792</v>
       </c>
       <c r="B793">
@@ -18953,7 +18977,7 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="1" t="s">
+      <c r="A794" s="13" t="s">
         <v>793</v>
       </c>
       <c r="B794">
@@ -18973,7 +18997,7 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="1" t="s">
+      <c r="A795" s="13" t="s">
         <v>794</v>
       </c>
       <c r="B795">
@@ -18993,7 +19017,7 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="1" t="s">
+      <c r="A796" s="13" t="s">
         <v>795</v>
       </c>
       <c r="B796">
@@ -19013,7 +19037,7 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" s="1" t="s">
+      <c r="A797" s="13" t="s">
         <v>796</v>
       </c>
       <c r="B797">
@@ -19033,7 +19057,7 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="1" t="s">
+      <c r="A798" s="13" t="s">
         <v>797</v>
       </c>
       <c r="B798">
@@ -19053,7 +19077,7 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="1" t="s">
+      <c r="A799" s="13" t="s">
         <v>798</v>
       </c>
       <c r="B799">
@@ -19073,7 +19097,7 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="1" t="s">
+      <c r="A800" s="13" t="s">
         <v>799</v>
       </c>
       <c r="B800">
@@ -19093,7 +19117,7 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="1" t="s">
+      <c r="A801" s="13" t="s">
         <v>800</v>
       </c>
       <c r="B801">
@@ -19113,7 +19137,7 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="1" t="s">
+      <c r="A802" s="13" t="s">
         <v>801</v>
       </c>
       <c r="B802">
@@ -19133,7 +19157,7 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="1" t="s">
+      <c r="A803" s="13" t="s">
         <v>802</v>
       </c>
       <c r="B803">
@@ -19153,7 +19177,7 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="1" t="s">
+      <c r="A804" s="13" t="s">
         <v>803</v>
       </c>
       <c r="B804">
@@ -19173,7 +19197,7 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="1" t="s">
+      <c r="A805" s="13" t="s">
         <v>804</v>
       </c>
       <c r="B805">
@@ -19193,7 +19217,7 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" s="1" t="s">
+      <c r="A806" s="13" t="s">
         <v>805</v>
       </c>
       <c r="B806">
@@ -19213,7 +19237,7 @@
       </c>
     </row>
     <row r="807">
-      <c r="A807" s="1" t="s">
+      <c r="A807" s="13" t="s">
         <v>806</v>
       </c>
       <c r="B807">
@@ -19233,7 +19257,7 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="1" t="s">
+      <c r="A808" s="13" t="s">
         <v>807</v>
       </c>
       <c r="B808">
@@ -19253,7 +19277,7 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="1" t="s">
+      <c r="A809" s="13" t="s">
         <v>808</v>
       </c>
       <c r="B809">
@@ -19273,7 +19297,7 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="1" t="s">
+      <c r="A810" s="13" t="s">
         <v>809</v>
       </c>
       <c r="B810">
@@ -19293,7 +19317,7 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="1" t="s">
+      <c r="A811" s="13" t="s">
         <v>810</v>
       </c>
       <c r="B811">
@@ -19313,7 +19337,7 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="1" t="s">
+      <c r="A812" s="13" t="s">
         <v>811</v>
       </c>
       <c r="B812">
@@ -19333,7 +19357,7 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" s="1" t="s">
+      <c r="A813" s="13" t="s">
         <v>812</v>
       </c>
       <c r="B813">
@@ -19353,7 +19377,7 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="1" t="s">
+      <c r="A814" s="13" t="s">
         <v>813</v>
       </c>
       <c r="B814">
@@ -19373,7 +19397,7 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" s="1" t="s">
+      <c r="A815" s="13" t="s">
         <v>814</v>
       </c>
       <c r="B815">
@@ -19393,7 +19417,7 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="1" t="s">
+      <c r="A816" s="13" t="s">
         <v>815</v>
       </c>
       <c r="B816">
@@ -19413,7 +19437,7 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="1" t="s">
+      <c r="A817" s="13" t="s">
         <v>816</v>
       </c>
       <c r="B817">
@@ -19433,7 +19457,7 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="1" t="s">
+      <c r="A818" s="13" t="s">
         <v>817</v>
       </c>
       <c r="B818">
@@ -19453,7 +19477,7 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="1" t="s">
+      <c r="A819" s="13" t="s">
         <v>818</v>
       </c>
       <c r="B819">
@@ -19473,7 +19497,7 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="1" t="s">
+      <c r="A820" s="13" t="s">
         <v>819</v>
       </c>
       <c r="B820">
@@ -19493,7 +19517,7 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="1" t="s">
+      <c r="A821" s="13" t="s">
         <v>820</v>
       </c>
       <c r="B821">
@@ -19513,7 +19537,7 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="1" t="s">
+      <c r="A822" s="13" t="s">
         <v>821</v>
       </c>
       <c r="B822">
@@ -19533,7 +19557,7 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" s="1" t="s">
+      <c r="A823" s="13" t="s">
         <v>822</v>
       </c>
       <c r="B823">
@@ -19553,7 +19577,7 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="1" t="s">
+      <c r="A824" s="13" t="s">
         <v>823</v>
       </c>
       <c r="B824">
@@ -19573,7 +19597,7 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="1" t="s">
+      <c r="A825" s="13" t="s">
         <v>824</v>
       </c>
       <c r="B825">
@@ -19593,7 +19617,7 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="1" t="s">
+      <c r="A826" s="13" t="s">
         <v>825</v>
       </c>
       <c r="B826">
@@ -19613,7 +19637,7 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="1" t="s">
+      <c r="A827" s="13" t="s">
         <v>826</v>
       </c>
       <c r="B827">
@@ -19633,7 +19657,7 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="1" t="s">
+      <c r="A828" s="13" t="s">
         <v>827</v>
       </c>
       <c r="B828">
@@ -19653,7 +19677,7 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="1" t="s">
+      <c r="A829" s="13" t="s">
         <v>828</v>
       </c>
       <c r="B829">
@@ -19673,7 +19697,7 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="1" t="s">
+      <c r="A830" s="13" t="s">
         <v>829</v>
       </c>
       <c r="B830">
@@ -19693,7 +19717,7 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" s="1" t="s">
+      <c r="A831" s="13" t="s">
         <v>830</v>
       </c>
       <c r="B831">
@@ -19713,7 +19737,7 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="1" t="s">
+      <c r="A832" s="13" t="s">
         <v>831</v>
       </c>
       <c r="B832">
@@ -19733,7 +19757,7 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="1" t="s">
+      <c r="A833" s="13" t="s">
         <v>832</v>
       </c>
       <c r="B833">
@@ -19753,7 +19777,7 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="1" t="s">
+      <c r="A834" s="13" t="s">
         <v>833</v>
       </c>
       <c r="B834">
@@ -19773,7 +19797,7 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="1" t="s">
+      <c r="A835" s="13" t="s">
         <v>834</v>
       </c>
       <c r="B835">
@@ -19793,7 +19817,7 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="1" t="s">
+      <c r="A836" s="13" t="s">
         <v>835</v>
       </c>
       <c r="B836">
@@ -19813,7 +19837,7 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="1" t="s">
+      <c r="A837" s="13" t="s">
         <v>836</v>
       </c>
       <c r="B837">
@@ -19833,7 +19857,7 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="1" t="s">
+      <c r="A838" s="13" t="s">
         <v>837</v>
       </c>
       <c r="B838">
@@ -19853,7 +19877,7 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="1" t="s">
+      <c r="A839" s="13" t="s">
         <v>838</v>
       </c>
       <c r="B839">
@@ -19873,7 +19897,7 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="1" t="s">
+      <c r="A840" s="13" t="s">
         <v>839</v>
       </c>
       <c r="B840">
@@ -19893,7 +19917,7 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="1" t="s">
+      <c r="A841" s="13" t="s">
         <v>840</v>
       </c>
       <c r="B841">
@@ -19913,7 +19937,7 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="1" t="s">
+      <c r="A842" s="13" t="s">
         <v>841</v>
       </c>
       <c r="B842">
@@ -19933,7 +19957,7 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="1" t="s">
+      <c r="A843" s="13" t="s">
         <v>842</v>
       </c>
       <c r="B843">
@@ -19953,7 +19977,7 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" s="1" t="s">
+      <c r="A844" s="13" t="s">
         <v>843</v>
       </c>
       <c r="B844">
@@ -19973,7 +19997,7 @@
       </c>
     </row>
     <row r="845">
-      <c r="A845" s="1" t="s">
+      <c r="A845" s="13" t="s">
         <v>844</v>
       </c>
       <c r="B845">
@@ -19993,7 +20017,7 @@
       </c>
     </row>
     <row r="846">
-      <c r="A846" s="1" t="s">
+      <c r="A846" s="13" t="s">
         <v>845</v>
       </c>
       <c r="B846">
@@ -20013,7 +20037,7 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" s="1" t="s">
+      <c r="A847" s="13" t="s">
         <v>846</v>
       </c>
       <c r="B847">
@@ -20033,7 +20057,7 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="1" t="s">
+      <c r="A848" s="13" t="s">
         <v>847</v>
       </c>
       <c r="B848">
@@ -20053,7 +20077,7 @@
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="1" t="s">
+      <c r="A849" s="13" t="s">
         <v>848</v>
       </c>
       <c r="B849">
@@ -20073,7 +20097,7 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="1" t="s">
+      <c r="A850" s="13" t="s">
         <v>849</v>
       </c>
       <c r="B850">
@@ -20093,7 +20117,7 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="1" t="s">
+      <c r="A851" s="13" t="s">
         <v>850</v>
       </c>
       <c r="B851">
@@ -20113,7 +20137,7 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" s="1" t="s">
+      <c r="A852" s="13" t="s">
         <v>851</v>
       </c>
       <c r="B852">
@@ -20133,7 +20157,7 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" s="1" t="s">
+      <c r="A853" s="13" t="s">
         <v>852</v>
       </c>
       <c r="B853">
@@ -20153,7 +20177,7 @@
       </c>
     </row>
     <row r="854">
-      <c r="A854" s="1" t="s">
+      <c r="A854" s="13" t="s">
         <v>853</v>
       </c>
       <c r="B854">
@@ -20173,7 +20197,7 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" s="1" t="s">
+      <c r="A855" s="13" t="s">
         <v>854</v>
       </c>
       <c r="B855">
@@ -20193,7 +20217,7 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" s="1" t="s">
+      <c r="A856" s="13" t="s">
         <v>855</v>
       </c>
       <c r="B856">
@@ -20213,7 +20237,7 @@
       </c>
     </row>
     <row r="857">
-      <c r="A857" s="1" t="s">
+      <c r="A857" s="13" t="s">
         <v>856</v>
       </c>
       <c r="B857">
@@ -20233,7 +20257,7 @@
       </c>
     </row>
     <row r="858">
-      <c r="A858" s="1" t="s">
+      <c r="A858" s="13" t="s">
         <v>857</v>
       </c>
       <c r="B858">
@@ -20253,7 +20277,7 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" s="1" t="s">
+      <c r="A859" s="13" t="s">
         <v>858</v>
       </c>
       <c r="B859">
@@ -20273,7 +20297,7 @@
       </c>
     </row>
     <row r="860">
-      <c r="A860" s="1" t="s">
+      <c r="A860" s="13" t="s">
         <v>859</v>
       </c>
       <c r="B860">
@@ -20293,7 +20317,7 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" s="1" t="s">
+      <c r="A861" s="13" t="s">
         <v>860</v>
       </c>
       <c r="B861">
@@ -20313,7 +20337,7 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" s="1" t="s">
+      <c r="A862" s="13" t="s">
         <v>861</v>
       </c>
       <c r="B862">
@@ -20333,7 +20357,7 @@
       </c>
     </row>
     <row r="863">
-      <c r="A863" s="1" t="s">
+      <c r="A863" s="13" t="s">
         <v>862</v>
       </c>
       <c r="B863">
@@ -20353,7 +20377,7 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" s="1" t="s">
+      <c r="A864" s="13" t="s">
         <v>863</v>
       </c>
       <c r="B864">
@@ -20373,7 +20397,7 @@
       </c>
     </row>
     <row r="865">
-      <c r="A865" s="1" t="s">
+      <c r="A865" s="13" t="s">
         <v>864</v>
       </c>
       <c r="B865">
@@ -20393,7 +20417,7 @@
       </c>
     </row>
     <row r="866">
-      <c r="A866" s="1" t="s">
+      <c r="A866" s="13" t="s">
         <v>865</v>
       </c>
       <c r="B866">
@@ -20413,7 +20437,7 @@
       </c>
     </row>
     <row r="867">
-      <c r="A867" s="1" t="s">
+      <c r="A867" s="13" t="s">
         <v>866</v>
       </c>
       <c r="B867">
@@ -20433,7 +20457,7 @@
       </c>
     </row>
     <row r="868">
-      <c r="A868" s="1" t="s">
+      <c r="A868" s="13" t="s">
         <v>867</v>
       </c>
       <c r="B868">
@@ -20453,7 +20477,7 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" s="1" t="s">
+      <c r="A869" s="13" t="s">
         <v>868</v>
       </c>
       <c r="B869">
@@ -20473,7 +20497,7 @@
       </c>
     </row>
     <row r="870">
-      <c r="A870" s="1" t="s">
+      <c r="A870" s="13" t="s">
         <v>869</v>
       </c>
       <c r="B870">
@@ -20493,7 +20517,7 @@
       </c>
     </row>
     <row r="871">
-      <c r="A871" s="1" t="s">
+      <c r="A871" s="13" t="s">
         <v>870</v>
       </c>
       <c r="B871">
@@ -20513,7 +20537,7 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" s="1" t="s">
+      <c r="A872" s="13" t="s">
         <v>871</v>
       </c>
       <c r="B872">
@@ -20533,7 +20557,7 @@
       </c>
     </row>
     <row r="873">
-      <c r="A873" s="1" t="s">
+      <c r="A873" s="13" t="s">
         <v>872</v>
       </c>
       <c r="B873">
@@ -20553,7 +20577,7 @@
       </c>
     </row>
     <row r="874">
-      <c r="A874" s="1" t="s">
+      <c r="A874" s="13" t="s">
         <v>873</v>
       </c>
       <c r="B874">
@@ -20573,7 +20597,7 @@
       </c>
     </row>
     <row r="875">
-      <c r="A875" s="1" t="s">
+      <c r="A875" s="13" t="s">
         <v>874</v>
       </c>
       <c r="B875">
@@ -20593,7 +20617,7 @@
       </c>
     </row>
     <row r="876">
-      <c r="A876" s="1" t="s">
+      <c r="A876" s="13" t="s">
         <v>875</v>
       </c>
       <c r="B876">
@@ -20613,7 +20637,7 @@
       </c>
     </row>
     <row r="877">
-      <c r="A877" s="1" t="s">
+      <c r="A877" s="13" t="s">
         <v>876</v>
       </c>
       <c r="B877">
@@ -20633,7 +20657,7 @@
       </c>
     </row>
     <row r="878">
-      <c r="A878" s="1" t="s">
+      <c r="A878" s="13" t="s">
         <v>877</v>
       </c>
       <c r="B878">
@@ -20653,7 +20677,7 @@
       </c>
     </row>
     <row r="879">
-      <c r="A879" s="1" t="s">
+      <c r="A879" s="13" t="s">
         <v>878</v>
       </c>
       <c r="B879">
@@ -20673,7 +20697,7 @@
       </c>
     </row>
     <row r="880">
-      <c r="A880" s="1" t="s">
+      <c r="A880" s="13" t="s">
         <v>879</v>
       </c>
       <c r="B880">
@@ -20693,7 +20717,7 @@
       </c>
     </row>
     <row r="881">
-      <c r="A881" s="1" t="s">
+      <c r="A881" s="13" t="s">
         <v>880</v>
       </c>
       <c r="B881">
@@ -20713,7 +20737,7 @@
       </c>
     </row>
     <row r="882">
-      <c r="A882" s="1" t="s">
+      <c r="A882" s="13" t="s">
         <v>881</v>
       </c>
       <c r="B882">
@@ -20733,7 +20757,7 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" s="1" t="s">
+      <c r="A883" s="13" t="s">
         <v>882</v>
       </c>
       <c r="B883">
@@ -20753,7 +20777,7 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" s="1" t="s">
+      <c r="A884" s="13" t="s">
         <v>883</v>
       </c>
       <c r="B884">
@@ -20773,7 +20797,7 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" s="1" t="s">
+      <c r="A885" s="13" t="s">
         <v>884</v>
       </c>
       <c r="B885">
@@ -20793,7 +20817,7 @@
       </c>
     </row>
     <row r="886">
-      <c r="A886" s="1" t="s">
+      <c r="A886" s="13" t="s">
         <v>885</v>
       </c>
       <c r="B886">
@@ -20813,7 +20837,7 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" s="1" t="s">
+      <c r="A887" s="13" t="s">
         <v>886</v>
       </c>
       <c r="B887">
@@ -20833,7 +20857,7 @@
       </c>
     </row>
     <row r="888">
-      <c r="A888" s="1" t="s">
+      <c r="A888" s="13" t="s">
         <v>887</v>
       </c>
       <c r="B888">
@@ -20853,7 +20877,7 @@
       </c>
     </row>
     <row r="889">
-      <c r="A889" s="1" t="s">
+      <c r="A889" s="13" t="s">
         <v>888</v>
       </c>
       <c r="B889">
@@ -20873,7 +20897,7 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" s="1" t="s">
+      <c r="A890" s="13" t="s">
         <v>889</v>
       </c>
       <c r="B890">
@@ -20893,7 +20917,7 @@
       </c>
     </row>
     <row r="891">
-      <c r="A891" s="1" t="s">
+      <c r="A891" s="13" t="s">
         <v>890</v>
       </c>
       <c r="B891">
@@ -20913,7 +20937,7 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" s="1" t="s">
+      <c r="A892" s="13" t="s">
         <v>891</v>
       </c>
       <c r="B892">
@@ -20933,7 +20957,7 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" s="1" t="s">
+      <c r="A893" s="13" t="s">
         <v>892</v>
       </c>
       <c r="B893">
@@ -20953,7 +20977,7 @@
       </c>
     </row>
     <row r="894">
-      <c r="A894" s="1" t="s">
+      <c r="A894" s="13" t="s">
         <v>893</v>
       </c>
       <c r="B894">
@@ -20973,7 +20997,7 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" s="1" t="s">
+      <c r="A895" s="13" t="s">
         <v>894</v>
       </c>
       <c r="B895">
@@ -20993,7 +21017,7 @@
       </c>
     </row>
     <row r="896">
-      <c r="A896" s="1" t="s">
+      <c r="A896" s="13" t="s">
         <v>895</v>
       </c>
       <c r="B896">
@@ -21013,7 +21037,7 @@
       </c>
     </row>
     <row r="897">
-      <c r="A897" s="1" t="s">
+      <c r="A897" s="13" t="s">
         <v>896</v>
       </c>
       <c r="B897">
@@ -21033,7 +21057,7 @@
       </c>
     </row>
     <row r="898">
-      <c r="A898" s="1" t="s">
+      <c r="A898" s="13" t="s">
         <v>897</v>
       </c>
       <c r="B898">
@@ -21053,7 +21077,7 @@
       </c>
     </row>
     <row r="899">
-      <c r="A899" s="1" t="s">
+      <c r="A899" s="13" t="s">
         <v>898</v>
       </c>
       <c r="B899">
@@ -21073,7 +21097,7 @@
       </c>
     </row>
     <row r="900">
-      <c r="A900" s="1" t="s">
+      <c r="A900" s="13" t="s">
         <v>899</v>
       </c>
       <c r="B900">
@@ -21093,7 +21117,7 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" s="1" t="s">
+      <c r="A901" s="13" t="s">
         <v>900</v>
       </c>
       <c r="B901">
@@ -21113,7 +21137,7 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" s="1" t="s">
+      <c r="A902" s="13" t="s">
         <v>901</v>
       </c>
       <c r="B902">
@@ -21133,7 +21157,7 @@
       </c>
     </row>
     <row r="903">
-      <c r="A903" s="1" t="s">
+      <c r="A903" s="13" t="s">
         <v>902</v>
       </c>
       <c r="B903">
@@ -21153,7 +21177,7 @@
       </c>
     </row>
     <row r="904">
-      <c r="A904" s="1" t="s">
+      <c r="A904" s="13" t="s">
         <v>903</v>
       </c>
       <c r="B904">
@@ -21173,7 +21197,7 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" s="1" t="s">
+      <c r="A905" s="13" t="s">
         <v>904</v>
       </c>
       <c r="B905">
@@ -21193,7 +21217,7 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" s="1" t="s">
+      <c r="A906" s="13" t="s">
         <v>905</v>
       </c>
       <c r="B906">
@@ -21213,7 +21237,7 @@
       </c>
     </row>
     <row r="907">
-      <c r="A907" s="1" t="s">
+      <c r="A907" s="13" t="s">
         <v>906</v>
       </c>
       <c r="B907">
@@ -21233,7 +21257,7 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" s="1" t="s">
+      <c r="A908" s="13" t="s">
         <v>907</v>
       </c>
       <c r="B908">
@@ -21253,7 +21277,7 @@
       </c>
     </row>
     <row r="909">
-      <c r="A909" s="1" t="s">
+      <c r="A909" s="13" t="s">
         <v>908</v>
       </c>
       <c r="B909">
@@ -21273,7 +21297,7 @@
       </c>
     </row>
     <row r="910">
-      <c r="A910" s="1" t="s">
+      <c r="A910" s="13" t="s">
         <v>909</v>
       </c>
       <c r="B910">
@@ -21293,7 +21317,7 @@
       </c>
     </row>
     <row r="911">
-      <c r="A911" s="1" t="s">
+      <c r="A911" s="13" t="s">
         <v>910</v>
       </c>
       <c r="B911">
@@ -21313,7 +21337,7 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" s="1" t="s">
+      <c r="A912" s="13" t="s">
         <v>911</v>
       </c>
       <c r="B912">
@@ -21333,7 +21357,7 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" s="1" t="s">
+      <c r="A913" s="13" t="s">
         <v>912</v>
       </c>
       <c r="B913">
@@ -21353,7 +21377,7 @@
       </c>
     </row>
     <row r="914">
-      <c r="A914" s="1" t="s">
+      <c r="A914" s="13" t="s">
         <v>913</v>
       </c>
       <c r="B914">
@@ -21373,7 +21397,7 @@
       </c>
     </row>
     <row r="915">
-      <c r="A915" s="1" t="s">
+      <c r="A915" s="13" t="s">
         <v>914</v>
       </c>
       <c r="B915">
@@ -21393,7 +21417,7 @@
       </c>
     </row>
     <row r="916">
-      <c r="A916" s="1" t="s">
+      <c r="A916" s="13" t="s">
         <v>915</v>
       </c>
       <c r="B916">
@@ -21413,7 +21437,7 @@
       </c>
     </row>
     <row r="917">
-      <c r="A917" s="1" t="s">
+      <c r="A917" s="13" t="s">
         <v>916</v>
       </c>
       <c r="B917">
@@ -21433,7 +21457,7 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" s="1" t="s">
+      <c r="A918" s="13" t="s">
         <v>917</v>
       </c>
       <c r="B918">
@@ -21453,7 +21477,7 @@
       </c>
     </row>
     <row r="919">
-      <c r="A919" s="1" t="s">
+      <c r="A919" s="13" t="s">
         <v>918</v>
       </c>
       <c r="B919">
@@ -21473,7 +21497,7 @@
       </c>
     </row>
     <row r="920">
-      <c r="A920" s="1" t="s">
+      <c r="A920" s="13" t="s">
         <v>919</v>
       </c>
       <c r="B920">
@@ -21493,7 +21517,7 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" s="1" t="s">
+      <c r="A921" s="13" t="s">
         <v>920</v>
       </c>
       <c r="B921">
@@ -21513,7 +21537,7 @@
       </c>
     </row>
     <row r="922">
-      <c r="A922" s="1" t="s">
+      <c r="A922" s="13" t="s">
         <v>921</v>
       </c>
       <c r="B922">
@@ -21533,7 +21557,7 @@
       </c>
     </row>
     <row r="923">
-      <c r="A923" s="1" t="s">
+      <c r="A923" s="13" t="s">
         <v>922</v>
       </c>
       <c r="B923">
@@ -21553,7 +21577,7 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" s="1" t="s">
+      <c r="A924" s="13" t="s">
         <v>923</v>
       </c>
       <c r="B924">
@@ -21573,7 +21597,7 @@
       </c>
     </row>
     <row r="925">
-      <c r="A925" s="1" t="s">
+      <c r="A925" s="13" t="s">
         <v>924</v>
       </c>
       <c r="B925">
@@ -21593,7 +21617,7 @@
       </c>
     </row>
     <row r="926">
-      <c r="A926" s="1" t="s">
+      <c r="A926" s="13" t="s">
         <v>925</v>
       </c>
       <c r="B926">
@@ -21613,7 +21637,7 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" s="1" t="s">
+      <c r="A927" s="13" t="s">
         <v>926</v>
       </c>
       <c r="B927">
@@ -21633,7 +21657,7 @@
       </c>
     </row>
     <row r="928">
-      <c r="A928" s="1" t="s">
+      <c r="A928" s="13" t="s">
         <v>927</v>
       </c>
       <c r="B928">
@@ -21653,7 +21677,7 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" s="1" t="s">
+      <c r="A929" s="13" t="s">
         <v>928</v>
       </c>
       <c r="B929">
@@ -21673,7 +21697,7 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" s="1" t="s">
+      <c r="A930" s="13" t="s">
         <v>929</v>
       </c>
       <c r="B930">
@@ -21693,7 +21717,7 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" s="1" t="s">
+      <c r="A931" s="13" t="s">
         <v>930</v>
       </c>
       <c r="B931">
@@ -21713,7 +21737,7 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" s="1" t="s">
+      <c r="A932" s="13" t="s">
         <v>931</v>
       </c>
       <c r="B932">
@@ -21733,7 +21757,7 @@
       </c>
     </row>
     <row r="933">
-      <c r="A933" s="1" t="s">
+      <c r="A933" s="13" t="s">
         <v>932</v>
       </c>
       <c r="B933">
@@ -21753,7 +21777,7 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" s="1" t="s">
+      <c r="A934" s="13" t="s">
         <v>933</v>
       </c>
       <c r="B934">
@@ -21773,7 +21797,7 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" s="1" t="s">
+      <c r="A935" s="13" t="s">
         <v>934</v>
       </c>
       <c r="B935">
@@ -21793,7 +21817,7 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" s="1" t="s">
+      <c r="A936" s="13" t="s">
         <v>935</v>
       </c>
       <c r="B936">
@@ -21813,7 +21837,7 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" s="1" t="s">
+      <c r="A937" s="13" t="s">
         <v>936</v>
       </c>
       <c r="B937">
@@ -21833,7 +21857,7 @@
       </c>
     </row>
     <row r="938">
-      <c r="A938" s="1" t="s">
+      <c r="A938" s="13" t="s">
         <v>937</v>
       </c>
       <c r="B938">
@@ -21853,7 +21877,7 @@
       </c>
     </row>
     <row r="939">
-      <c r="A939" s="1" t="s">
+      <c r="A939" s="13" t="s">
         <v>938</v>
       </c>
       <c r="B939">
@@ -21873,7 +21897,7 @@
       </c>
     </row>
     <row r="940">
-      <c r="A940" s="1" t="s">
+      <c r="A940" s="13" t="s">
         <v>939</v>
       </c>
       <c r="B940">
@@ -21893,7 +21917,7 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" s="1" t="s">
+      <c r="A941" s="13" t="s">
         <v>940</v>
       </c>
       <c r="B941">
@@ -21913,7 +21937,7 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" s="1" t="s">
+      <c r="A942" s="13" t="s">
         <v>941</v>
       </c>
       <c r="B942">
@@ -21933,7 +21957,7 @@
       </c>
     </row>
     <row r="943">
-      <c r="A943" s="1" t="s">
+      <c r="A943" s="13" t="s">
         <v>942</v>
       </c>
       <c r="B943">
@@ -21953,7 +21977,7 @@
       </c>
     </row>
     <row r="944">
-      <c r="A944" s="1" t="s">
+      <c r="A944" s="13" t="s">
         <v>943</v>
       </c>
       <c r="B944">
@@ -21973,7 +21997,7 @@
       </c>
     </row>
     <row r="945">
-      <c r="A945" s="1" t="s">
+      <c r="A945" s="13" t="s">
         <v>944</v>
       </c>
       <c r="B945">
@@ -21993,7 +22017,7 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" s="1" t="s">
+      <c r="A946" s="13" t="s">
         <v>945</v>
       </c>
       <c r="B946">
@@ -22013,7 +22037,7 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" s="1" t="s">
+      <c r="A947" s="13" t="s">
         <v>946</v>
       </c>
       <c r="B947">
@@ -22033,7 +22057,7 @@
       </c>
     </row>
     <row r="948">
-      <c r="A948" s="1" t="s">
+      <c r="A948" s="13" t="s">
         <v>947</v>
       </c>
       <c r="B948">
@@ -22053,7 +22077,7 @@
       </c>
     </row>
     <row r="949">
-      <c r="A949" s="1" t="s">
+      <c r="A949" s="13" t="s">
         <v>948</v>
       </c>
       <c r="B949">
@@ -22073,7 +22097,7 @@
       </c>
     </row>
     <row r="950">
-      <c r="A950" s="1" t="s">
+      <c r="A950" s="13" t="s">
         <v>949</v>
       </c>
       <c r="B950">
@@ -22093,7 +22117,7 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" s="1" t="s">
+      <c r="A951" s="13" t="s">
         <v>950</v>
       </c>
       <c r="B951">
@@ -22113,7 +22137,7 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" s="1" t="s">
+      <c r="A952" s="13" t="s">
         <v>951</v>
       </c>
       <c r="B952">
@@ -22133,7 +22157,7 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" s="1" t="s">
+      <c r="A953" s="13" t="s">
         <v>952</v>
       </c>
       <c r="B953">
@@ -22153,7 +22177,7 @@
       </c>
     </row>
     <row r="954">
-      <c r="A954" s="1" t="s">
+      <c r="A954" s="13" t="s">
         <v>953</v>
       </c>
       <c r="B954">
@@ -22173,7 +22197,7 @@
       </c>
     </row>
     <row r="955">
-      <c r="A955" s="1" t="s">
+      <c r="A955" s="13" t="s">
         <v>954</v>
       </c>
       <c r="B955">
@@ -22193,7 +22217,7 @@
       </c>
     </row>
     <row r="956">
-      <c r="A956" s="1" t="s">
+      <c r="A956" s="13" t="s">
         <v>955</v>
       </c>
       <c r="B956">
@@ -22213,7 +22237,7 @@
       </c>
     </row>
     <row r="957">
-      <c r="A957" s="1" t="s">
+      <c r="A957" s="13" t="s">
         <v>956</v>
       </c>
       <c r="B957">
@@ -22233,7 +22257,7 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" s="1" t="s">
+      <c r="A958" s="13" t="s">
         <v>957</v>
       </c>
       <c r="B958">
@@ -22253,7 +22277,7 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" s="1" t="s">
+      <c r="A959" s="13" t="s">
         <v>958</v>
       </c>
       <c r="B959">
@@ -22273,7 +22297,7 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" s="1" t="s">
+      <c r="A960" s="13" t="s">
         <v>959</v>
       </c>
       <c r="B960">
@@ -22293,7 +22317,7 @@
       </c>
     </row>
     <row r="961">
-      <c r="A961" s="1" t="s">
+      <c r="A961" s="13" t="s">
         <v>960</v>
       </c>
       <c r="B961">
@@ -22313,7 +22337,7 @@
       </c>
     </row>
     <row r="962">
-      <c r="A962" s="1" t="s">
+      <c r="A962" s="13" t="s">
         <v>961</v>
       </c>
       <c r="B962">
@@ -22333,7 +22357,7 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" s="1" t="s">
+      <c r="A963" s="13" t="s">
         <v>962</v>
       </c>
       <c r="B963">
@@ -22353,7 +22377,7 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" s="1" t="s">
+      <c r="A964" s="13" t="s">
         <v>963</v>
       </c>
       <c r="B964">
@@ -22373,7 +22397,7 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" s="1" t="s">
+      <c r="A965" s="13" t="s">
         <v>964</v>
       </c>
       <c r="B965">
@@ -22393,7 +22417,7 @@
       </c>
     </row>
     <row r="966">
-      <c r="A966" s="1" t="s">
+      <c r="A966" s="13" t="s">
         <v>965</v>
       </c>
       <c r="B966">
@@ -22413,7 +22437,7 @@
       </c>
     </row>
     <row r="967">
-      <c r="A967" s="1" t="s">
+      <c r="A967" s="13" t="s">
         <v>966</v>
       </c>
       <c r="B967">
@@ -22433,7 +22457,7 @@
       </c>
     </row>
     <row r="968">
-      <c r="A968" s="1" t="s">
+      <c r="A968" s="13" t="s">
         <v>967</v>
       </c>
       <c r="B968">
@@ -22453,7 +22477,7 @@
       </c>
     </row>
     <row r="969">
-      <c r="A969" s="1" t="s">
+      <c r="A969" s="13" t="s">
         <v>968</v>
       </c>
       <c r="B969">
@@ -22473,7 +22497,7 @@
       </c>
     </row>
     <row r="970">
-      <c r="A970" s="1" t="s">
+      <c r="A970" s="13" t="s">
         <v>969</v>
       </c>
       <c r="B970">
@@ -22493,7 +22517,7 @@
       </c>
     </row>
     <row r="971">
-      <c r="A971" s="1" t="s">
+      <c r="A971" s="13" t="s">
         <v>970</v>
       </c>
       <c r="B971">
@@ -22513,7 +22537,7 @@
       </c>
     </row>
     <row r="972">
-      <c r="A972" s="1" t="s">
+      <c r="A972" s="13" t="s">
         <v>971</v>
       </c>
       <c r="B972">
@@ -22533,7 +22557,7 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" s="1" t="s">
+      <c r="A973" s="13" t="s">
         <v>972</v>
       </c>
       <c r="B973">
@@ -22553,7 +22577,7 @@
       </c>
     </row>
     <row r="974">
-      <c r="A974" s="1" t="s">
+      <c r="A974" s="13" t="s">
         <v>973</v>
       </c>
       <c r="B974">
@@ -22573,7 +22597,7 @@
       </c>
     </row>
     <row r="975">
-      <c r="A975" s="1" t="s">
+      <c r="A975" s="13" t="s">
         <v>974</v>
       </c>
       <c r="B975">
@@ -22593,7 +22617,7 @@
       </c>
     </row>
     <row r="976">
-      <c r="A976" s="1" t="s">
+      <c r="A976" s="13" t="s">
         <v>975</v>
       </c>
       <c r="B976">
@@ -22613,7 +22637,7 @@
       </c>
     </row>
     <row r="977">
-      <c r="A977" s="1" t="s">
+      <c r="A977" s="13" t="s">
         <v>976</v>
       </c>
       <c r="B977">
@@ -22633,7 +22657,7 @@
       </c>
     </row>
     <row r="978">
-      <c r="A978" s="1" t="s">
+      <c r="A978" s="13" t="s">
         <v>977</v>
       </c>
       <c r="B978">
@@ -22653,7 +22677,7 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" s="1" t="s">
+      <c r="A979" s="13" t="s">
         <v>978</v>
       </c>
       <c r="B979">
@@ -22673,7 +22697,7 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" s="1" t="s">
+      <c r="A980" s="13" t="s">
         <v>979</v>
       </c>
       <c r="B980">
@@ -22693,7 +22717,7 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" s="1" t="s">
+      <c r="A981" s="13" t="s">
         <v>980</v>
       </c>
       <c r="B981">
@@ -22713,7 +22737,7 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" s="1" t="s">
+      <c r="A982" s="13" t="s">
         <v>981</v>
       </c>
       <c r="B982">
@@ -22733,7 +22757,7 @@
       </c>
     </row>
     <row r="983">
-      <c r="A983" s="1" t="s">
+      <c r="A983" s="13" t="s">
         <v>982</v>
       </c>
       <c r="B983">
@@ -22753,7 +22777,7 @@
       </c>
     </row>
     <row r="984">
-      <c r="A984" s="1" t="s">
+      <c r="A984" s="13" t="s">
         <v>983</v>
       </c>
       <c r="B984">
@@ -22773,7 +22797,7 @@
       </c>
     </row>
     <row r="985">
-      <c r="A985" s="1" t="s">
+      <c r="A985" s="13" t="s">
         <v>984</v>
       </c>
       <c r="B985">
@@ -22793,7 +22817,7 @@
       </c>
     </row>
     <row r="986">
-      <c r="A986" s="1" t="s">
+      <c r="A986" s="13" t="s">
         <v>985</v>
       </c>
       <c r="B986">
@@ -22813,7 +22837,7 @@
       </c>
     </row>
     <row r="987">
-      <c r="A987" s="1" t="s">
+      <c r="A987" s="13" t="s">
         <v>986</v>
       </c>
       <c r="B987">
@@ -22833,7 +22857,7 @@
       </c>
     </row>
     <row r="988">
-      <c r="A988" s="1" t="s">
+      <c r="A988" s="13" t="s">
         <v>987</v>
       </c>
       <c r="B988">
@@ -22853,7 +22877,7 @@
       </c>
     </row>
     <row r="989">
-      <c r="A989" s="1" t="s">
+      <c r="A989" s="13" t="s">
         <v>988</v>
       </c>
       <c r="B989">
@@ -22873,7 +22897,7 @@
       </c>
     </row>
     <row r="990">
-      <c r="A990" s="1" t="s">
+      <c r="A990" s="13" t="s">
         <v>989</v>
       </c>
       <c r="B990">
@@ -22893,7 +22917,7 @@
       </c>
     </row>
     <row r="991">
-      <c r="A991" s="1" t="s">
+      <c r="A991" s="13" t="s">
         <v>990</v>
       </c>
       <c r="B991">
@@ -22913,7 +22937,7 @@
       </c>
     </row>
     <row r="992">
-      <c r="A992" s="1" t="s">
+      <c r="A992" s="13" t="s">
         <v>991</v>
       </c>
       <c r="B992">
@@ -22933,7 +22957,7 @@
       </c>
     </row>
     <row r="993">
-      <c r="A993" s="1" t="s">
+      <c r="A993" s="13" t="s">
         <v>992</v>
       </c>
       <c r="B993">
@@ -22953,7 +22977,7 @@
       </c>
     </row>
     <row r="994">
-      <c r="A994" s="1" t="s">
+      <c r="A994" s="13" t="s">
         <v>993</v>
       </c>
       <c r="B994">
@@ -22973,7 +22997,7 @@
       </c>
     </row>
     <row r="995">
-      <c r="A995" s="1" t="s">
+      <c r="A995" s="13" t="s">
         <v>994</v>
       </c>
       <c r="B995">
@@ -22993,7 +23017,7 @@
       </c>
     </row>
     <row r="996">
-      <c r="A996" s="1" t="s">
+      <c r="A996" s="13" t="s">
         <v>995</v>
       </c>
       <c r="B996">
@@ -23013,7 +23037,7 @@
       </c>
     </row>
     <row r="997">
-      <c r="A997" s="1" t="s">
+      <c r="A997" s="13" t="s">
         <v>996</v>
       </c>
       <c r="B997">
@@ -23033,7 +23057,7 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" s="1" t="s">
+      <c r="A998" s="13" t="s">
         <v>997</v>
       </c>
       <c r="B998">
@@ -23053,7 +23077,7 @@
       </c>
     </row>
     <row r="999">
-      <c r="A999" s="1" t="s">
+      <c r="A999" s="13" t="s">
         <v>998</v>
       </c>
       <c r="B999">
@@ -23073,7 +23097,7 @@
       </c>
     </row>
     <row r="1000">
-      <c r="A1000" s="1" t="s">
+      <c r="A1000" s="13" t="s">
         <v>999</v>
       </c>
       <c r="B1000">
@@ -23093,7 +23117,7 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" s="1" t="s">
+      <c r="A1001" s="13" t="s">
         <v>1000</v>
       </c>
       <c r="B1001">
@@ -23113,7 +23137,7 @@
       </c>
     </row>
     <row r="1002">
-      <c r="A1002" s="1" t="s">
+      <c r="A1002" s="13" t="s">
         <v>1001</v>
       </c>
       <c r="B1002">

--- a/SourceDataTables/FigS7d.xlsx
+++ b/SourceDataTables/FigS7d.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7049" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8056" uniqueCount="1007">
   <si>
     <t>BootstrapID</t>
   </si>
@@ -3054,7 +3054,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3076,11 +3076,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -3096,6 +3098,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3117,27 +3121,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1002</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>1003</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>1004</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -3157,7 +3161,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3177,7 +3181,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3197,7 +3201,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3217,7 +3221,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3237,7 +3241,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3257,7 +3261,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3277,7 +3281,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3297,7 +3301,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3317,7 +3321,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -3337,7 +3341,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -3357,7 +3361,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -3377,7 +3381,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -3397,7 +3401,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -3417,7 +3421,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -3437,7 +3441,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -3457,7 +3461,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3477,7 +3481,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -3497,7 +3501,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3517,7 +3521,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3537,7 +3541,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3557,7 +3561,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3577,7 +3581,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3597,7 +3601,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3617,7 +3621,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3637,7 +3641,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -3657,7 +3661,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -3677,7 +3681,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -3697,7 +3701,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -3717,7 +3721,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -3737,7 +3741,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -3757,7 +3761,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -3777,7 +3781,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -3797,7 +3801,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -3817,7 +3821,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -3837,7 +3841,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -3857,7 +3861,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -3877,7 +3881,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -3897,7 +3901,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -3917,7 +3921,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -3937,7 +3941,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -3957,7 +3961,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -3977,7 +3981,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -3997,7 +4001,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -4017,7 +4021,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -4037,7 +4041,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -4057,7 +4061,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -4077,7 +4081,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -4097,7 +4101,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -4117,7 +4121,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -4137,7 +4141,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -4157,7 +4161,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -4177,7 +4181,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -4197,7 +4201,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -4217,7 +4221,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -4237,7 +4241,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -4257,7 +4261,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -4277,7 +4281,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -4297,7 +4301,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -4317,7 +4321,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -4337,7 +4341,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -4357,7 +4361,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -4377,7 +4381,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -4397,7 +4401,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -4417,7 +4421,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -4437,7 +4441,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -4457,7 +4461,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -4477,7 +4481,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -4497,7 +4501,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -4517,7 +4521,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -4537,7 +4541,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -4557,7 +4561,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -4577,7 +4581,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -4597,7 +4601,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -4617,7 +4621,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -4637,7 +4641,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -4657,7 +4661,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -4677,7 +4681,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -4697,7 +4701,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -4717,7 +4721,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -4737,7 +4741,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -4757,7 +4761,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -4777,7 +4781,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -4797,7 +4801,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -4817,7 +4821,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -4837,7 +4841,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -4857,7 +4861,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -4877,7 +4881,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -4897,7 +4901,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -4917,7 +4921,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -4937,7 +4941,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -4957,7 +4961,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -4977,7 +4981,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -4997,7 +5001,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -5017,7 +5021,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -5037,7 +5041,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -5057,7 +5061,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -5077,7 +5081,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -5097,7 +5101,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -5117,7 +5121,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -5137,7 +5141,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -5157,7 +5161,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -5177,7 +5181,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -5197,7 +5201,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -5217,7 +5221,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -5237,7 +5241,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -5257,7 +5261,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -5277,7 +5281,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -5297,7 +5301,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -5317,7 +5321,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -5337,7 +5341,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -5357,7 +5361,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -5377,7 +5381,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -5397,7 +5401,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -5417,7 +5421,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -5437,7 +5441,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -5457,7 +5461,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -5477,7 +5481,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -5497,7 +5501,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -5517,7 +5521,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="15" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -5537,7 +5541,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -5557,7 +5561,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -5577,7 +5581,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -5597,7 +5601,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -5617,7 +5621,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -5637,7 +5641,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -5657,7 +5661,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -5677,7 +5681,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -5697,7 +5701,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -5717,7 +5721,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -5737,7 +5741,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -5757,7 +5761,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -5777,7 +5781,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -5797,7 +5801,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -5817,7 +5821,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -5837,7 +5841,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -5857,7 +5861,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -5877,7 +5881,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -5897,7 +5901,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="15" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -5917,7 +5921,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -5937,7 +5941,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -5957,7 +5961,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -5977,7 +5981,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -5997,7 +6001,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -6017,7 +6021,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -6037,7 +6041,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -6057,7 +6061,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -6077,7 +6081,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -6097,7 +6101,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -6117,7 +6121,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -6137,7 +6141,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -6157,7 +6161,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="15" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -6177,7 +6181,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -6197,7 +6201,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -6217,7 +6221,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -6237,7 +6241,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -6257,7 +6261,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -6277,7 +6281,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -6297,7 +6301,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -6317,7 +6321,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -6337,7 +6341,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="15" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -6357,7 +6361,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="15" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -6377,7 +6381,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -6397,7 +6401,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="15" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -6417,7 +6421,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -6437,7 +6441,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -6457,7 +6461,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="13" t="s">
+      <c r="A168" s="15" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -6477,7 +6481,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -6497,7 +6501,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="15" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -6517,7 +6521,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="15" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -6537,7 +6541,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="15" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -6557,7 +6561,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -6577,7 +6581,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="15" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -6597,7 +6601,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="13" t="s">
+      <c r="A175" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -6617,7 +6621,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -6637,7 +6641,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="13" t="s">
+      <c r="A177" s="15" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -6657,7 +6661,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="13" t="s">
+      <c r="A178" s="15" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -6677,7 +6681,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="13" t="s">
+      <c r="A179" s="15" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -6697,7 +6701,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="13" t="s">
+      <c r="A180" s="15" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -6717,7 +6721,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="13" t="s">
+      <c r="A181" s="15" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -6737,7 +6741,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="13" t="s">
+      <c r="A182" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -6757,7 +6761,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="13" t="s">
+      <c r="A183" s="15" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -6777,7 +6781,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="13" t="s">
+      <c r="A184" s="15" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -6797,7 +6801,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="13" t="s">
+      <c r="A185" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -6817,7 +6821,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="13" t="s">
+      <c r="A186" s="15" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -6837,7 +6841,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="13" t="s">
+      <c r="A187" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -6857,7 +6861,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="13" t="s">
+      <c r="A188" s="15" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -6877,7 +6881,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="13" t="s">
+      <c r="A189" s="15" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -6897,7 +6901,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="13" t="s">
+      <c r="A190" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -6917,7 +6921,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="13" t="s">
+      <c r="A191" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -6937,7 +6941,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="13" t="s">
+      <c r="A192" s="15" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -6957,7 +6961,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="13" t="s">
+      <c r="A193" s="15" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -6977,7 +6981,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="13" t="s">
+      <c r="A194" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -6997,7 +7001,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="13" t="s">
+      <c r="A195" s="15" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -7017,7 +7021,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="13" t="s">
+      <c r="A196" s="15" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -7037,7 +7041,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="13" t="s">
+      <c r="A197" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -7057,7 +7061,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="13" t="s">
+      <c r="A198" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -7077,7 +7081,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="13" t="s">
+      <c r="A199" s="15" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -7097,7 +7101,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="13" t="s">
+      <c r="A200" s="15" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -7117,7 +7121,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="13" t="s">
+      <c r="A201" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -7137,7 +7141,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="13" t="s">
+      <c r="A202" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -7157,7 +7161,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="13" t="s">
+      <c r="A203" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -7177,7 +7181,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="13" t="s">
+      <c r="A204" s="15" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -7197,7 +7201,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="13" t="s">
+      <c r="A205" s="15" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -7217,7 +7221,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="13" t="s">
+      <c r="A206" s="15" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -7237,7 +7241,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="13" t="s">
+      <c r="A207" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -7257,7 +7261,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="13" t="s">
+      <c r="A208" s="15" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -7277,7 +7281,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="13" t="s">
+      <c r="A209" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -7297,7 +7301,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="13" t="s">
+      <c r="A210" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -7317,7 +7321,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="13" t="s">
+      <c r="A211" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -7337,7 +7341,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="13" t="s">
+      <c r="A212" s="15" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -7357,7 +7361,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="13" t="s">
+      <c r="A213" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -7377,7 +7381,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="13" t="s">
+      <c r="A214" s="15" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -7397,7 +7401,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="13" t="s">
+      <c r="A215" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -7417,7 +7421,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="13" t="s">
+      <c r="A216" s="15" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -7437,7 +7441,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="13" t="s">
+      <c r="A217" s="15" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -7457,7 +7461,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="13" t="s">
+      <c r="A218" s="15" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -7477,7 +7481,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="13" t="s">
+      <c r="A219" s="15" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -7497,7 +7501,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="13" t="s">
+      <c r="A220" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -7517,7 +7521,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="13" t="s">
+      <c r="A221" s="15" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -7537,7 +7541,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="13" t="s">
+      <c r="A222" s="15" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -7557,7 +7561,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="13" t="s">
+      <c r="A223" s="15" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -7577,7 +7581,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="13" t="s">
+      <c r="A224" s="15" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -7597,7 +7601,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="13" t="s">
+      <c r="A225" s="15" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -7617,7 +7621,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="13" t="s">
+      <c r="A226" s="15" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -7637,7 +7641,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="13" t="s">
+      <c r="A227" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -7657,7 +7661,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="13" t="s">
+      <c r="A228" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -7677,7 +7681,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="13" t="s">
+      <c r="A229" s="15" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -7697,7 +7701,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="13" t="s">
+      <c r="A230" s="15" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -7717,7 +7721,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="13" t="s">
+      <c r="A231" s="15" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -7737,7 +7741,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="13" t="s">
+      <c r="A232" s="15" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -7757,7 +7761,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="13" t="s">
+      <c r="A233" s="15" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -7777,7 +7781,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="13" t="s">
+      <c r="A234" s="15" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -7797,7 +7801,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="13" t="s">
+      <c r="A235" s="15" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -7817,7 +7821,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="13" t="s">
+      <c r="A236" s="15" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -7837,7 +7841,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="13" t="s">
+      <c r="A237" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -7857,7 +7861,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="13" t="s">
+      <c r="A238" s="15" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -7877,7 +7881,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="13" t="s">
+      <c r="A239" s="15" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -7897,7 +7901,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="13" t="s">
+      <c r="A240" s="15" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -7917,7 +7921,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="13" t="s">
+      <c r="A241" s="15" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -7937,7 +7941,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="13" t="s">
+      <c r="A242" s="15" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -7957,7 +7961,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="13" t="s">
+      <c r="A243" s="15" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -7977,7 +7981,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="13" t="s">
+      <c r="A244" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -7997,7 +8001,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="13" t="s">
+      <c r="A245" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -8017,7 +8021,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="13" t="s">
+      <c r="A246" s="15" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -8037,7 +8041,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="13" t="s">
+      <c r="A247" s="15" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -8057,7 +8061,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="13" t="s">
+      <c r="A248" s="15" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -8077,7 +8081,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="13" t="s">
+      <c r="A249" s="15" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -8097,7 +8101,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="13" t="s">
+      <c r="A250" s="15" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -8117,7 +8121,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="13" t="s">
+      <c r="A251" s="15" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -8137,7 +8141,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="13" t="s">
+      <c r="A252" s="15" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -8157,7 +8161,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="13" t="s">
+      <c r="A253" s="15" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -8177,7 +8181,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="13" t="s">
+      <c r="A254" s="15" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -8197,7 +8201,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="13" t="s">
+      <c r="A255" s="15" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -8217,7 +8221,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="13" t="s">
+      <c r="A256" s="15" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -8237,7 +8241,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="13" t="s">
+      <c r="A257" s="15" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -8257,7 +8261,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="13" t="s">
+      <c r="A258" s="15" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -8277,7 +8281,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="13" t="s">
+      <c r="A259" s="15" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -8297,7 +8301,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="13" t="s">
+      <c r="A260" s="15" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -8317,7 +8321,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="13" t="s">
+      <c r="A261" s="15" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -8337,7 +8341,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="13" t="s">
+      <c r="A262" s="15" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -8357,7 +8361,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="13" t="s">
+      <c r="A263" s="15" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -8377,7 +8381,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="13" t="s">
+      <c r="A264" s="15" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -8397,7 +8401,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="13" t="s">
+      <c r="A265" s="15" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -8417,7 +8421,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="13" t="s">
+      <c r="A266" s="15" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -8437,7 +8441,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="13" t="s">
+      <c r="A267" s="15" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -8457,7 +8461,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="13" t="s">
+      <c r="A268" s="15" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -8477,7 +8481,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="13" t="s">
+      <c r="A269" s="15" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -8497,7 +8501,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="13" t="s">
+      <c r="A270" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -8517,7 +8521,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="13" t="s">
+      <c r="A271" s="15" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -8537,7 +8541,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="13" t="s">
+      <c r="A272" s="15" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -8557,7 +8561,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="13" t="s">
+      <c r="A273" s="15" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -8577,7 +8581,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="13" t="s">
+      <c r="A274" s="15" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -8597,7 +8601,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="13" t="s">
+      <c r="A275" s="15" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -8617,7 +8621,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="13" t="s">
+      <c r="A276" s="15" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -8637,7 +8641,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="13" t="s">
+      <c r="A277" s="15" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -8657,7 +8661,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="13" t="s">
+      <c r="A278" s="15" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -8677,7 +8681,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="13" t="s">
+      <c r="A279" s="15" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -8697,7 +8701,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="13" t="s">
+      <c r="A280" s="15" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -8717,7 +8721,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="13" t="s">
+      <c r="A281" s="15" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -8737,7 +8741,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="13" t="s">
+      <c r="A282" s="15" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -8757,7 +8761,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="13" t="s">
+      <c r="A283" s="15" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -8777,7 +8781,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="13" t="s">
+      <c r="A284" s="15" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -8797,7 +8801,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="13" t="s">
+      <c r="A285" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -8817,7 +8821,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="13" t="s">
+      <c r="A286" s="15" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -8837,7 +8841,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="13" t="s">
+      <c r="A287" s="15" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -8857,7 +8861,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="13" t="s">
+      <c r="A288" s="15" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -8877,7 +8881,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="13" t="s">
+      <c r="A289" s="15" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -8897,7 +8901,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="13" t="s">
+      <c r="A290" s="15" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -8917,7 +8921,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="13" t="s">
+      <c r="A291" s="15" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -8937,7 +8941,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="13" t="s">
+      <c r="A292" s="15" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -8957,7 +8961,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="13" t="s">
+      <c r="A293" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -8977,7 +8981,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="13" t="s">
+      <c r="A294" s="15" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -8997,7 +9001,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="13" t="s">
+      <c r="A295" s="15" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -9017,7 +9021,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="13" t="s">
+      <c r="A296" s="15" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -9037,7 +9041,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="13" t="s">
+      <c r="A297" s="15" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -9057,7 +9061,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="13" t="s">
+      <c r="A298" s="15" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -9077,7 +9081,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="13" t="s">
+      <c r="A299" s="15" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -9097,7 +9101,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="13" t="s">
+      <c r="A300" s="15" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -9117,7 +9121,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="13" t="s">
+      <c r="A301" s="15" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -9137,7 +9141,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="13" t="s">
+      <c r="A302" s="15" t="s">
         <v>301</v>
       </c>
       <c r="B302">
@@ -9157,7 +9161,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="13" t="s">
+      <c r="A303" s="15" t="s">
         <v>302</v>
       </c>
       <c r="B303">
@@ -9177,7 +9181,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="13" t="s">
+      <c r="A304" s="15" t="s">
         <v>303</v>
       </c>
       <c r="B304">
@@ -9197,7 +9201,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="13" t="s">
+      <c r="A305" s="15" t="s">
         <v>304</v>
       </c>
       <c r="B305">
@@ -9217,7 +9221,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="13" t="s">
+      <c r="A306" s="15" t="s">
         <v>305</v>
       </c>
       <c r="B306">
@@ -9237,7 +9241,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="13" t="s">
+      <c r="A307" s="15" t="s">
         <v>306</v>
       </c>
       <c r="B307">
@@ -9257,7 +9261,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="13" t="s">
+      <c r="A308" s="15" t="s">
         <v>307</v>
       </c>
       <c r="B308">
@@ -9277,7 +9281,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="13" t="s">
+      <c r="A309" s="15" t="s">
         <v>308</v>
       </c>
       <c r="B309">
@@ -9297,7 +9301,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="13" t="s">
+      <c r="A310" s="15" t="s">
         <v>309</v>
       </c>
       <c r="B310">
@@ -9317,7 +9321,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="13" t="s">
+      <c r="A311" s="15" t="s">
         <v>310</v>
       </c>
       <c r="B311">
@@ -9337,7 +9341,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="13" t="s">
+      <c r="A312" s="15" t="s">
         <v>311</v>
       </c>
       <c r="B312">
@@ -9357,7 +9361,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="13" t="s">
+      <c r="A313" s="15" t="s">
         <v>312</v>
       </c>
       <c r="B313">
@@ -9377,7 +9381,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="13" t="s">
+      <c r="A314" s="15" t="s">
         <v>313</v>
       </c>
       <c r="B314">
@@ -9397,7 +9401,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="13" t="s">
+      <c r="A315" s="15" t="s">
         <v>314</v>
       </c>
       <c r="B315">
@@ -9417,7 +9421,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="13" t="s">
+      <c r="A316" s="15" t="s">
         <v>315</v>
       </c>
       <c r="B316">
@@ -9437,7 +9441,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="13" t="s">
+      <c r="A317" s="15" t="s">
         <v>316</v>
       </c>
       <c r="B317">
@@ -9457,7 +9461,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="13" t="s">
+      <c r="A318" s="15" t="s">
         <v>317</v>
       </c>
       <c r="B318">
@@ -9477,7 +9481,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="13" t="s">
+      <c r="A319" s="15" t="s">
         <v>318</v>
       </c>
       <c r="B319">
@@ -9497,7 +9501,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="13" t="s">
+      <c r="A320" s="15" t="s">
         <v>319</v>
       </c>
       <c r="B320">
@@ -9517,7 +9521,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="13" t="s">
+      <c r="A321" s="15" t="s">
         <v>320</v>
       </c>
       <c r="B321">
@@ -9537,7 +9541,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="13" t="s">
+      <c r="A322" s="15" t="s">
         <v>321</v>
       </c>
       <c r="B322">
@@ -9557,7 +9561,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="13" t="s">
+      <c r="A323" s="15" t="s">
         <v>322</v>
       </c>
       <c r="B323">
@@ -9577,7 +9581,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="13" t="s">
+      <c r="A324" s="15" t="s">
         <v>323</v>
       </c>
       <c r="B324">
@@ -9597,7 +9601,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="13" t="s">
+      <c r="A325" s="15" t="s">
         <v>324</v>
       </c>
       <c r="B325">
@@ -9617,7 +9621,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="13" t="s">
+      <c r="A326" s="15" t="s">
         <v>325</v>
       </c>
       <c r="B326">
@@ -9637,7 +9641,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="13" t="s">
+      <c r="A327" s="15" t="s">
         <v>326</v>
       </c>
       <c r="B327">
@@ -9657,7 +9661,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="13" t="s">
+      <c r="A328" s="15" t="s">
         <v>327</v>
       </c>
       <c r="B328">
@@ -9677,7 +9681,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="13" t="s">
+      <c r="A329" s="15" t="s">
         <v>328</v>
       </c>
       <c r="B329">
@@ -9697,7 +9701,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="13" t="s">
+      <c r="A330" s="15" t="s">
         <v>329</v>
       </c>
       <c r="B330">
@@ -9717,7 +9721,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="13" t="s">
+      <c r="A331" s="15" t="s">
         <v>330</v>
       </c>
       <c r="B331">
@@ -9737,7 +9741,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="13" t="s">
+      <c r="A332" s="15" t="s">
         <v>331</v>
       </c>
       <c r="B332">
@@ -9757,7 +9761,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="13" t="s">
+      <c r="A333" s="15" t="s">
         <v>332</v>
       </c>
       <c r="B333">
@@ -9777,7 +9781,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="13" t="s">
+      <c r="A334" s="15" t="s">
         <v>333</v>
       </c>
       <c r="B334">
@@ -9797,7 +9801,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="13" t="s">
+      <c r="A335" s="15" t="s">
         <v>334</v>
       </c>
       <c r="B335">
@@ -9817,7 +9821,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="13" t="s">
+      <c r="A336" s="15" t="s">
         <v>335</v>
       </c>
       <c r="B336">
@@ -9837,7 +9841,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="13" t="s">
+      <c r="A337" s="15" t="s">
         <v>336</v>
       </c>
       <c r="B337">
@@ -9857,7 +9861,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="13" t="s">
+      <c r="A338" s="15" t="s">
         <v>337</v>
       </c>
       <c r="B338">
@@ -9877,7 +9881,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="13" t="s">
+      <c r="A339" s="15" t="s">
         <v>338</v>
       </c>
       <c r="B339">
@@ -9897,7 +9901,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="13" t="s">
+      <c r="A340" s="15" t="s">
         <v>339</v>
       </c>
       <c r="B340">
@@ -9917,7 +9921,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="13" t="s">
+      <c r="A341" s="15" t="s">
         <v>340</v>
       </c>
       <c r="B341">
@@ -9937,7 +9941,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="13" t="s">
+      <c r="A342" s="15" t="s">
         <v>341</v>
       </c>
       <c r="B342">
@@ -9957,7 +9961,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="13" t="s">
+      <c r="A343" s="15" t="s">
         <v>342</v>
       </c>
       <c r="B343">
@@ -9977,7 +9981,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="13" t="s">
+      <c r="A344" s="15" t="s">
         <v>343</v>
       </c>
       <c r="B344">
@@ -9997,7 +10001,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="13" t="s">
+      <c r="A345" s="15" t="s">
         <v>344</v>
       </c>
       <c r="B345">
@@ -10017,7 +10021,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="13" t="s">
+      <c r="A346" s="15" t="s">
         <v>345</v>
       </c>
       <c r="B346">
@@ -10037,7 +10041,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="13" t="s">
+      <c r="A347" s="15" t="s">
         <v>346</v>
       </c>
       <c r="B347">
@@ -10057,7 +10061,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="13" t="s">
+      <c r="A348" s="15" t="s">
         <v>347</v>
       </c>
       <c r="B348">
@@ -10077,7 +10081,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="13" t="s">
+      <c r="A349" s="15" t="s">
         <v>348</v>
       </c>
       <c r="B349">
@@ -10097,7 +10101,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="13" t="s">
+      <c r="A350" s="15" t="s">
         <v>349</v>
       </c>
       <c r="B350">
@@ -10117,7 +10121,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="13" t="s">
+      <c r="A351" s="15" t="s">
         <v>350</v>
       </c>
       <c r="B351">
@@ -10137,7 +10141,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="13" t="s">
+      <c r="A352" s="15" t="s">
         <v>351</v>
       </c>
       <c r="B352">
@@ -10157,7 +10161,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="13" t="s">
+      <c r="A353" s="15" t="s">
         <v>352</v>
       </c>
       <c r="B353">
@@ -10177,7 +10181,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="13" t="s">
+      <c r="A354" s="15" t="s">
         <v>353</v>
       </c>
       <c r="B354">
@@ -10197,7 +10201,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="13" t="s">
+      <c r="A355" s="15" t="s">
         <v>354</v>
       </c>
       <c r="B355">
@@ -10217,7 +10221,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="13" t="s">
+      <c r="A356" s="15" t="s">
         <v>355</v>
       </c>
       <c r="B356">
@@ -10237,7 +10241,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="13" t="s">
+      <c r="A357" s="15" t="s">
         <v>356</v>
       </c>
       <c r="B357">
@@ -10257,7 +10261,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="13" t="s">
+      <c r="A358" s="15" t="s">
         <v>357</v>
       </c>
       <c r="B358">
@@ -10277,7 +10281,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="13" t="s">
+      <c r="A359" s="15" t="s">
         <v>358</v>
       </c>
       <c r="B359">
@@ -10297,7 +10301,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="13" t="s">
+      <c r="A360" s="15" t="s">
         <v>359</v>
       </c>
       <c r="B360">
@@ -10317,7 +10321,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="13" t="s">
+      <c r="A361" s="15" t="s">
         <v>360</v>
       </c>
       <c r="B361">
@@ -10337,7 +10341,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="13" t="s">
+      <c r="A362" s="15" t="s">
         <v>361</v>
       </c>
       <c r="B362">
@@ -10357,7 +10361,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="13" t="s">
+      <c r="A363" s="15" t="s">
         <v>362</v>
       </c>
       <c r="B363">
@@ -10377,7 +10381,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="13" t="s">
+      <c r="A364" s="15" t="s">
         <v>363</v>
       </c>
       <c r="B364">
@@ -10397,7 +10401,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="13" t="s">
+      <c r="A365" s="15" t="s">
         <v>364</v>
       </c>
       <c r="B365">
@@ -10417,7 +10421,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="13" t="s">
+      <c r="A366" s="15" t="s">
         <v>365</v>
       </c>
       <c r="B366">
@@ -10437,7 +10441,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="13" t="s">
+      <c r="A367" s="15" t="s">
         <v>366</v>
       </c>
       <c r="B367">
@@ -10457,7 +10461,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="13" t="s">
+      <c r="A368" s="15" t="s">
         <v>367</v>
       </c>
       <c r="B368">
@@ -10477,7 +10481,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="13" t="s">
+      <c r="A369" s="15" t="s">
         <v>368</v>
       </c>
       <c r="B369">
@@ -10497,7 +10501,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="13" t="s">
+      <c r="A370" s="15" t="s">
         <v>369</v>
       </c>
       <c r="B370">
@@ -10517,7 +10521,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="13" t="s">
+      <c r="A371" s="15" t="s">
         <v>370</v>
       </c>
       <c r="B371">
@@ -10537,7 +10541,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="13" t="s">
+      <c r="A372" s="15" t="s">
         <v>371</v>
       </c>
       <c r="B372">
@@ -10557,7 +10561,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="13" t="s">
+      <c r="A373" s="15" t="s">
         <v>372</v>
       </c>
       <c r="B373">
@@ -10577,7 +10581,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="13" t="s">
+      <c r="A374" s="15" t="s">
         <v>373</v>
       </c>
       <c r="B374">
@@ -10597,7 +10601,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="13" t="s">
+      <c r="A375" s="15" t="s">
         <v>374</v>
       </c>
       <c r="B375">
@@ -10617,7 +10621,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="13" t="s">
+      <c r="A376" s="15" t="s">
         <v>375</v>
       </c>
       <c r="B376">
@@ -10637,7 +10641,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="13" t="s">
+      <c r="A377" s="15" t="s">
         <v>376</v>
       </c>
       <c r="B377">
@@ -10657,7 +10661,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="13" t="s">
+      <c r="A378" s="15" t="s">
         <v>377</v>
       </c>
       <c r="B378">
@@ -10677,7 +10681,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="13" t="s">
+      <c r="A379" s="15" t="s">
         <v>378</v>
       </c>
       <c r="B379">
@@ -10697,7 +10701,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="13" t="s">
+      <c r="A380" s="15" t="s">
         <v>379</v>
       </c>
       <c r="B380">
@@ -10717,7 +10721,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="13" t="s">
+      <c r="A381" s="15" t="s">
         <v>380</v>
       </c>
       <c r="B381">
@@ -10737,7 +10741,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="13" t="s">
+      <c r="A382" s="15" t="s">
         <v>381</v>
       </c>
       <c r="B382">
@@ -10757,7 +10761,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="13" t="s">
+      <c r="A383" s="15" t="s">
         <v>382</v>
       </c>
       <c r="B383">
@@ -10777,7 +10781,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="13" t="s">
+      <c r="A384" s="15" t="s">
         <v>383</v>
       </c>
       <c r="B384">
@@ -10797,7 +10801,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="13" t="s">
+      <c r="A385" s="15" t="s">
         <v>384</v>
       </c>
       <c r="B385">
@@ -10817,7 +10821,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="13" t="s">
+      <c r="A386" s="15" t="s">
         <v>385</v>
       </c>
       <c r="B386">
@@ -10837,7 +10841,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="13" t="s">
+      <c r="A387" s="15" t="s">
         <v>386</v>
       </c>
       <c r="B387">
@@ -10857,7 +10861,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="13" t="s">
+      <c r="A388" s="15" t="s">
         <v>387</v>
       </c>
       <c r="B388">
@@ -10877,7 +10881,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="13" t="s">
+      <c r="A389" s="15" t="s">
         <v>388</v>
       </c>
       <c r="B389">
@@ -10897,7 +10901,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="13" t="s">
+      <c r="A390" s="15" t="s">
         <v>389</v>
       </c>
       <c r="B390">
@@ -10917,7 +10921,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="13" t="s">
+      <c r="A391" s="15" t="s">
         <v>390</v>
       </c>
       <c r="B391">
@@ -10937,7 +10941,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="13" t="s">
+      <c r="A392" s="15" t="s">
         <v>391</v>
       </c>
       <c r="B392">
@@ -10957,7 +10961,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="13" t="s">
+      <c r="A393" s="15" t="s">
         <v>392</v>
       </c>
       <c r="B393">
@@ -10977,7 +10981,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="13" t="s">
+      <c r="A394" s="15" t="s">
         <v>393</v>
       </c>
       <c r="B394">
@@ -10997,7 +11001,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="13" t="s">
+      <c r="A395" s="15" t="s">
         <v>394</v>
       </c>
       <c r="B395">
@@ -11017,7 +11021,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="13" t="s">
+      <c r="A396" s="15" t="s">
         <v>395</v>
       </c>
       <c r="B396">
@@ -11037,7 +11041,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="13" t="s">
+      <c r="A397" s="15" t="s">
         <v>396</v>
       </c>
       <c r="B397">
@@ -11057,7 +11061,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="13" t="s">
+      <c r="A398" s="15" t="s">
         <v>397</v>
       </c>
       <c r="B398">
@@ -11077,7 +11081,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="13" t="s">
+      <c r="A399" s="15" t="s">
         <v>398</v>
       </c>
       <c r="B399">
@@ -11097,7 +11101,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="13" t="s">
+      <c r="A400" s="15" t="s">
         <v>399</v>
       </c>
       <c r="B400">
@@ -11117,7 +11121,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="13" t="s">
+      <c r="A401" s="15" t="s">
         <v>400</v>
       </c>
       <c r="B401">
@@ -11137,7 +11141,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="13" t="s">
+      <c r="A402" s="15" t="s">
         <v>401</v>
       </c>
       <c r="B402">
@@ -11157,7 +11161,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="13" t="s">
+      <c r="A403" s="15" t="s">
         <v>402</v>
       </c>
       <c r="B403">
@@ -11177,7 +11181,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="13" t="s">
+      <c r="A404" s="15" t="s">
         <v>403</v>
       </c>
       <c r="B404">
@@ -11197,7 +11201,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="13" t="s">
+      <c r="A405" s="15" t="s">
         <v>404</v>
       </c>
       <c r="B405">
@@ -11217,7 +11221,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="13" t="s">
+      <c r="A406" s="15" t="s">
         <v>405</v>
       </c>
       <c r="B406">
@@ -11237,7 +11241,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="13" t="s">
+      <c r="A407" s="15" t="s">
         <v>406</v>
       </c>
       <c r="B407">
@@ -11257,7 +11261,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="13" t="s">
+      <c r="A408" s="15" t="s">
         <v>407</v>
       </c>
       <c r="B408">
@@ -11277,7 +11281,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="13" t="s">
+      <c r="A409" s="15" t="s">
         <v>408</v>
       </c>
       <c r="B409">
@@ -11297,7 +11301,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="13" t="s">
+      <c r="A410" s="15" t="s">
         <v>409</v>
       </c>
       <c r="B410">
@@ -11317,7 +11321,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="13" t="s">
+      <c r="A411" s="15" t="s">
         <v>410</v>
       </c>
       <c r="B411">
@@ -11337,7 +11341,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="13" t="s">
+      <c r="A412" s="15" t="s">
         <v>411</v>
       </c>
       <c r="B412">
@@ -11357,7 +11361,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="13" t="s">
+      <c r="A413" s="15" t="s">
         <v>412</v>
       </c>
       <c r="B413">
@@ -11377,7 +11381,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="13" t="s">
+      <c r="A414" s="15" t="s">
         <v>413</v>
       </c>
       <c r="B414">
@@ -11397,7 +11401,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="13" t="s">
+      <c r="A415" s="15" t="s">
         <v>414</v>
       </c>
       <c r="B415">
@@ -11417,7 +11421,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="13" t="s">
+      <c r="A416" s="15" t="s">
         <v>415</v>
       </c>
       <c r="B416">
@@ -11437,7 +11441,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="13" t="s">
+      <c r="A417" s="15" t="s">
         <v>416</v>
       </c>
       <c r="B417">
@@ -11457,7 +11461,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="13" t="s">
+      <c r="A418" s="15" t="s">
         <v>417</v>
       </c>
       <c r="B418">
@@ -11477,7 +11481,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="13" t="s">
+      <c r="A419" s="15" t="s">
         <v>418</v>
       </c>
       <c r="B419">
@@ -11497,7 +11501,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="13" t="s">
+      <c r="A420" s="15" t="s">
         <v>419</v>
       </c>
       <c r="B420">
@@ -11517,7 +11521,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="13" t="s">
+      <c r="A421" s="15" t="s">
         <v>420</v>
       </c>
       <c r="B421">
@@ -11537,7 +11541,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="13" t="s">
+      <c r="A422" s="15" t="s">
         <v>421</v>
       </c>
       <c r="B422">
@@ -11557,7 +11561,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="13" t="s">
+      <c r="A423" s="15" t="s">
         <v>422</v>
       </c>
       <c r="B423">
@@ -11577,7 +11581,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="13" t="s">
+      <c r="A424" s="15" t="s">
         <v>423</v>
       </c>
       <c r="B424">
@@ -11597,7 +11601,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="13" t="s">
+      <c r="A425" s="15" t="s">
         <v>424</v>
       </c>
       <c r="B425">
@@ -11617,7 +11621,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="13" t="s">
+      <c r="A426" s="15" t="s">
         <v>425</v>
       </c>
       <c r="B426">
@@ -11637,7 +11641,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="13" t="s">
+      <c r="A427" s="15" t="s">
         <v>426</v>
       </c>
       <c r="B427">
@@ -11657,7 +11661,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="13" t="s">
+      <c r="A428" s="15" t="s">
         <v>427</v>
       </c>
       <c r="B428">
@@ -11677,7 +11681,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="13" t="s">
+      <c r="A429" s="15" t="s">
         <v>428</v>
       </c>
       <c r="B429">
@@ -11697,7 +11701,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="13" t="s">
+      <c r="A430" s="15" t="s">
         <v>429</v>
       </c>
       <c r="B430">
@@ -11717,7 +11721,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="13" t="s">
+      <c r="A431" s="15" t="s">
         <v>430</v>
       </c>
       <c r="B431">
@@ -11737,7 +11741,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="13" t="s">
+      <c r="A432" s="15" t="s">
         <v>431</v>
       </c>
       <c r="B432">
@@ -11757,7 +11761,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="13" t="s">
+      <c r="A433" s="15" t="s">
         <v>432</v>
       </c>
       <c r="B433">
@@ -11777,7 +11781,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="13" t="s">
+      <c r="A434" s="15" t="s">
         <v>433</v>
       </c>
       <c r="B434">
@@ -11797,7 +11801,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="13" t="s">
+      <c r="A435" s="15" t="s">
         <v>434</v>
       </c>
       <c r="B435">
@@ -11817,7 +11821,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="13" t="s">
+      <c r="A436" s="15" t="s">
         <v>435</v>
       </c>
       <c r="B436">
@@ -11837,7 +11841,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="13" t="s">
+      <c r="A437" s="15" t="s">
         <v>436</v>
       </c>
       <c r="B437">
@@ -11857,7 +11861,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="13" t="s">
+      <c r="A438" s="15" t="s">
         <v>437</v>
       </c>
       <c r="B438">
@@ -11877,7 +11881,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="13" t="s">
+      <c r="A439" s="15" t="s">
         <v>438</v>
       </c>
       <c r="B439">
@@ -11897,7 +11901,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="13" t="s">
+      <c r="A440" s="15" t="s">
         <v>439</v>
       </c>
       <c r="B440">
@@ -11917,7 +11921,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="13" t="s">
+      <c r="A441" s="15" t="s">
         <v>440</v>
       </c>
       <c r="B441">
@@ -11937,7 +11941,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="13" t="s">
+      <c r="A442" s="15" t="s">
         <v>441</v>
       </c>
       <c r="B442">
@@ -11957,7 +11961,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="13" t="s">
+      <c r="A443" s="15" t="s">
         <v>442</v>
       </c>
       <c r="B443">
@@ -11977,7 +11981,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="13" t="s">
+      <c r="A444" s="15" t="s">
         <v>443</v>
       </c>
       <c r="B444">
@@ -11997,7 +12001,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="13" t="s">
+      <c r="A445" s="15" t="s">
         <v>444</v>
       </c>
       <c r="B445">
@@ -12017,7 +12021,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="13" t="s">
+      <c r="A446" s="15" t="s">
         <v>445</v>
       </c>
       <c r="B446">
@@ -12037,7 +12041,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="13" t="s">
+      <c r="A447" s="15" t="s">
         <v>446</v>
       </c>
       <c r="B447">
@@ -12057,7 +12061,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="13" t="s">
+      <c r="A448" s="15" t="s">
         <v>447</v>
       </c>
       <c r="B448">
@@ -12077,7 +12081,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="13" t="s">
+      <c r="A449" s="15" t="s">
         <v>448</v>
       </c>
       <c r="B449">
@@ -12097,7 +12101,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="13" t="s">
+      <c r="A450" s="15" t="s">
         <v>449</v>
       </c>
       <c r="B450">
@@ -12117,7 +12121,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="13" t="s">
+      <c r="A451" s="15" t="s">
         <v>450</v>
       </c>
       <c r="B451">
@@ -12137,7 +12141,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="13" t="s">
+      <c r="A452" s="15" t="s">
         <v>451</v>
       </c>
       <c r="B452">
@@ -12157,7 +12161,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="13" t="s">
+      <c r="A453" s="15" t="s">
         <v>452</v>
       </c>
       <c r="B453">
@@ -12177,7 +12181,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="13" t="s">
+      <c r="A454" s="15" t="s">
         <v>453</v>
       </c>
       <c r="B454">
@@ -12197,7 +12201,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="13" t="s">
+      <c r="A455" s="15" t="s">
         <v>454</v>
       </c>
       <c r="B455">
@@ -12217,7 +12221,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="13" t="s">
+      <c r="A456" s="15" t="s">
         <v>455</v>
       </c>
       <c r="B456">
@@ -12237,7 +12241,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="13" t="s">
+      <c r="A457" s="15" t="s">
         <v>456</v>
       </c>
       <c r="B457">
@@ -12257,7 +12261,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="13" t="s">
+      <c r="A458" s="15" t="s">
         <v>457</v>
       </c>
       <c r="B458">
@@ -12277,7 +12281,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="13" t="s">
+      <c r="A459" s="15" t="s">
         <v>458</v>
       </c>
       <c r="B459">
@@ -12297,7 +12301,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="13" t="s">
+      <c r="A460" s="15" t="s">
         <v>459</v>
       </c>
       <c r="B460">
@@ -12317,7 +12321,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="13" t="s">
+      <c r="A461" s="15" t="s">
         <v>460</v>
       </c>
       <c r="B461">
@@ -12337,7 +12341,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="13" t="s">
+      <c r="A462" s="15" t="s">
         <v>461</v>
       </c>
       <c r="B462">
@@ -12357,7 +12361,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="13" t="s">
+      <c r="A463" s="15" t="s">
         <v>462</v>
       </c>
       <c r="B463">
@@ -12377,7 +12381,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="13" t="s">
+      <c r="A464" s="15" t="s">
         <v>463</v>
       </c>
       <c r="B464">
@@ -12397,7 +12401,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="13" t="s">
+      <c r="A465" s="15" t="s">
         <v>464</v>
       </c>
       <c r="B465">
@@ -12417,7 +12421,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="13" t="s">
+      <c r="A466" s="15" t="s">
         <v>465</v>
       </c>
       <c r="B466">
@@ -12437,7 +12441,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="13" t="s">
+      <c r="A467" s="15" t="s">
         <v>466</v>
       </c>
       <c r="B467">
@@ -12457,7 +12461,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="13" t="s">
+      <c r="A468" s="15" t="s">
         <v>467</v>
       </c>
       <c r="B468">
@@ -12477,7 +12481,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="13" t="s">
+      <c r="A469" s="15" t="s">
         <v>468</v>
       </c>
       <c r="B469">
@@ -12497,7 +12501,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="13" t="s">
+      <c r="A470" s="15" t="s">
         <v>469</v>
       </c>
       <c r="B470">
@@ -12517,7 +12521,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="13" t="s">
+      <c r="A471" s="15" t="s">
         <v>470</v>
       </c>
       <c r="B471">
@@ -12537,7 +12541,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="13" t="s">
+      <c r="A472" s="15" t="s">
         <v>471</v>
       </c>
       <c r="B472">
@@ -12557,7 +12561,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="13" t="s">
+      <c r="A473" s="15" t="s">
         <v>472</v>
       </c>
       <c r="B473">
@@ -12577,7 +12581,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="13" t="s">
+      <c r="A474" s="15" t="s">
         <v>473</v>
       </c>
       <c r="B474">
@@ -12597,7 +12601,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="13" t="s">
+      <c r="A475" s="15" t="s">
         <v>474</v>
       </c>
       <c r="B475">
@@ -12617,7 +12621,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="13" t="s">
+      <c r="A476" s="15" t="s">
         <v>475</v>
       </c>
       <c r="B476">
@@ -12637,7 +12641,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="13" t="s">
+      <c r="A477" s="15" t="s">
         <v>476</v>
       </c>
       <c r="B477">
@@ -12657,7 +12661,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="13" t="s">
+      <c r="A478" s="15" t="s">
         <v>477</v>
       </c>
       <c r="B478">
@@ -12677,7 +12681,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="13" t="s">
+      <c r="A479" s="15" t="s">
         <v>478</v>
       </c>
       <c r="B479">
@@ -12697,7 +12701,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="13" t="s">
+      <c r="A480" s="15" t="s">
         <v>479</v>
       </c>
       <c r="B480">
@@ -12717,7 +12721,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="13" t="s">
+      <c r="A481" s="15" t="s">
         <v>480</v>
       </c>
       <c r="B481">
@@ -12737,7 +12741,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="13" t="s">
+      <c r="A482" s="15" t="s">
         <v>481</v>
       </c>
       <c r="B482">
@@ -12757,7 +12761,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="13" t="s">
+      <c r="A483" s="15" t="s">
         <v>482</v>
       </c>
       <c r="B483">
@@ -12777,7 +12781,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="13" t="s">
+      <c r="A484" s="15" t="s">
         <v>483</v>
       </c>
       <c r="B484">
@@ -12797,7 +12801,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="13" t="s">
+      <c r="A485" s="15" t="s">
         <v>484</v>
       </c>
       <c r="B485">
@@ -12817,7 +12821,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="13" t="s">
+      <c r="A486" s="15" t="s">
         <v>485</v>
       </c>
       <c r="B486">
@@ -12837,7 +12841,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="13" t="s">
+      <c r="A487" s="15" t="s">
         <v>486</v>
       </c>
       <c r="B487">
@@ -12857,7 +12861,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="13" t="s">
+      <c r="A488" s="15" t="s">
         <v>487</v>
       </c>
       <c r="B488">
@@ -12877,7 +12881,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="13" t="s">
+      <c r="A489" s="15" t="s">
         <v>488</v>
       </c>
       <c r="B489">
@@ -12897,7 +12901,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="13" t="s">
+      <c r="A490" s="15" t="s">
         <v>489</v>
       </c>
       <c r="B490">
@@ -12917,7 +12921,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="13" t="s">
+      <c r="A491" s="15" t="s">
         <v>490</v>
       </c>
       <c r="B491">
@@ -12937,7 +12941,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="13" t="s">
+      <c r="A492" s="15" t="s">
         <v>491</v>
       </c>
       <c r="B492">
@@ -12957,7 +12961,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="13" t="s">
+      <c r="A493" s="15" t="s">
         <v>492</v>
       </c>
       <c r="B493">
@@ -12977,7 +12981,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="13" t="s">
+      <c r="A494" s="15" t="s">
         <v>493</v>
       </c>
       <c r="B494">
@@ -12997,7 +13001,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="13" t="s">
+      <c r="A495" s="15" t="s">
         <v>494</v>
       </c>
       <c r="B495">
@@ -13017,7 +13021,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="13" t="s">
+      <c r="A496" s="15" t="s">
         <v>495</v>
       </c>
       <c r="B496">
@@ -13037,7 +13041,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="13" t="s">
+      <c r="A497" s="15" t="s">
         <v>496</v>
       </c>
       <c r="B497">
@@ -13057,7 +13061,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="13" t="s">
+      <c r="A498" s="15" t="s">
         <v>497</v>
       </c>
       <c r="B498">
@@ -13077,7 +13081,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="13" t="s">
+      <c r="A499" s="15" t="s">
         <v>498</v>
       </c>
       <c r="B499">
@@ -13097,7 +13101,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="13" t="s">
+      <c r="A500" s="15" t="s">
         <v>499</v>
       </c>
       <c r="B500">
@@ -13117,7 +13121,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="13" t="s">
+      <c r="A501" s="15" t="s">
         <v>500</v>
       </c>
       <c r="B501">
@@ -13137,7 +13141,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="13" t="s">
+      <c r="A502" s="15" t="s">
         <v>501</v>
       </c>
       <c r="B502">
@@ -13157,7 +13161,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="13" t="s">
+      <c r="A503" s="15" t="s">
         <v>502</v>
       </c>
       <c r="B503">
@@ -13177,7 +13181,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="13" t="s">
+      <c r="A504" s="15" t="s">
         <v>503</v>
       </c>
       <c r="B504">
@@ -13197,7 +13201,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="13" t="s">
+      <c r="A505" s="15" t="s">
         <v>504</v>
       </c>
       <c r="B505">
@@ -13217,7 +13221,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="13" t="s">
+      <c r="A506" s="15" t="s">
         <v>505</v>
       </c>
       <c r="B506">
@@ -13237,7 +13241,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="13" t="s">
+      <c r="A507" s="15" t="s">
         <v>506</v>
       </c>
       <c r="B507">
@@ -13257,7 +13261,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="13" t="s">
+      <c r="A508" s="15" t="s">
         <v>507</v>
       </c>
       <c r="B508">
@@ -13277,7 +13281,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="13" t="s">
+      <c r="A509" s="15" t="s">
         <v>508</v>
       </c>
       <c r="B509">
@@ -13297,7 +13301,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="13" t="s">
+      <c r="A510" s="15" t="s">
         <v>509</v>
       </c>
       <c r="B510">
@@ -13317,7 +13321,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="13" t="s">
+      <c r="A511" s="15" t="s">
         <v>510</v>
       </c>
       <c r="B511">
@@ -13337,7 +13341,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="13" t="s">
+      <c r="A512" s="15" t="s">
         <v>511</v>
       </c>
       <c r="B512">
@@ -13357,7 +13361,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="13" t="s">
+      <c r="A513" s="15" t="s">
         <v>512</v>
       </c>
       <c r="B513">
@@ -13377,7 +13381,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="13" t="s">
+      <c r="A514" s="15" t="s">
         <v>513</v>
       </c>
       <c r="B514">
@@ -13397,7 +13401,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="13" t="s">
+      <c r="A515" s="15" t="s">
         <v>514</v>
       </c>
       <c r="B515">
@@ -13417,7 +13421,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="13" t="s">
+      <c r="A516" s="15" t="s">
         <v>515</v>
       </c>
       <c r="B516">
@@ -13437,7 +13441,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="13" t="s">
+      <c r="A517" s="15" t="s">
         <v>516</v>
       </c>
       <c r="B517">
@@ -13457,7 +13461,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="13" t="s">
+      <c r="A518" s="15" t="s">
         <v>517</v>
       </c>
       <c r="B518">
@@ -13477,7 +13481,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="13" t="s">
+      <c r="A519" s="15" t="s">
         <v>518</v>
       </c>
       <c r="B519">
@@ -13497,7 +13501,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="13" t="s">
+      <c r="A520" s="15" t="s">
         <v>519</v>
       </c>
       <c r="B520">
@@ -13517,7 +13521,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="13" t="s">
+      <c r="A521" s="15" t="s">
         <v>520</v>
       </c>
       <c r="B521">
@@ -13537,7 +13541,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="13" t="s">
+      <c r="A522" s="15" t="s">
         <v>521</v>
       </c>
       <c r="B522">
@@ -13557,7 +13561,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="13" t="s">
+      <c r="A523" s="15" t="s">
         <v>522</v>
       </c>
       <c r="B523">
@@ -13577,7 +13581,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="13" t="s">
+      <c r="A524" s="15" t="s">
         <v>523</v>
       </c>
       <c r="B524">
@@ -13597,7 +13601,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="13" t="s">
+      <c r="A525" s="15" t="s">
         <v>524</v>
       </c>
       <c r="B525">
@@ -13617,7 +13621,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="13" t="s">
+      <c r="A526" s="15" t="s">
         <v>525</v>
       </c>
       <c r="B526">
@@ -13637,7 +13641,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="13" t="s">
+      <c r="A527" s="15" t="s">
         <v>526</v>
       </c>
       <c r="B527">
@@ -13657,7 +13661,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="13" t="s">
+      <c r="A528" s="15" t="s">
         <v>527</v>
       </c>
       <c r="B528">
@@ -13677,7 +13681,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="13" t="s">
+      <c r="A529" s="15" t="s">
         <v>528</v>
       </c>
       <c r="B529">
@@ -13697,7 +13701,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="13" t="s">
+      <c r="A530" s="15" t="s">
         <v>529</v>
       </c>
       <c r="B530">
@@ -13717,7 +13721,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="13" t="s">
+      <c r="A531" s="15" t="s">
         <v>530</v>
       </c>
       <c r="B531">
@@ -13737,7 +13741,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="13" t="s">
+      <c r="A532" s="15" t="s">
         <v>531</v>
       </c>
       <c r="B532">
@@ -13757,7 +13761,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="13" t="s">
+      <c r="A533" s="15" t="s">
         <v>532</v>
       </c>
       <c r="B533">
@@ -13777,7 +13781,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="13" t="s">
+      <c r="A534" s="15" t="s">
         <v>533</v>
       </c>
       <c r="B534">
@@ -13797,7 +13801,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="13" t="s">
+      <c r="A535" s="15" t="s">
         <v>534</v>
       </c>
       <c r="B535">
@@ -13817,7 +13821,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="13" t="s">
+      <c r="A536" s="15" t="s">
         <v>535</v>
       </c>
       <c r="B536">
@@ -13837,7 +13841,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="13" t="s">
+      <c r="A537" s="15" t="s">
         <v>536</v>
       </c>
       <c r="B537">
@@ -13857,7 +13861,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="13" t="s">
+      <c r="A538" s="15" t="s">
         <v>537</v>
       </c>
       <c r="B538">
@@ -13877,7 +13881,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="13" t="s">
+      <c r="A539" s="15" t="s">
         <v>538</v>
       </c>
       <c r="B539">
@@ -13897,7 +13901,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="13" t="s">
+      <c r="A540" s="15" t="s">
         <v>539</v>
       </c>
       <c r="B540">
@@ -13917,7 +13921,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="13" t="s">
+      <c r="A541" s="15" t="s">
         <v>540</v>
       </c>
       <c r="B541">
@@ -13937,7 +13941,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="13" t="s">
+      <c r="A542" s="15" t="s">
         <v>541</v>
       </c>
       <c r="B542">
@@ -13957,7 +13961,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="13" t="s">
+      <c r="A543" s="15" t="s">
         <v>542</v>
       </c>
       <c r="B543">
@@ -13977,7 +13981,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="13" t="s">
+      <c r="A544" s="15" t="s">
         <v>543</v>
       </c>
       <c r="B544">
@@ -13997,7 +14001,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="13" t="s">
+      <c r="A545" s="15" t="s">
         <v>544</v>
       </c>
       <c r="B545">
@@ -14017,7 +14021,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="13" t="s">
+      <c r="A546" s="15" t="s">
         <v>545</v>
       </c>
       <c r="B546">
@@ -14037,7 +14041,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="13" t="s">
+      <c r="A547" s="15" t="s">
         <v>546</v>
       </c>
       <c r="B547">
@@ -14057,7 +14061,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="13" t="s">
+      <c r="A548" s="15" t="s">
         <v>547</v>
       </c>
       <c r="B548">
@@ -14077,7 +14081,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="13" t="s">
+      <c r="A549" s="15" t="s">
         <v>548</v>
       </c>
       <c r="B549">
@@ -14097,7 +14101,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="13" t="s">
+      <c r="A550" s="15" t="s">
         <v>549</v>
       </c>
       <c r="B550">
@@ -14117,7 +14121,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="13" t="s">
+      <c r="A551" s="15" t="s">
         <v>550</v>
       </c>
       <c r="B551">
@@ -14137,7 +14141,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="13" t="s">
+      <c r="A552" s="15" t="s">
         <v>551</v>
       </c>
       <c r="B552">
@@ -14157,7 +14161,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="13" t="s">
+      <c r="A553" s="15" t="s">
         <v>552</v>
       </c>
       <c r="B553">
@@ -14177,7 +14181,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="13" t="s">
+      <c r="A554" s="15" t="s">
         <v>553</v>
       </c>
       <c r="B554">
@@ -14197,7 +14201,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="13" t="s">
+      <c r="A555" s="15" t="s">
         <v>554</v>
       </c>
       <c r="B555">
@@ -14217,7 +14221,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="13" t="s">
+      <c r="A556" s="15" t="s">
         <v>555</v>
       </c>
       <c r="B556">
@@ -14237,7 +14241,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="13" t="s">
+      <c r="A557" s="15" t="s">
         <v>556</v>
       </c>
       <c r="B557">
@@ -14257,7 +14261,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="13" t="s">
+      <c r="A558" s="15" t="s">
         <v>557</v>
       </c>
       <c r="B558">
@@ -14277,7 +14281,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="13" t="s">
+      <c r="A559" s="15" t="s">
         <v>558</v>
       </c>
       <c r="B559">
@@ -14297,7 +14301,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="13" t="s">
+      <c r="A560" s="15" t="s">
         <v>559</v>
       </c>
       <c r="B560">
@@ -14317,7 +14321,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="13" t="s">
+      <c r="A561" s="15" t="s">
         <v>560</v>
       </c>
       <c r="B561">
@@ -14337,7 +14341,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="13" t="s">
+      <c r="A562" s="15" t="s">
         <v>561</v>
       </c>
       <c r="B562">
@@ -14357,7 +14361,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="13" t="s">
+      <c r="A563" s="15" t="s">
         <v>562</v>
       </c>
       <c r="B563">
@@ -14377,7 +14381,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="13" t="s">
+      <c r="A564" s="15" t="s">
         <v>563</v>
       </c>
       <c r="B564">
@@ -14397,7 +14401,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="13" t="s">
+      <c r="A565" s="15" t="s">
         <v>564</v>
       </c>
       <c r="B565">
@@ -14417,7 +14421,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="13" t="s">
+      <c r="A566" s="15" t="s">
         <v>565</v>
       </c>
       <c r="B566">
@@ -14437,7 +14441,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="13" t="s">
+      <c r="A567" s="15" t="s">
         <v>566</v>
       </c>
       <c r="B567">
@@ -14457,7 +14461,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="13" t="s">
+      <c r="A568" s="15" t="s">
         <v>567</v>
       </c>
       <c r="B568">
@@ -14477,7 +14481,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="13" t="s">
+      <c r="A569" s="15" t="s">
         <v>568</v>
       </c>
       <c r="B569">
@@ -14497,7 +14501,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="13" t="s">
+      <c r="A570" s="15" t="s">
         <v>569</v>
       </c>
       <c r="B570">
@@ -14517,7 +14521,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="13" t="s">
+      <c r="A571" s="15" t="s">
         <v>570</v>
       </c>
       <c r="B571">
@@ -14537,7 +14541,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="13" t="s">
+      <c r="A572" s="15" t="s">
         <v>571</v>
       </c>
       <c r="B572">
@@ -14557,7 +14561,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="13" t="s">
+      <c r="A573" s="15" t="s">
         <v>572</v>
       </c>
       <c r="B573">
@@ -14577,7 +14581,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="13" t="s">
+      <c r="A574" s="15" t="s">
         <v>573</v>
       </c>
       <c r="B574">
@@ -14597,7 +14601,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="13" t="s">
+      <c r="A575" s="15" t="s">
         <v>574</v>
       </c>
       <c r="B575">
@@ -14617,7 +14621,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="13" t="s">
+      <c r="A576" s="15" t="s">
         <v>575</v>
       </c>
       <c r="B576">
@@ -14637,7 +14641,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="13" t="s">
+      <c r="A577" s="15" t="s">
         <v>576</v>
       </c>
       <c r="B577">
@@ -14657,7 +14661,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="13" t="s">
+      <c r="A578" s="15" t="s">
         <v>577</v>
       </c>
       <c r="B578">
@@ -14677,7 +14681,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="13" t="s">
+      <c r="A579" s="15" t="s">
         <v>578</v>
       </c>
       <c r="B579">
@@ -14697,7 +14701,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="13" t="s">
+      <c r="A580" s="15" t="s">
         <v>579</v>
       </c>
       <c r="B580">
@@ -14717,7 +14721,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="13" t="s">
+      <c r="A581" s="15" t="s">
         <v>580</v>
       </c>
       <c r="B581">
@@ -14737,7 +14741,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="13" t="s">
+      <c r="A582" s="15" t="s">
         <v>581</v>
       </c>
       <c r="B582">
@@ -14757,7 +14761,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="13" t="s">
+      <c r="A583" s="15" t="s">
         <v>582</v>
       </c>
       <c r="B583">
@@ -14777,7 +14781,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="13" t="s">
+      <c r="A584" s="15" t="s">
         <v>583</v>
       </c>
       <c r="B584">
@@ -14797,7 +14801,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="13" t="s">
+      <c r="A585" s="15" t="s">
         <v>584</v>
       </c>
       <c r="B585">
@@ -14817,7 +14821,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="13" t="s">
+      <c r="A586" s="15" t="s">
         <v>585</v>
       </c>
       <c r="B586">
@@ -14837,7 +14841,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="13" t="s">
+      <c r="A587" s="15" t="s">
         <v>586</v>
       </c>
       <c r="B587">
@@ -14857,7 +14861,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="13" t="s">
+      <c r="A588" s="15" t="s">
         <v>587</v>
       </c>
       <c r="B588">
@@ -14877,7 +14881,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="13" t="s">
+      <c r="A589" s="15" t="s">
         <v>588</v>
       </c>
       <c r="B589">
@@ -14897,7 +14901,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="13" t="s">
+      <c r="A590" s="15" t="s">
         <v>589</v>
       </c>
       <c r="B590">
@@ -14917,7 +14921,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="13" t="s">
+      <c r="A591" s="15" t="s">
         <v>590</v>
       </c>
       <c r="B591">
@@ -14937,7 +14941,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="13" t="s">
+      <c r="A592" s="15" t="s">
         <v>591</v>
       </c>
       <c r="B592">
@@ -14957,7 +14961,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="13" t="s">
+      <c r="A593" s="15" t="s">
         <v>592</v>
       </c>
       <c r="B593">
@@ -14977,7 +14981,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="13" t="s">
+      <c r="A594" s="15" t="s">
         <v>593</v>
       </c>
       <c r="B594">
@@ -14997,7 +15001,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="13" t="s">
+      <c r="A595" s="15" t="s">
         <v>594</v>
       </c>
       <c r="B595">
@@ -15017,7 +15021,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="13" t="s">
+      <c r="A596" s="15" t="s">
         <v>595</v>
       </c>
       <c r="B596">
@@ -15037,7 +15041,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="13" t="s">
+      <c r="A597" s="15" t="s">
         <v>596</v>
       </c>
       <c r="B597">
@@ -15057,7 +15061,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="13" t="s">
+      <c r="A598" s="15" t="s">
         <v>597</v>
       </c>
       <c r="B598">
@@ -15077,7 +15081,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="13" t="s">
+      <c r="A599" s="15" t="s">
         <v>598</v>
       </c>
       <c r="B599">
@@ -15097,7 +15101,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="13" t="s">
+      <c r="A600" s="15" t="s">
         <v>599</v>
       </c>
       <c r="B600">
@@ -15117,7 +15121,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="13" t="s">
+      <c r="A601" s="15" t="s">
         <v>600</v>
       </c>
       <c r="B601">
@@ -15137,7 +15141,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="13" t="s">
+      <c r="A602" s="15" t="s">
         <v>601</v>
       </c>
       <c r="B602">
@@ -15157,7 +15161,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="13" t="s">
+      <c r="A603" s="15" t="s">
         <v>602</v>
       </c>
       <c r="B603">
@@ -15177,7 +15181,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="13" t="s">
+      <c r="A604" s="15" t="s">
         <v>603</v>
       </c>
       <c r="B604">
@@ -15197,7 +15201,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="13" t="s">
+      <c r="A605" s="15" t="s">
         <v>604</v>
       </c>
       <c r="B605">
@@ -15217,7 +15221,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="13" t="s">
+      <c r="A606" s="15" t="s">
         <v>605</v>
       </c>
       <c r="B606">
@@ -15237,7 +15241,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="13" t="s">
+      <c r="A607" s="15" t="s">
         <v>606</v>
       </c>
       <c r="B607">
@@ -15257,7 +15261,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="13" t="s">
+      <c r="A608" s="15" t="s">
         <v>607</v>
       </c>
       <c r="B608">
@@ -15277,7 +15281,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="13" t="s">
+      <c r="A609" s="15" t="s">
         <v>608</v>
       </c>
       <c r="B609">
@@ -15297,7 +15301,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="13" t="s">
+      <c r="A610" s="15" t="s">
         <v>609</v>
       </c>
       <c r="B610">
@@ -15317,7 +15321,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="13" t="s">
+      <c r="A611" s="15" t="s">
         <v>610</v>
       </c>
       <c r="B611">
@@ -15337,7 +15341,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="13" t="s">
+      <c r="A612" s="15" t="s">
         <v>611</v>
       </c>
       <c r="B612">
@@ -15357,7 +15361,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="13" t="s">
+      <c r="A613" s="15" t="s">
         <v>612</v>
       </c>
       <c r="B613">
@@ -15377,7 +15381,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="13" t="s">
+      <c r="A614" s="15" t="s">
         <v>613</v>
       </c>
       <c r="B614">
@@ -15397,7 +15401,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="13" t="s">
+      <c r="A615" s="15" t="s">
         <v>614</v>
       </c>
       <c r="B615">
@@ -15417,7 +15421,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="13" t="s">
+      <c r="A616" s="15" t="s">
         <v>615</v>
       </c>
       <c r="B616">
@@ -15437,7 +15441,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="13" t="s">
+      <c r="A617" s="15" t="s">
         <v>616</v>
       </c>
       <c r="B617">
@@ -15457,7 +15461,7 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="13" t="s">
+      <c r="A618" s="15" t="s">
         <v>617</v>
       </c>
       <c r="B618">
@@ -15477,7 +15481,7 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="13" t="s">
+      <c r="A619" s="15" t="s">
         <v>618</v>
       </c>
       <c r="B619">
@@ -15497,7 +15501,7 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="13" t="s">
+      <c r="A620" s="15" t="s">
         <v>619</v>
       </c>
       <c r="B620">
@@ -15517,7 +15521,7 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="13" t="s">
+      <c r="A621" s="15" t="s">
         <v>620</v>
       </c>
       <c r="B621">
@@ -15537,7 +15541,7 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="13" t="s">
+      <c r="A622" s="15" t="s">
         <v>621</v>
       </c>
       <c r="B622">
@@ -15557,7 +15561,7 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="13" t="s">
+      <c r="A623" s="15" t="s">
         <v>622</v>
       </c>
       <c r="B623">
@@ -15577,7 +15581,7 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="13" t="s">
+      <c r="A624" s="15" t="s">
         <v>623</v>
       </c>
       <c r="B624">
@@ -15597,7 +15601,7 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="13" t="s">
+      <c r="A625" s="15" t="s">
         <v>624</v>
       </c>
       <c r="B625">
@@ -15617,7 +15621,7 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="13" t="s">
+      <c r="A626" s="15" t="s">
         <v>625</v>
       </c>
       <c r="B626">
@@ -15637,7 +15641,7 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="13" t="s">
+      <c r="A627" s="15" t="s">
         <v>626</v>
       </c>
       <c r="B627">
@@ -15657,7 +15661,7 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="13" t="s">
+      <c r="A628" s="15" t="s">
         <v>627</v>
       </c>
       <c r="B628">
@@ -15677,7 +15681,7 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="13" t="s">
+      <c r="A629" s="15" t="s">
         <v>628</v>
       </c>
       <c r="B629">
@@ -15697,7 +15701,7 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="13" t="s">
+      <c r="A630" s="15" t="s">
         <v>629</v>
       </c>
       <c r="B630">
@@ -15717,7 +15721,7 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="13" t="s">
+      <c r="A631" s="15" t="s">
         <v>630</v>
       </c>
       <c r="B631">
@@ -15737,7 +15741,7 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="13" t="s">
+      <c r="A632" s="15" t="s">
         <v>631</v>
       </c>
       <c r="B632">
@@ -15757,7 +15761,7 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="13" t="s">
+      <c r="A633" s="15" t="s">
         <v>632</v>
       </c>
       <c r="B633">
@@ -15777,7 +15781,7 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="13" t="s">
+      <c r="A634" s="15" t="s">
         <v>633</v>
       </c>
       <c r="B634">
@@ -15797,7 +15801,7 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="13" t="s">
+      <c r="A635" s="15" t="s">
         <v>634</v>
       </c>
       <c r="B635">
@@ -15817,7 +15821,7 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="13" t="s">
+      <c r="A636" s="15" t="s">
         <v>635</v>
       </c>
       <c r="B636">
@@ -15837,7 +15841,7 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="13" t="s">
+      <c r="A637" s="15" t="s">
         <v>636</v>
       </c>
       <c r="B637">
@@ -15857,7 +15861,7 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="13" t="s">
+      <c r="A638" s="15" t="s">
         <v>637</v>
       </c>
       <c r="B638">
@@ -15877,7 +15881,7 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="13" t="s">
+      <c r="A639" s="15" t="s">
         <v>638</v>
       </c>
       <c r="B639">
@@ -15897,7 +15901,7 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="13" t="s">
+      <c r="A640" s="15" t="s">
         <v>639</v>
       </c>
       <c r="B640">
@@ -15917,7 +15921,7 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="13" t="s">
+      <c r="A641" s="15" t="s">
         <v>640</v>
       </c>
       <c r="B641">
@@ -15937,7 +15941,7 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="13" t="s">
+      <c r="A642" s="15" t="s">
         <v>641</v>
       </c>
       <c r="B642">
@@ -15957,7 +15961,7 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="13" t="s">
+      <c r="A643" s="15" t="s">
         <v>642</v>
       </c>
       <c r="B643">
@@ -15977,7 +15981,7 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="13" t="s">
+      <c r="A644" s="15" t="s">
         <v>643</v>
       </c>
       <c r="B644">
@@ -15997,7 +16001,7 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="13" t="s">
+      <c r="A645" s="15" t="s">
         <v>644</v>
       </c>
       <c r="B645">
@@ -16017,7 +16021,7 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="13" t="s">
+      <c r="A646" s="15" t="s">
         <v>645</v>
       </c>
       <c r="B646">
@@ -16037,7 +16041,7 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="13" t="s">
+      <c r="A647" s="15" t="s">
         <v>646</v>
       </c>
       <c r="B647">
@@ -16057,7 +16061,7 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="13" t="s">
+      <c r="A648" s="15" t="s">
         <v>647</v>
       </c>
       <c r="B648">
@@ -16077,7 +16081,7 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="13" t="s">
+      <c r="A649" s="15" t="s">
         <v>648</v>
       </c>
       <c r="B649">
@@ -16097,7 +16101,7 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="13" t="s">
+      <c r="A650" s="15" t="s">
         <v>649</v>
       </c>
       <c r="B650">
@@ -16117,7 +16121,7 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="13" t="s">
+      <c r="A651" s="15" t="s">
         <v>650</v>
       </c>
       <c r="B651">
@@ -16137,7 +16141,7 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="13" t="s">
+      <c r="A652" s="15" t="s">
         <v>651</v>
       </c>
       <c r="B652">
@@ -16157,7 +16161,7 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="13" t="s">
+      <c r="A653" s="15" t="s">
         <v>652</v>
       </c>
       <c r="B653">
@@ -16177,7 +16181,7 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="13" t="s">
+      <c r="A654" s="15" t="s">
         <v>653</v>
       </c>
       <c r="B654">
@@ -16197,7 +16201,7 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="13" t="s">
+      <c r="A655" s="15" t="s">
         <v>654</v>
       </c>
       <c r="B655">
@@ -16217,7 +16221,7 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="13" t="s">
+      <c r="A656" s="15" t="s">
         <v>655</v>
       </c>
       <c r="B656">
@@ -16237,7 +16241,7 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="13" t="s">
+      <c r="A657" s="15" t="s">
         <v>656</v>
       </c>
       <c r="B657">
@@ -16257,7 +16261,7 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="13" t="s">
+      <c r="A658" s="15" t="s">
         <v>657</v>
       </c>
       <c r="B658">
@@ -16277,7 +16281,7 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="13" t="s">
+      <c r="A659" s="15" t="s">
         <v>658</v>
       </c>
       <c r="B659">
@@ -16297,7 +16301,7 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="13" t="s">
+      <c r="A660" s="15" t="s">
         <v>659</v>
       </c>
       <c r="B660">
@@ -16317,7 +16321,7 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="13" t="s">
+      <c r="A661" s="15" t="s">
         <v>660</v>
       </c>
       <c r="B661">
@@ -16337,7 +16341,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="13" t="s">
+      <c r="A662" s="15" t="s">
         <v>661</v>
       </c>
       <c r="B662">
@@ -16357,7 +16361,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="13" t="s">
+      <c r="A663" s="15" t="s">
         <v>662</v>
       </c>
       <c r="B663">
@@ -16377,7 +16381,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="13" t="s">
+      <c r="A664" s="15" t="s">
         <v>663</v>
       </c>
       <c r="B664">
@@ -16397,7 +16401,7 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="13" t="s">
+      <c r="A665" s="15" t="s">
         <v>664</v>
       </c>
       <c r="B665">
@@ -16417,7 +16421,7 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="13" t="s">
+      <c r="A666" s="15" t="s">
         <v>665</v>
       </c>
       <c r="B666">
@@ -16437,7 +16441,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="13" t="s">
+      <c r="A667" s="15" t="s">
         <v>666</v>
       </c>
       <c r="B667">
@@ -16457,7 +16461,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="13" t="s">
+      <c r="A668" s="15" t="s">
         <v>667</v>
       </c>
       <c r="B668">
@@ -16477,7 +16481,7 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="13" t="s">
+      <c r="A669" s="15" t="s">
         <v>668</v>
       </c>
       <c r="B669">
@@ -16497,7 +16501,7 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="13" t="s">
+      <c r="A670" s="15" t="s">
         <v>669</v>
       </c>
       <c r="B670">
@@ -16517,7 +16521,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="13" t="s">
+      <c r="A671" s="15" t="s">
         <v>670</v>
       </c>
       <c r="B671">
@@ -16537,7 +16541,7 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="13" t="s">
+      <c r="A672" s="15" t="s">
         <v>671</v>
       </c>
       <c r="B672">
@@ -16557,7 +16561,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="13" t="s">
+      <c r="A673" s="15" t="s">
         <v>672</v>
       </c>
       <c r="B673">
@@ -16577,7 +16581,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="13" t="s">
+      <c r="A674" s="15" t="s">
         <v>673</v>
       </c>
       <c r="B674">
@@ -16597,7 +16601,7 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="13" t="s">
+      <c r="A675" s="15" t="s">
         <v>674</v>
       </c>
       <c r="B675">
@@ -16617,7 +16621,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="13" t="s">
+      <c r="A676" s="15" t="s">
         <v>675</v>
       </c>
       <c r="B676">
@@ -16637,7 +16641,7 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="13" t="s">
+      <c r="A677" s="15" t="s">
         <v>676</v>
       </c>
       <c r="B677">
@@ -16657,7 +16661,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="13" t="s">
+      <c r="A678" s="15" t="s">
         <v>677</v>
       </c>
       <c r="B678">
@@ -16677,7 +16681,7 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="13" t="s">
+      <c r="A679" s="15" t="s">
         <v>678</v>
       </c>
       <c r="B679">
@@ -16697,7 +16701,7 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="13" t="s">
+      <c r="A680" s="15" t="s">
         <v>679</v>
       </c>
       <c r="B680">
@@ -16717,7 +16721,7 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="13" t="s">
+      <c r="A681" s="15" t="s">
         <v>680</v>
       </c>
       <c r="B681">
@@ -16737,7 +16741,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="13" t="s">
+      <c r="A682" s="15" t="s">
         <v>681</v>
       </c>
       <c r="B682">
@@ -16757,7 +16761,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="13" t="s">
+      <c r="A683" s="15" t="s">
         <v>682</v>
       </c>
       <c r="B683">
@@ -16777,7 +16781,7 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="13" t="s">
+      <c r="A684" s="15" t="s">
         <v>683</v>
       </c>
       <c r="B684">
@@ -16797,7 +16801,7 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="13" t="s">
+      <c r="A685" s="15" t="s">
         <v>684</v>
       </c>
       <c r="B685">
@@ -16817,7 +16821,7 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="13" t="s">
+      <c r="A686" s="15" t="s">
         <v>685</v>
       </c>
       <c r="B686">
@@ -16837,7 +16841,7 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="13" t="s">
+      <c r="A687" s="15" t="s">
         <v>686</v>
       </c>
       <c r="B687">
@@ -16857,7 +16861,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="13" t="s">
+      <c r="A688" s="15" t="s">
         <v>687</v>
       </c>
       <c r="B688">
@@ -16877,7 +16881,7 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="13" t="s">
+      <c r="A689" s="15" t="s">
         <v>688</v>
       </c>
       <c r="B689">
@@ -16897,7 +16901,7 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="13" t="s">
+      <c r="A690" s="15" t="s">
         <v>689</v>
       </c>
       <c r="B690">
@@ -16917,7 +16921,7 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="13" t="s">
+      <c r="A691" s="15" t="s">
         <v>690</v>
       </c>
       <c r="B691">
@@ -16937,7 +16941,7 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="13" t="s">
+      <c r="A692" s="15" t="s">
         <v>691</v>
       </c>
       <c r="B692">
@@ -16957,7 +16961,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="13" t="s">
+      <c r="A693" s="15" t="s">
         <v>692</v>
       </c>
       <c r="B693">
@@ -16977,7 +16981,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="13" t="s">
+      <c r="A694" s="15" t="s">
         <v>693</v>
       </c>
       <c r="B694">
@@ -16997,7 +17001,7 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="13" t="s">
+      <c r="A695" s="15" t="s">
         <v>694</v>
       </c>
       <c r="B695">
@@ -17017,7 +17021,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="13" t="s">
+      <c r="A696" s="15" t="s">
         <v>695</v>
       </c>
       <c r="B696">
@@ -17037,7 +17041,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="13" t="s">
+      <c r="A697" s="15" t="s">
         <v>696</v>
       </c>
       <c r="B697">
@@ -17057,7 +17061,7 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="13" t="s">
+      <c r="A698" s="15" t="s">
         <v>697</v>
       </c>
       <c r="B698">
@@ -17077,7 +17081,7 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="13" t="s">
+      <c r="A699" s="15" t="s">
         <v>698</v>
       </c>
       <c r="B699">
@@ -17097,7 +17101,7 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="13" t="s">
+      <c r="A700" s="15" t="s">
         <v>699</v>
       </c>
       <c r="B700">
@@ -17117,7 +17121,7 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="13" t="s">
+      <c r="A701" s="15" t="s">
         <v>700</v>
       </c>
       <c r="B701">
@@ -17137,7 +17141,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="13" t="s">
+      <c r="A702" s="15" t="s">
         <v>701</v>
       </c>
       <c r="B702">
@@ -17157,7 +17161,7 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="13" t="s">
+      <c r="A703" s="15" t="s">
         <v>702</v>
       </c>
       <c r="B703">
@@ -17177,7 +17181,7 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="13" t="s">
+      <c r="A704" s="15" t="s">
         <v>703</v>
       </c>
       <c r="B704">
@@ -17197,7 +17201,7 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="13" t="s">
+      <c r="A705" s="15" t="s">
         <v>704</v>
       </c>
       <c r="B705">
@@ -17217,7 +17221,7 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="13" t="s">
+      <c r="A706" s="15" t="s">
         <v>705</v>
       </c>
       <c r="B706">
@@ -17237,7 +17241,7 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="13" t="s">
+      <c r="A707" s="15" t="s">
         <v>706</v>
       </c>
       <c r="B707">
@@ -17257,7 +17261,7 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="13" t="s">
+      <c r="A708" s="15" t="s">
         <v>707</v>
       </c>
       <c r="B708">
@@ -17277,7 +17281,7 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="13" t="s">
+      <c r="A709" s="15" t="s">
         <v>708</v>
       </c>
       <c r="B709">
@@ -17297,7 +17301,7 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="13" t="s">
+      <c r="A710" s="15" t="s">
         <v>709</v>
       </c>
       <c r="B710">
@@ -17317,7 +17321,7 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="13" t="s">
+      <c r="A711" s="15" t="s">
         <v>710</v>
       </c>
       <c r="B711">
@@ -17337,7 +17341,7 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="13" t="s">
+      <c r="A712" s="15" t="s">
         <v>711</v>
       </c>
       <c r="B712">
@@ -17357,7 +17361,7 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="13" t="s">
+      <c r="A713" s="15" t="s">
         <v>712</v>
       </c>
       <c r="B713">
@@ -17377,7 +17381,7 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="13" t="s">
+      <c r="A714" s="15" t="s">
         <v>713</v>
       </c>
       <c r="B714">
@@ -17397,7 +17401,7 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="13" t="s">
+      <c r="A715" s="15" t="s">
         <v>714</v>
       </c>
       <c r="B715">
@@ -17417,7 +17421,7 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="13" t="s">
+      <c r="A716" s="15" t="s">
         <v>715</v>
       </c>
       <c r="B716">
@@ -17437,7 +17441,7 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="13" t="s">
+      <c r="A717" s="15" t="s">
         <v>716</v>
       </c>
       <c r="B717">
@@ -17457,7 +17461,7 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="13" t="s">
+      <c r="A718" s="15" t="s">
         <v>717</v>
       </c>
       <c r="B718">
@@ -17477,7 +17481,7 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" s="13" t="s">
+      <c r="A719" s="15" t="s">
         <v>718</v>
       </c>
       <c r="B719">
@@ -17497,7 +17501,7 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="13" t="s">
+      <c r="A720" s="15" t="s">
         <v>719</v>
       </c>
       <c r="B720">
@@ -17517,7 +17521,7 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="13" t="s">
+      <c r="A721" s="15" t="s">
         <v>720</v>
       </c>
       <c r="B721">
@@ -17537,7 +17541,7 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="13" t="s">
+      <c r="A722" s="15" t="s">
         <v>721</v>
       </c>
       <c r="B722">
@@ -17557,7 +17561,7 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="13" t="s">
+      <c r="A723" s="15" t="s">
         <v>722</v>
       </c>
       <c r="B723">
@@ -17577,7 +17581,7 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="13" t="s">
+      <c r="A724" s="15" t="s">
         <v>723</v>
       </c>
       <c r="B724">
@@ -17597,7 +17601,7 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="13" t="s">
+      <c r="A725" s="15" t="s">
         <v>724</v>
       </c>
       <c r="B725">
@@ -17617,7 +17621,7 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="13" t="s">
+      <c r="A726" s="15" t="s">
         <v>725</v>
       </c>
       <c r="B726">
@@ -17637,7 +17641,7 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="13" t="s">
+      <c r="A727" s="15" t="s">
         <v>726</v>
       </c>
       <c r="B727">
@@ -17657,7 +17661,7 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" s="13" t="s">
+      <c r="A728" s="15" t="s">
         <v>727</v>
       </c>
       <c r="B728">
@@ -17677,7 +17681,7 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="13" t="s">
+      <c r="A729" s="15" t="s">
         <v>728</v>
       </c>
       <c r="B729">
@@ -17697,7 +17701,7 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="13" t="s">
+      <c r="A730" s="15" t="s">
         <v>729</v>
       </c>
       <c r="B730">
@@ -17717,7 +17721,7 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="13" t="s">
+      <c r="A731" s="15" t="s">
         <v>730</v>
       </c>
       <c r="B731">
@@ -17737,7 +17741,7 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="13" t="s">
+      <c r="A732" s="15" t="s">
         <v>731</v>
       </c>
       <c r="B732">
@@ -17757,7 +17761,7 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="13" t="s">
+      <c r="A733" s="15" t="s">
         <v>732</v>
       </c>
       <c r="B733">
@@ -17777,7 +17781,7 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="13" t="s">
+      <c r="A734" s="15" t="s">
         <v>733</v>
       </c>
       <c r="B734">
@@ -17797,7 +17801,7 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="13" t="s">
+      <c r="A735" s="15" t="s">
         <v>734</v>
       </c>
       <c r="B735">
@@ -17817,7 +17821,7 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="13" t="s">
+      <c r="A736" s="15" t="s">
         <v>735</v>
       </c>
       <c r="B736">
@@ -17837,7 +17841,7 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="13" t="s">
+      <c r="A737" s="15" t="s">
         <v>736</v>
       </c>
       <c r="B737">
@@ -17857,7 +17861,7 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="13" t="s">
+      <c r="A738" s="15" t="s">
         <v>737</v>
       </c>
       <c r="B738">
@@ -17877,7 +17881,7 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="13" t="s">
+      <c r="A739" s="15" t="s">
         <v>738</v>
       </c>
       <c r="B739">
@@ -17897,7 +17901,7 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="13" t="s">
+      <c r="A740" s="15" t="s">
         <v>739</v>
       </c>
       <c r="B740">
@@ -17917,7 +17921,7 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="13" t="s">
+      <c r="A741" s="15" t="s">
         <v>740</v>
       </c>
       <c r="B741">
@@ -17937,7 +17941,7 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="13" t="s">
+      <c r="A742" s="15" t="s">
         <v>741</v>
       </c>
       <c r="B742">
@@ -17957,7 +17961,7 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="13" t="s">
+      <c r="A743" s="15" t="s">
         <v>742</v>
       </c>
       <c r="B743">
@@ -17977,7 +17981,7 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="13" t="s">
+      <c r="A744" s="15" t="s">
         <v>743</v>
       </c>
       <c r="B744">
@@ -17997,7 +18001,7 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="13" t="s">
+      <c r="A745" s="15" t="s">
         <v>744</v>
       </c>
       <c r="B745">
@@ -18017,7 +18021,7 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="13" t="s">
+      <c r="A746" s="15" t="s">
         <v>745</v>
       </c>
       <c r="B746">
@@ -18037,7 +18041,7 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="13" t="s">
+      <c r="A747" s="15" t="s">
         <v>746</v>
       </c>
       <c r="B747">
@@ -18057,7 +18061,7 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="13" t="s">
+      <c r="A748" s="15" t="s">
         <v>747</v>
       </c>
       <c r="B748">
@@ -18077,7 +18081,7 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="13" t="s">
+      <c r="A749" s="15" t="s">
         <v>748</v>
       </c>
       <c r="B749">
@@ -18097,7 +18101,7 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="13" t="s">
+      <c r="A750" s="15" t="s">
         <v>749</v>
       </c>
       <c r="B750">
@@ -18117,7 +18121,7 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="13" t="s">
+      <c r="A751" s="15" t="s">
         <v>750</v>
       </c>
       <c r="B751">
@@ -18137,7 +18141,7 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="13" t="s">
+      <c r="A752" s="15" t="s">
         <v>751</v>
       </c>
       <c r="B752">
@@ -18157,7 +18161,7 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="13" t="s">
+      <c r="A753" s="15" t="s">
         <v>752</v>
       </c>
       <c r="B753">
@@ -18177,7 +18181,7 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="13" t="s">
+      <c r="A754" s="15" t="s">
         <v>753</v>
       </c>
       <c r="B754">
@@ -18197,7 +18201,7 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="13" t="s">
+      <c r="A755" s="15" t="s">
         <v>754</v>
       </c>
       <c r="B755">
@@ -18217,7 +18221,7 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="13" t="s">
+      <c r="A756" s="15" t="s">
         <v>755</v>
       </c>
       <c r="B756">
@@ -18237,7 +18241,7 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="13" t="s">
+      <c r="A757" s="15" t="s">
         <v>756</v>
       </c>
       <c r="B757">
@@ -18257,7 +18261,7 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="13" t="s">
+      <c r="A758" s="15" t="s">
         <v>757</v>
       </c>
       <c r="B758">
@@ -18277,7 +18281,7 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="13" t="s">
+      <c r="A759" s="15" t="s">
         <v>758</v>
       </c>
       <c r="B759">
@@ -18297,7 +18301,7 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="13" t="s">
+      <c r="A760" s="15" t="s">
         <v>759</v>
       </c>
       <c r="B760">
@@ -18317,7 +18321,7 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="13" t="s">
+      <c r="A761" s="15" t="s">
         <v>760</v>
       </c>
       <c r="B761">
@@ -18337,7 +18341,7 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" s="13" t="s">
+      <c r="A762" s="15" t="s">
         <v>761</v>
       </c>
       <c r="B762">
@@ -18357,7 +18361,7 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="13" t="s">
+      <c r="A763" s="15" t="s">
         <v>762</v>
       </c>
       <c r="B763">
@@ -18377,7 +18381,7 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="13" t="s">
+      <c r="A764" s="15" t="s">
         <v>763</v>
       </c>
       <c r="B764">
@@ -18397,7 +18401,7 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="13" t="s">
+      <c r="A765" s="15" t="s">
         <v>764</v>
       </c>
       <c r="B765">
@@ -18417,7 +18421,7 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="13" t="s">
+      <c r="A766" s="15" t="s">
         <v>765</v>
       </c>
       <c r="B766">
@@ -18437,7 +18441,7 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="13" t="s">
+      <c r="A767" s="15" t="s">
         <v>766</v>
       </c>
       <c r="B767">
@@ -18457,7 +18461,7 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="13" t="s">
+      <c r="A768" s="15" t="s">
         <v>767</v>
       </c>
       <c r="B768">
@@ -18477,7 +18481,7 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="13" t="s">
+      <c r="A769" s="15" t="s">
         <v>768</v>
       </c>
       <c r="B769">
@@ -18497,7 +18501,7 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="13" t="s">
+      <c r="A770" s="15" t="s">
         <v>769</v>
       </c>
       <c r="B770">
@@ -18517,7 +18521,7 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="13" t="s">
+      <c r="A771" s="15" t="s">
         <v>770</v>
       </c>
       <c r="B771">
@@ -18537,7 +18541,7 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="13" t="s">
+      <c r="A772" s="15" t="s">
         <v>771</v>
       </c>
       <c r="B772">
@@ -18557,7 +18561,7 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="13" t="s">
+      <c r="A773" s="15" t="s">
         <v>772</v>
       </c>
       <c r="B773">
@@ -18577,7 +18581,7 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="13" t="s">
+      <c r="A774" s="15" t="s">
         <v>773</v>
       </c>
       <c r="B774">
@@ -18597,7 +18601,7 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="13" t="s">
+      <c r="A775" s="15" t="s">
         <v>774</v>
       </c>
       <c r="B775">
@@ -18617,7 +18621,7 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="13" t="s">
+      <c r="A776" s="15" t="s">
         <v>775</v>
       </c>
       <c r="B776">
@@ -18637,7 +18641,7 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" s="13" t="s">
+      <c r="A777" s="15" t="s">
         <v>776</v>
       </c>
       <c r="B777">
@@ -18657,7 +18661,7 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="13" t="s">
+      <c r="A778" s="15" t="s">
         <v>777</v>
       </c>
       <c r="B778">
@@ -18677,7 +18681,7 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="13" t="s">
+      <c r="A779" s="15" t="s">
         <v>778</v>
       </c>
       <c r="B779">
@@ -18697,7 +18701,7 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="13" t="s">
+      <c r="A780" s="15" t="s">
         <v>779</v>
       </c>
       <c r="B780">
@@ -18717,7 +18721,7 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="13" t="s">
+      <c r="A781" s="15" t="s">
         <v>780</v>
       </c>
       <c r="B781">
@@ -18737,7 +18741,7 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" s="13" t="s">
+      <c r="A782" s="15" t="s">
         <v>781</v>
       </c>
       <c r="B782">
@@ -18757,7 +18761,7 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" s="13" t="s">
+      <c r="A783" s="15" t="s">
         <v>782</v>
       </c>
       <c r="B783">
@@ -18777,7 +18781,7 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" s="13" t="s">
+      <c r="A784" s="15" t="s">
         <v>783</v>
       </c>
       <c r="B784">
@@ -18797,7 +18801,7 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="13" t="s">
+      <c r="A785" s="15" t="s">
         <v>784</v>
       </c>
       <c r="B785">
@@ -18817,7 +18821,7 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="13" t="s">
+      <c r="A786" s="15" t="s">
         <v>785</v>
       </c>
       <c r="B786">
@@ -18837,7 +18841,7 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="13" t="s">
+      <c r="A787" s="15" t="s">
         <v>786</v>
       </c>
       <c r="B787">
@@ -18857,7 +18861,7 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" s="13" t="s">
+      <c r="A788" s="15" t="s">
         <v>787</v>
       </c>
       <c r="B788">
@@ -18877,7 +18881,7 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="13" t="s">
+      <c r="A789" s="15" t="s">
         <v>788</v>
       </c>
       <c r="B789">
@@ -18897,7 +18901,7 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="13" t="s">
+      <c r="A790" s="15" t="s">
         <v>789</v>
       </c>
       <c r="B790">
@@ -18917,7 +18921,7 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="13" t="s">
+      <c r="A791" s="15" t="s">
         <v>790</v>
       </c>
       <c r="B791">
@@ -18937,7 +18941,7 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="13" t="s">
+      <c r="A792" s="15" t="s">
         <v>791</v>
       </c>
       <c r="B792">
@@ -18957,7 +18961,7 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="13" t="s">
+      <c r="A793" s="15" t="s">
         <v>792</v>
       </c>
       <c r="B793">
@@ -18977,7 +18981,7 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="13" t="s">
+      <c r="A794" s="15" t="s">
         <v>793</v>
       </c>
       <c r="B794">
@@ -18997,7 +19001,7 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="13" t="s">
+      <c r="A795" s="15" t="s">
         <v>794</v>
       </c>
       <c r="B795">
@@ -19017,7 +19021,7 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="13" t="s">
+      <c r="A796" s="15" t="s">
         <v>795</v>
       </c>
       <c r="B796">
@@ -19037,7 +19041,7 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" s="13" t="s">
+      <c r="A797" s="15" t="s">
         <v>796</v>
       </c>
       <c r="B797">
@@ -19057,7 +19061,7 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="13" t="s">
+      <c r="A798" s="15" t="s">
         <v>797</v>
       </c>
       <c r="B798">
@@ -19077,7 +19081,7 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="13" t="s">
+      <c r="A799" s="15" t="s">
         <v>798</v>
       </c>
       <c r="B799">
@@ -19097,7 +19101,7 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="13" t="s">
+      <c r="A800" s="15" t="s">
         <v>799</v>
       </c>
       <c r="B800">
@@ -19117,7 +19121,7 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="13" t="s">
+      <c r="A801" s="15" t="s">
         <v>800</v>
       </c>
       <c r="B801">
@@ -19137,7 +19141,7 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="13" t="s">
+      <c r="A802" s="15" t="s">
         <v>801</v>
       </c>
       <c r="B802">
@@ -19157,7 +19161,7 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="13" t="s">
+      <c r="A803" s="15" t="s">
         <v>802</v>
       </c>
       <c r="B803">
@@ -19177,7 +19181,7 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="13" t="s">
+      <c r="A804" s="15" t="s">
         <v>803</v>
       </c>
       <c r="B804">
@@ -19197,7 +19201,7 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="13" t="s">
+      <c r="A805" s="15" t="s">
         <v>804</v>
       </c>
       <c r="B805">
@@ -19217,7 +19221,7 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" s="13" t="s">
+      <c r="A806" s="15" t="s">
         <v>805</v>
       </c>
       <c r="B806">
@@ -19237,7 +19241,7 @@
       </c>
     </row>
     <row r="807">
-      <c r="A807" s="13" t="s">
+      <c r="A807" s="15" t="s">
         <v>806</v>
       </c>
       <c r="B807">
@@ -19257,7 +19261,7 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="13" t="s">
+      <c r="A808" s="15" t="s">
         <v>807</v>
       </c>
       <c r="B808">
@@ -19277,7 +19281,7 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="13" t="s">
+      <c r="A809" s="15" t="s">
         <v>808</v>
       </c>
       <c r="B809">
@@ -19297,7 +19301,7 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="13" t="s">
+      <c r="A810" s="15" t="s">
         <v>809</v>
       </c>
       <c r="B810">
@@ -19317,7 +19321,7 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="13" t="s">
+      <c r="A811" s="15" t="s">
         <v>810</v>
       </c>
       <c r="B811">
@@ -19337,7 +19341,7 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="13" t="s">
+      <c r="A812" s="15" t="s">
         <v>811</v>
       </c>
       <c r="B812">
@@ -19357,7 +19361,7 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" s="13" t="s">
+      <c r="A813" s="15" t="s">
         <v>812</v>
       </c>
       <c r="B813">
@@ -19377,7 +19381,7 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="13" t="s">
+      <c r="A814" s="15" t="s">
         <v>813</v>
       </c>
       <c r="B814">
@@ -19397,7 +19401,7 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" s="13" t="s">
+      <c r="A815" s="15" t="s">
         <v>814</v>
       </c>
       <c r="B815">
@@ -19417,7 +19421,7 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="13" t="s">
+      <c r="A816" s="15" t="s">
         <v>815</v>
       </c>
       <c r="B816">
@@ -19437,7 +19441,7 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="13" t="s">
+      <c r="A817" s="15" t="s">
         <v>816</v>
       </c>
       <c r="B817">
@@ -19457,7 +19461,7 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="13" t="s">
+      <c r="A818" s="15" t="s">
         <v>817</v>
       </c>
       <c r="B818">
@@ -19477,7 +19481,7 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="13" t="s">
+      <c r="A819" s="15" t="s">
         <v>818</v>
       </c>
       <c r="B819">
@@ -19497,7 +19501,7 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="13" t="s">
+      <c r="A820" s="15" t="s">
         <v>819</v>
       </c>
       <c r="B820">
@@ -19517,7 +19521,7 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="13" t="s">
+      <c r="A821" s="15" t="s">
         <v>820</v>
       </c>
       <c r="B821">
@@ -19537,7 +19541,7 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="13" t="s">
+      <c r="A822" s="15" t="s">
         <v>821</v>
       </c>
       <c r="B822">
@@ -19557,7 +19561,7 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" s="13" t="s">
+      <c r="A823" s="15" t="s">
         <v>822</v>
       </c>
       <c r="B823">
@@ -19577,7 +19581,7 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="13" t="s">
+      <c r="A824" s="15" t="s">
         <v>823</v>
       </c>
       <c r="B824">
@@ -19597,7 +19601,7 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="13" t="s">
+      <c r="A825" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B825">
@@ -19617,7 +19621,7 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="13" t="s">
+      <c r="A826" s="15" t="s">
         <v>825</v>
       </c>
       <c r="B826">
@@ -19637,7 +19641,7 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="13" t="s">
+      <c r="A827" s="15" t="s">
         <v>826</v>
       </c>
       <c r="B827">
@@ -19657,7 +19661,7 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="13" t="s">
+      <c r="A828" s="15" t="s">
         <v>827</v>
       </c>
       <c r="B828">
@@ -19677,7 +19681,7 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="13" t="s">
+      <c r="A829" s="15" t="s">
         <v>828</v>
       </c>
       <c r="B829">
@@ -19697,7 +19701,7 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="13" t="s">
+      <c r="A830" s="15" t="s">
         <v>829</v>
       </c>
       <c r="B830">
@@ -19717,7 +19721,7 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" s="13" t="s">
+      <c r="A831" s="15" t="s">
         <v>830</v>
       </c>
       <c r="B831">
@@ -19737,7 +19741,7 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="13" t="s">
+      <c r="A832" s="15" t="s">
         <v>831</v>
       </c>
       <c r="B832">
@@ -19757,7 +19761,7 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="13" t="s">
+      <c r="A833" s="15" t="s">
         <v>832</v>
       </c>
       <c r="B833">
@@ -19777,7 +19781,7 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="13" t="s">
+      <c r="A834" s="15" t="s">
         <v>833</v>
       </c>
       <c r="B834">
@@ -19797,7 +19801,7 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="13" t="s">
+      <c r="A835" s="15" t="s">
         <v>834</v>
       </c>
       <c r="B835">
@@ -19817,7 +19821,7 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="13" t="s">
+      <c r="A836" s="15" t="s">
         <v>835</v>
       </c>
       <c r="B836">
@@ -19837,7 +19841,7 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="13" t="s">
+      <c r="A837" s="15" t="s">
         <v>836</v>
       </c>
       <c r="B837">
@@ -19857,7 +19861,7 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="13" t="s">
+      <c r="A838" s="15" t="s">
         <v>837</v>
       </c>
       <c r="B838">
@@ -19877,7 +19881,7 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="13" t="s">
+      <c r="A839" s="15" t="s">
         <v>838</v>
       </c>
       <c r="B839">
@@ -19897,7 +19901,7 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="13" t="s">
+      <c r="A840" s="15" t="s">
         <v>839</v>
       </c>
       <c r="B840">
@@ -19917,7 +19921,7 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="13" t="s">
+      <c r="A841" s="15" t="s">
         <v>840</v>
       </c>
       <c r="B841">
@@ -19937,7 +19941,7 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="13" t="s">
+      <c r="A842" s="15" t="s">
         <v>841</v>
       </c>
       <c r="B842">
@@ -19957,7 +19961,7 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="13" t="s">
+      <c r="A843" s="15" t="s">
         <v>842</v>
       </c>
       <c r="B843">
@@ -19977,7 +19981,7 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" s="13" t="s">
+      <c r="A844" s="15" t="s">
         <v>843</v>
       </c>
       <c r="B844">
@@ -19997,7 +20001,7 @@
       </c>
     </row>
     <row r="845">
-      <c r="A845" s="13" t="s">
+      <c r="A845" s="15" t="s">
         <v>844</v>
       </c>
       <c r="B845">
@@ -20017,7 +20021,7 @@
       </c>
     </row>
     <row r="846">
-      <c r="A846" s="13" t="s">
+      <c r="A846" s="15" t="s">
         <v>845</v>
       </c>
       <c r="B846">
@@ -20037,7 +20041,7 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" s="13" t="s">
+      <c r="A847" s="15" t="s">
         <v>846</v>
       </c>
       <c r="B847">
@@ -20057,7 +20061,7 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="13" t="s">
+      <c r="A848" s="15" t="s">
         <v>847</v>
       </c>
       <c r="B848">
@@ -20077,7 +20081,7 @@
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="13" t="s">
+      <c r="A849" s="15" t="s">
         <v>848</v>
       </c>
       <c r="B849">
@@ -20097,7 +20101,7 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="13" t="s">
+      <c r="A850" s="15" t="s">
         <v>849</v>
       </c>
       <c r="B850">
@@ -20117,7 +20121,7 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="13" t="s">
+      <c r="A851" s="15" t="s">
         <v>850</v>
       </c>
       <c r="B851">
@@ -20137,7 +20141,7 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" s="13" t="s">
+      <c r="A852" s="15" t="s">
         <v>851</v>
       </c>
       <c r="B852">
@@ -20157,7 +20161,7 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" s="13" t="s">
+      <c r="A853" s="15" t="s">
         <v>852</v>
       </c>
       <c r="B853">
@@ -20177,7 +20181,7 @@
       </c>
     </row>
     <row r="854">
-      <c r="A854" s="13" t="s">
+      <c r="A854" s="15" t="s">
         <v>853</v>
       </c>
       <c r="B854">
@@ -20197,7 +20201,7 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" s="13" t="s">
+      <c r="A855" s="15" t="s">
         <v>854</v>
       </c>
       <c r="B855">
@@ -20217,7 +20221,7 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" s="13" t="s">
+      <c r="A856" s="15" t="s">
         <v>855</v>
       </c>
       <c r="B856">
@@ -20237,7 +20241,7 @@
       </c>
     </row>
     <row r="857">
-      <c r="A857" s="13" t="s">
+      <c r="A857" s="15" t="s">
         <v>856</v>
       </c>
       <c r="B857">
@@ -20257,7 +20261,7 @@
       </c>
     </row>
     <row r="858">
-      <c r="A858" s="13" t="s">
+      <c r="A858" s="15" t="s">
         <v>857</v>
       </c>
       <c r="B858">
@@ -20277,7 +20281,7 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" s="13" t="s">
+      <c r="A859" s="15" t="s">
         <v>858</v>
       </c>
       <c r="B859">
@@ -20297,7 +20301,7 @@
       </c>
     </row>
     <row r="860">
-      <c r="A860" s="13" t="s">
+      <c r="A860" s="15" t="s">
         <v>859</v>
       </c>
       <c r="B860">
@@ -20317,7 +20321,7 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" s="13" t="s">
+      <c r="A861" s="15" t="s">
         <v>860</v>
       </c>
       <c r="B861">
@@ -20337,7 +20341,7 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" s="13" t="s">
+      <c r="A862" s="15" t="s">
         <v>861</v>
       </c>
       <c r="B862">
@@ -20357,7 +20361,7 @@
       </c>
     </row>
     <row r="863">
-      <c r="A863" s="13" t="s">
+      <c r="A863" s="15" t="s">
         <v>862</v>
       </c>
       <c r="B863">
@@ -20377,7 +20381,7 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" s="13" t="s">
+      <c r="A864" s="15" t="s">
         <v>863</v>
       </c>
       <c r="B864">
@@ -20397,7 +20401,7 @@
       </c>
     </row>
     <row r="865">
-      <c r="A865" s="13" t="s">
+      <c r="A865" s="15" t="s">
         <v>864</v>
       </c>
       <c r="B865">
@@ -20417,7 +20421,7 @@
       </c>
     </row>
     <row r="866">
-      <c r="A866" s="13" t="s">
+      <c r="A866" s="15" t="s">
         <v>865</v>
       </c>
       <c r="B866">
@@ -20437,7 +20441,7 @@
       </c>
     </row>
     <row r="867">
-      <c r="A867" s="13" t="s">
+      <c r="A867" s="15" t="s">
         <v>866</v>
       </c>
       <c r="B867">
@@ -20457,7 +20461,7 @@
       </c>
     </row>
     <row r="868">
-      <c r="A868" s="13" t="s">
+      <c r="A868" s="15" t="s">
         <v>867</v>
       </c>
       <c r="B868">
@@ -20477,7 +20481,7 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" s="13" t="s">
+      <c r="A869" s="15" t="s">
         <v>868</v>
       </c>
       <c r="B869">
@@ -20497,7 +20501,7 @@
       </c>
     </row>
     <row r="870">
-      <c r="A870" s="13" t="s">
+      <c r="A870" s="15" t="s">
         <v>869</v>
       </c>
       <c r="B870">
@@ -20517,7 +20521,7 @@
       </c>
     </row>
     <row r="871">
-      <c r="A871" s="13" t="s">
+      <c r="A871" s="15" t="s">
         <v>870</v>
       </c>
       <c r="B871">
@@ -20537,7 +20541,7 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" s="13" t="s">
+      <c r="A872" s="15" t="s">
         <v>871</v>
       </c>
       <c r="B872">
@@ -20557,7 +20561,7 @@
       </c>
     </row>
     <row r="873">
-      <c r="A873" s="13" t="s">
+      <c r="A873" s="15" t="s">
         <v>872</v>
       </c>
       <c r="B873">
@@ -20577,7 +20581,7 @@
       </c>
     </row>
     <row r="874">
-      <c r="A874" s="13" t="s">
+      <c r="A874" s="15" t="s">
         <v>873</v>
       </c>
       <c r="B874">
@@ -20597,7 +20601,7 @@
       </c>
     </row>
     <row r="875">
-      <c r="A875" s="13" t="s">
+      <c r="A875" s="15" t="s">
         <v>874</v>
       </c>
       <c r="B875">
@@ -20617,7 +20621,7 @@
       </c>
     </row>
     <row r="876">
-      <c r="A876" s="13" t="s">
+      <c r="A876" s="15" t="s">
         <v>875</v>
       </c>
       <c r="B876">
@@ -20637,7 +20641,7 @@
       </c>
     </row>
     <row r="877">
-      <c r="A877" s="13" t="s">
+      <c r="A877" s="15" t="s">
         <v>876</v>
       </c>
       <c r="B877">
@@ -20657,7 +20661,7 @@
       </c>
     </row>
     <row r="878">
-      <c r="A878" s="13" t="s">
+      <c r="A878" s="15" t="s">
         <v>877</v>
       </c>
       <c r="B878">
@@ -20677,7 +20681,7 @@
       </c>
     </row>
     <row r="879">
-      <c r="A879" s="13" t="s">
+      <c r="A879" s="15" t="s">
         <v>878</v>
       </c>
       <c r="B879">
@@ -20697,7 +20701,7 @@
       </c>
     </row>
     <row r="880">
-      <c r="A880" s="13" t="s">
+      <c r="A880" s="15" t="s">
         <v>879</v>
       </c>
       <c r="B880">
@@ -20717,7 +20721,7 @@
       </c>
     </row>
     <row r="881">
-      <c r="A881" s="13" t="s">
+      <c r="A881" s="15" t="s">
         <v>880</v>
       </c>
       <c r="B881">
@@ -20737,7 +20741,7 @@
       </c>
     </row>
     <row r="882">
-      <c r="A882" s="13" t="s">
+      <c r="A882" s="15" t="s">
         <v>881</v>
       </c>
       <c r="B882">
@@ -20757,7 +20761,7 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" s="13" t="s">
+      <c r="A883" s="15" t="s">
         <v>882</v>
       </c>
       <c r="B883">
@@ -20777,7 +20781,7 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" s="13" t="s">
+      <c r="A884" s="15" t="s">
         <v>883</v>
       </c>
       <c r="B884">
@@ -20797,7 +20801,7 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" s="13" t="s">
+      <c r="A885" s="15" t="s">
         <v>884</v>
       </c>
       <c r="B885">
@@ -20817,7 +20821,7 @@
       </c>
     </row>
     <row r="886">
-      <c r="A886" s="13" t="s">
+      <c r="A886" s="15" t="s">
         <v>885</v>
       </c>
       <c r="B886">
@@ -20837,7 +20841,7 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" s="13" t="s">
+      <c r="A887" s="15" t="s">
         <v>886</v>
       </c>
       <c r="B887">
@@ -20857,7 +20861,7 @@
       </c>
     </row>
     <row r="888">
-      <c r="A888" s="13" t="s">
+      <c r="A888" s="15" t="s">
         <v>887</v>
       </c>
       <c r="B888">
@@ -20877,7 +20881,7 @@
       </c>
     </row>
     <row r="889">
-      <c r="A889" s="13" t="s">
+      <c r="A889" s="15" t="s">
         <v>888</v>
       </c>
       <c r="B889">
@@ -20897,7 +20901,7 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" s="13" t="s">
+      <c r="A890" s="15" t="s">
         <v>889</v>
       </c>
       <c r="B890">
@@ -20917,7 +20921,7 @@
       </c>
     </row>
     <row r="891">
-      <c r="A891" s="13" t="s">
+      <c r="A891" s="15" t="s">
         <v>890</v>
       </c>
       <c r="B891">
@@ -20937,7 +20941,7 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" s="13" t="s">
+      <c r="A892" s="15" t="s">
         <v>891</v>
       </c>
       <c r="B892">
@@ -20957,7 +20961,7 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" s="13" t="s">
+      <c r="A893" s="15" t="s">
         <v>892</v>
       </c>
       <c r="B893">
@@ -20977,7 +20981,7 @@
       </c>
     </row>
     <row r="894">
-      <c r="A894" s="13" t="s">
+      <c r="A894" s="15" t="s">
         <v>893</v>
       </c>
       <c r="B894">
@@ -20997,7 +21001,7 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" s="13" t="s">
+      <c r="A895" s="15" t="s">
         <v>894</v>
       </c>
       <c r="B895">
@@ -21017,7 +21021,7 @@
       </c>
     </row>
     <row r="896">
-      <c r="A896" s="13" t="s">
+      <c r="A896" s="15" t="s">
         <v>895</v>
       </c>
       <c r="B896">
@@ -21037,7 +21041,7 @@
       </c>
     </row>
     <row r="897">
-      <c r="A897" s="13" t="s">
+      <c r="A897" s="15" t="s">
         <v>896</v>
       </c>
       <c r="B897">
@@ -21057,7 +21061,7 @@
       </c>
     </row>
     <row r="898">
-      <c r="A898" s="13" t="s">
+      <c r="A898" s="15" t="s">
         <v>897</v>
       </c>
       <c r="B898">
@@ -21077,7 +21081,7 @@
       </c>
     </row>
     <row r="899">
-      <c r="A899" s="13" t="s">
+      <c r="A899" s="15" t="s">
         <v>898</v>
       </c>
       <c r="B899">
@@ -21097,7 +21101,7 @@
       </c>
     </row>
     <row r="900">
-      <c r="A900" s="13" t="s">
+      <c r="A900" s="15" t="s">
         <v>899</v>
       </c>
       <c r="B900">
@@ -21117,7 +21121,7 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" s="13" t="s">
+      <c r="A901" s="15" t="s">
         <v>900</v>
       </c>
       <c r="B901">
@@ -21137,7 +21141,7 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" s="13" t="s">
+      <c r="A902" s="15" t="s">
         <v>901</v>
       </c>
       <c r="B902">
@@ -21157,7 +21161,7 @@
       </c>
     </row>
     <row r="903">
-      <c r="A903" s="13" t="s">
+      <c r="A903" s="15" t="s">
         <v>902</v>
       </c>
       <c r="B903">
@@ -21177,7 +21181,7 @@
       </c>
     </row>
     <row r="904">
-      <c r="A904" s="13" t="s">
+      <c r="A904" s="15" t="s">
         <v>903</v>
       </c>
       <c r="B904">
@@ -21197,7 +21201,7 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" s="13" t="s">
+      <c r="A905" s="15" t="s">
         <v>904</v>
       </c>
       <c r="B905">
@@ -21217,7 +21221,7 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" s="13" t="s">
+      <c r="A906" s="15" t="s">
         <v>905</v>
       </c>
       <c r="B906">
@@ -21237,7 +21241,7 @@
       </c>
     </row>
     <row r="907">
-      <c r="A907" s="13" t="s">
+      <c r="A907" s="15" t="s">
         <v>906</v>
       </c>
       <c r="B907">
@@ -21257,7 +21261,7 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" s="13" t="s">
+      <c r="A908" s="15" t="s">
         <v>907</v>
       </c>
       <c r="B908">
@@ -21277,7 +21281,7 @@
       </c>
     </row>
     <row r="909">
-      <c r="A909" s="13" t="s">
+      <c r="A909" s="15" t="s">
         <v>908</v>
       </c>
       <c r="B909">
@@ -21297,7 +21301,7 @@
       </c>
     </row>
     <row r="910">
-      <c r="A910" s="13" t="s">
+      <c r="A910" s="15" t="s">
         <v>909</v>
       </c>
       <c r="B910">
@@ -21317,7 +21321,7 @@
       </c>
     </row>
     <row r="911">
-      <c r="A911" s="13" t="s">
+      <c r="A911" s="15" t="s">
         <v>910</v>
       </c>
       <c r="B911">
@@ -21337,7 +21341,7 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" s="13" t="s">
+      <c r="A912" s="15" t="s">
         <v>911</v>
       </c>
       <c r="B912">
@@ -21357,7 +21361,7 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" s="13" t="s">
+      <c r="A913" s="15" t="s">
         <v>912</v>
       </c>
       <c r="B913">
@@ -21377,7 +21381,7 @@
       </c>
     </row>
     <row r="914">
-      <c r="A914" s="13" t="s">
+      <c r="A914" s="15" t="s">
         <v>913</v>
       </c>
       <c r="B914">
@@ -21397,7 +21401,7 @@
       </c>
     </row>
     <row r="915">
-      <c r="A915" s="13" t="s">
+      <c r="A915" s="15" t="s">
         <v>914</v>
       </c>
       <c r="B915">
@@ -21417,7 +21421,7 @@
       </c>
     </row>
     <row r="916">
-      <c r="A916" s="13" t="s">
+      <c r="A916" s="15" t="s">
         <v>915</v>
       </c>
       <c r="B916">
@@ -21437,7 +21441,7 @@
       </c>
     </row>
     <row r="917">
-      <c r="A917" s="13" t="s">
+      <c r="A917" s="15" t="s">
         <v>916</v>
       </c>
       <c r="B917">
@@ -21457,7 +21461,7 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" s="13" t="s">
+      <c r="A918" s="15" t="s">
         <v>917</v>
       </c>
       <c r="B918">
@@ -21477,7 +21481,7 @@
       </c>
     </row>
     <row r="919">
-      <c r="A919" s="13" t="s">
+      <c r="A919" s="15" t="s">
         <v>918</v>
       </c>
       <c r="B919">
@@ -21497,7 +21501,7 @@
       </c>
     </row>
     <row r="920">
-      <c r="A920" s="13" t="s">
+      <c r="A920" s="15" t="s">
         <v>919</v>
       </c>
       <c r="B920">
@@ -21517,7 +21521,7 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" s="13" t="s">
+      <c r="A921" s="15" t="s">
         <v>920</v>
       </c>
       <c r="B921">
@@ -21537,7 +21541,7 @@
       </c>
     </row>
     <row r="922">
-      <c r="A922" s="13" t="s">
+      <c r="A922" s="15" t="s">
         <v>921</v>
       </c>
       <c r="B922">
@@ -21557,7 +21561,7 @@
       </c>
     </row>
     <row r="923">
-      <c r="A923" s="13" t="s">
+      <c r="A923" s="15" t="s">
         <v>922</v>
       </c>
       <c r="B923">
@@ -21577,7 +21581,7 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" s="13" t="s">
+      <c r="A924" s="15" t="s">
         <v>923</v>
       </c>
       <c r="B924">
@@ -21597,7 +21601,7 @@
       </c>
     </row>
     <row r="925">
-      <c r="A925" s="13" t="s">
+      <c r="A925" s="15" t="s">
         <v>924</v>
       </c>
       <c r="B925">
@@ -21617,7 +21621,7 @@
       </c>
     </row>
     <row r="926">
-      <c r="A926" s="13" t="s">
+      <c r="A926" s="15" t="s">
         <v>925</v>
       </c>
       <c r="B926">
@@ -21637,7 +21641,7 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" s="13" t="s">
+      <c r="A927" s="15" t="s">
         <v>926</v>
       </c>
       <c r="B927">
@@ -21657,7 +21661,7 @@
       </c>
     </row>
     <row r="928">
-      <c r="A928" s="13" t="s">
+      <c r="A928" s="15" t="s">
         <v>927</v>
       </c>
       <c r="B928">
@@ -21677,7 +21681,7 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" s="13" t="s">
+      <c r="A929" s="15" t="s">
         <v>928</v>
       </c>
       <c r="B929">
@@ -21697,7 +21701,7 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" s="13" t="s">
+      <c r="A930" s="15" t="s">
         <v>929</v>
       </c>
       <c r="B930">
@@ -21717,7 +21721,7 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" s="13" t="s">
+      <c r="A931" s="15" t="s">
         <v>930</v>
       </c>
       <c r="B931">
@@ -21737,7 +21741,7 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" s="13" t="s">
+      <c r="A932" s="15" t="s">
         <v>931</v>
       </c>
       <c r="B932">
@@ -21757,7 +21761,7 @@
       </c>
     </row>
     <row r="933">
-      <c r="A933" s="13" t="s">
+      <c r="A933" s="15" t="s">
         <v>932</v>
       </c>
       <c r="B933">
@@ -21777,7 +21781,7 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" s="13" t="s">
+      <c r="A934" s="15" t="s">
         <v>933</v>
       </c>
       <c r="B934">
@@ -21797,7 +21801,7 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" s="13" t="s">
+      <c r="A935" s="15" t="s">
         <v>934</v>
       </c>
       <c r="B935">
@@ -21817,7 +21821,7 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" s="13" t="s">
+      <c r="A936" s="15" t="s">
         <v>935</v>
       </c>
       <c r="B936">
@@ -21837,7 +21841,7 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" s="13" t="s">
+      <c r="A937" s="15" t="s">
         <v>936</v>
       </c>
       <c r="B937">
@@ -21857,7 +21861,7 @@
       </c>
     </row>
     <row r="938">
-      <c r="A938" s="13" t="s">
+      <c r="A938" s="15" t="s">
         <v>937</v>
       </c>
       <c r="B938">
@@ -21877,7 +21881,7 @@
       </c>
     </row>
     <row r="939">
-      <c r="A939" s="13" t="s">
+      <c r="A939" s="15" t="s">
         <v>938</v>
       </c>
       <c r="B939">
@@ -21897,7 +21901,7 @@
       </c>
     </row>
     <row r="940">
-      <c r="A940" s="13" t="s">
+      <c r="A940" s="15" t="s">
         <v>939</v>
       </c>
       <c r="B940">
@@ -21917,7 +21921,7 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" s="13" t="s">
+      <c r="A941" s="15" t="s">
         <v>940</v>
       </c>
       <c r="B941">
@@ -21937,7 +21941,7 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" s="13" t="s">
+      <c r="A942" s="15" t="s">
         <v>941</v>
       </c>
       <c r="B942">
@@ -21957,7 +21961,7 @@
       </c>
     </row>
     <row r="943">
-      <c r="A943" s="13" t="s">
+      <c r="A943" s="15" t="s">
         <v>942</v>
       </c>
       <c r="B943">
@@ -21977,7 +21981,7 @@
       </c>
     </row>
     <row r="944">
-      <c r="A944" s="13" t="s">
+      <c r="A944" s="15" t="s">
         <v>943</v>
       </c>
       <c r="B944">
@@ -21997,7 +22001,7 @@
       </c>
     </row>
     <row r="945">
-      <c r="A945" s="13" t="s">
+      <c r="A945" s="15" t="s">
         <v>944</v>
       </c>
       <c r="B945">
@@ -22017,7 +22021,7 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" s="13" t="s">
+      <c r="A946" s="15" t="s">
         <v>945</v>
       </c>
       <c r="B946">
@@ -22037,7 +22041,7 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" s="13" t="s">
+      <c r="A947" s="15" t="s">
         <v>946</v>
       </c>
       <c r="B947">
@@ -22057,7 +22061,7 @@
       </c>
     </row>
     <row r="948">
-      <c r="A948" s="13" t="s">
+      <c r="A948" s="15" t="s">
         <v>947</v>
       </c>
       <c r="B948">
@@ -22077,7 +22081,7 @@
       </c>
     </row>
     <row r="949">
-      <c r="A949" s="13" t="s">
+      <c r="A949" s="15" t="s">
         <v>948</v>
       </c>
       <c r="B949">
@@ -22097,7 +22101,7 @@
       </c>
     </row>
     <row r="950">
-      <c r="A950" s="13" t="s">
+      <c r="A950" s="15" t="s">
         <v>949</v>
       </c>
       <c r="B950">
@@ -22117,7 +22121,7 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" s="13" t="s">
+      <c r="A951" s="15" t="s">
         <v>950</v>
       </c>
       <c r="B951">
@@ -22137,7 +22141,7 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" s="13" t="s">
+      <c r="A952" s="15" t="s">
         <v>951</v>
       </c>
       <c r="B952">
@@ -22157,7 +22161,7 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" s="13" t="s">
+      <c r="A953" s="15" t="s">
         <v>952</v>
       </c>
       <c r="B953">
@@ -22177,7 +22181,7 @@
       </c>
     </row>
     <row r="954">
-      <c r="A954" s="13" t="s">
+      <c r="A954" s="15" t="s">
         <v>953</v>
       </c>
       <c r="B954">
@@ -22197,7 +22201,7 @@
       </c>
     </row>
     <row r="955">
-      <c r="A955" s="13" t="s">
+      <c r="A955" s="15" t="s">
         <v>954</v>
       </c>
       <c r="B955">
@@ -22217,7 +22221,7 @@
       </c>
     </row>
     <row r="956">
-      <c r="A956" s="13" t="s">
+      <c r="A956" s="15" t="s">
         <v>955</v>
       </c>
       <c r="B956">
@@ -22237,7 +22241,7 @@
       </c>
     </row>
     <row r="957">
-      <c r="A957" s="13" t="s">
+      <c r="A957" s="15" t="s">
         <v>956</v>
       </c>
       <c r="B957">
@@ -22257,7 +22261,7 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" s="13" t="s">
+      <c r="A958" s="15" t="s">
         <v>957</v>
       </c>
       <c r="B958">
@@ -22277,7 +22281,7 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" s="13" t="s">
+      <c r="A959" s="15" t="s">
         <v>958</v>
       </c>
       <c r="B959">
@@ -22297,7 +22301,7 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" s="13" t="s">
+      <c r="A960" s="15" t="s">
         <v>959</v>
       </c>
       <c r="B960">
@@ -22317,7 +22321,7 @@
       </c>
     </row>
     <row r="961">
-      <c r="A961" s="13" t="s">
+      <c r="A961" s="15" t="s">
         <v>960</v>
       </c>
       <c r="B961">
@@ -22337,7 +22341,7 @@
       </c>
     </row>
     <row r="962">
-      <c r="A962" s="13" t="s">
+      <c r="A962" s="15" t="s">
         <v>961</v>
       </c>
       <c r="B962">
@@ -22357,7 +22361,7 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" s="13" t="s">
+      <c r="A963" s="15" t="s">
         <v>962</v>
       </c>
       <c r="B963">
@@ -22377,7 +22381,7 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" s="13" t="s">
+      <c r="A964" s="15" t="s">
         <v>963</v>
       </c>
       <c r="B964">
@@ -22397,7 +22401,7 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" s="13" t="s">
+      <c r="A965" s="15" t="s">
         <v>964</v>
       </c>
       <c r="B965">
@@ -22417,7 +22421,7 @@
       </c>
     </row>
     <row r="966">
-      <c r="A966" s="13" t="s">
+      <c r="A966" s="15" t="s">
         <v>965</v>
       </c>
       <c r="B966">
@@ -22437,7 +22441,7 @@
       </c>
     </row>
     <row r="967">
-      <c r="A967" s="13" t="s">
+      <c r="A967" s="15" t="s">
         <v>966</v>
       </c>
       <c r="B967">
@@ -22457,7 +22461,7 @@
       </c>
     </row>
     <row r="968">
-      <c r="A968" s="13" t="s">
+      <c r="A968" s="15" t="s">
         <v>967</v>
       </c>
       <c r="B968">
@@ -22477,7 +22481,7 @@
       </c>
     </row>
     <row r="969">
-      <c r="A969" s="13" t="s">
+      <c r="A969" s="15" t="s">
         <v>968</v>
       </c>
       <c r="B969">
@@ -22497,7 +22501,7 @@
       </c>
     </row>
     <row r="970">
-      <c r="A970" s="13" t="s">
+      <c r="A970" s="15" t="s">
         <v>969</v>
       </c>
       <c r="B970">
@@ -22517,7 +22521,7 @@
       </c>
     </row>
     <row r="971">
-      <c r="A971" s="13" t="s">
+      <c r="A971" s="15" t="s">
         <v>970</v>
       </c>
       <c r="B971">
@@ -22537,7 +22541,7 @@
       </c>
     </row>
     <row r="972">
-      <c r="A972" s="13" t="s">
+      <c r="A972" s="15" t="s">
         <v>971</v>
       </c>
       <c r="B972">
@@ -22557,7 +22561,7 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" s="13" t="s">
+      <c r="A973" s="15" t="s">
         <v>972</v>
       </c>
       <c r="B973">
@@ -22577,7 +22581,7 @@
       </c>
     </row>
     <row r="974">
-      <c r="A974" s="13" t="s">
+      <c r="A974" s="15" t="s">
         <v>973</v>
       </c>
       <c r="B974">
@@ -22597,7 +22601,7 @@
       </c>
     </row>
     <row r="975">
-      <c r="A975" s="13" t="s">
+      <c r="A975" s="15" t="s">
         <v>974</v>
       </c>
       <c r="B975">
@@ -22617,7 +22621,7 @@
       </c>
     </row>
     <row r="976">
-      <c r="A976" s="13" t="s">
+      <c r="A976" s="15" t="s">
         <v>975</v>
       </c>
       <c r="B976">
@@ -22637,7 +22641,7 @@
       </c>
     </row>
     <row r="977">
-      <c r="A977" s="13" t="s">
+      <c r="A977" s="15" t="s">
         <v>976</v>
       </c>
       <c r="B977">
@@ -22657,7 +22661,7 @@
       </c>
     </row>
     <row r="978">
-      <c r="A978" s="13" t="s">
+      <c r="A978" s="15" t="s">
         <v>977</v>
       </c>
       <c r="B978">
@@ -22677,7 +22681,7 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" s="13" t="s">
+      <c r="A979" s="15" t="s">
         <v>978</v>
       </c>
       <c r="B979">
@@ -22697,7 +22701,7 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" s="13" t="s">
+      <c r="A980" s="15" t="s">
         <v>979</v>
       </c>
       <c r="B980">
@@ -22717,7 +22721,7 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" s="13" t="s">
+      <c r="A981" s="15" t="s">
         <v>980</v>
       </c>
       <c r="B981">
@@ -22737,7 +22741,7 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" s="13" t="s">
+      <c r="A982" s="15" t="s">
         <v>981</v>
       </c>
       <c r="B982">
@@ -22757,7 +22761,7 @@
       </c>
     </row>
     <row r="983">
-      <c r="A983" s="13" t="s">
+      <c r="A983" s="15" t="s">
         <v>982</v>
       </c>
       <c r="B983">
@@ -22777,7 +22781,7 @@
       </c>
     </row>
     <row r="984">
-      <c r="A984" s="13" t="s">
+      <c r="A984" s="15" t="s">
         <v>983</v>
       </c>
       <c r="B984">
@@ -22797,7 +22801,7 @@
       </c>
     </row>
     <row r="985">
-      <c r="A985" s="13" t="s">
+      <c r="A985" s="15" t="s">
         <v>984</v>
       </c>
       <c r="B985">
@@ -22817,7 +22821,7 @@
       </c>
     </row>
     <row r="986">
-      <c r="A986" s="13" t="s">
+      <c r="A986" s="15" t="s">
         <v>985</v>
       </c>
       <c r="B986">
@@ -22837,7 +22841,7 @@
       </c>
     </row>
     <row r="987">
-      <c r="A987" s="13" t="s">
+      <c r="A987" s="15" t="s">
         <v>986</v>
       </c>
       <c r="B987">
@@ -22857,7 +22861,7 @@
       </c>
     </row>
     <row r="988">
-      <c r="A988" s="13" t="s">
+      <c r="A988" s="15" t="s">
         <v>987</v>
       </c>
       <c r="B988">
@@ -22877,7 +22881,7 @@
       </c>
     </row>
     <row r="989">
-      <c r="A989" s="13" t="s">
+      <c r="A989" s="15" t="s">
         <v>988</v>
       </c>
       <c r="B989">
@@ -22897,7 +22901,7 @@
       </c>
     </row>
     <row r="990">
-      <c r="A990" s="13" t="s">
+      <c r="A990" s="15" t="s">
         <v>989</v>
       </c>
       <c r="B990">
@@ -22917,7 +22921,7 @@
       </c>
     </row>
     <row r="991">
-      <c r="A991" s="13" t="s">
+      <c r="A991" s="15" t="s">
         <v>990</v>
       </c>
       <c r="B991">
@@ -22937,7 +22941,7 @@
       </c>
     </row>
     <row r="992">
-      <c r="A992" s="13" t="s">
+      <c r="A992" s="15" t="s">
         <v>991</v>
       </c>
       <c r="B992">
@@ -22957,7 +22961,7 @@
       </c>
     </row>
     <row r="993">
-      <c r="A993" s="13" t="s">
+      <c r="A993" s="15" t="s">
         <v>992</v>
       </c>
       <c r="B993">
@@ -22977,7 +22981,7 @@
       </c>
     </row>
     <row r="994">
-      <c r="A994" s="13" t="s">
+      <c r="A994" s="15" t="s">
         <v>993</v>
       </c>
       <c r="B994">
@@ -22997,7 +23001,7 @@
       </c>
     </row>
     <row r="995">
-      <c r="A995" s="13" t="s">
+      <c r="A995" s="15" t="s">
         <v>994</v>
       </c>
       <c r="B995">
@@ -23017,7 +23021,7 @@
       </c>
     </row>
     <row r="996">
-      <c r="A996" s="13" t="s">
+      <c r="A996" s="15" t="s">
         <v>995</v>
       </c>
       <c r="B996">
@@ -23037,7 +23041,7 @@
       </c>
     </row>
     <row r="997">
-      <c r="A997" s="13" t="s">
+      <c r="A997" s="15" t="s">
         <v>996</v>
       </c>
       <c r="B997">
@@ -23057,7 +23061,7 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" s="13" t="s">
+      <c r="A998" s="15" t="s">
         <v>997</v>
       </c>
       <c r="B998">
@@ -23077,7 +23081,7 @@
       </c>
     </row>
     <row r="999">
-      <c r="A999" s="13" t="s">
+      <c r="A999" s="15" t="s">
         <v>998</v>
       </c>
       <c r="B999">
@@ -23097,7 +23101,7 @@
       </c>
     </row>
     <row r="1000">
-      <c r="A1000" s="13" t="s">
+      <c r="A1000" s="15" t="s">
         <v>999</v>
       </c>
       <c r="B1000">
@@ -23117,7 +23121,7 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" s="13" t="s">
+      <c r="A1001" s="15" t="s">
         <v>1000</v>
       </c>
       <c r="B1001">
@@ -23137,7 +23141,7 @@
       </c>
     </row>
     <row r="1002">
-      <c r="A1002" s="13" t="s">
+      <c r="A1002" s="15" t="s">
         <v>1001</v>
       </c>
       <c r="B1002">
